--- a/data/2020 Beach Sampling Compiled Results_FINALREPORT.xlsx
+++ b/data/2020 Beach Sampling Compiled Results_FINALREPORT.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bmeyer\Documents\KWF_Beach_Sampling_2019_2020\KWF_Beach_Sampling_2019_2020\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bmeyer\Documents\GitHub\KWF_Beach_Sampling_2019_2020\KWF_Beach_Sampling_2019_2020\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="803" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="803" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2020 READ THIS FIRST" sheetId="28" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="221">
   <si>
     <t>Sample Date</t>
   </si>
@@ -1116,6 +1116,9 @@
   </si>
   <si>
     <t>Aug 28</t>
+  </si>
+  <si>
+    <t>Look up full def here; do they mean no more thn 10% of sampes from season, or for 30 days?  If its for 30 days, there should be2-3 values per column at each site</t>
   </si>
 </sst>
 </file>
@@ -3997,12 +4000,9 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sheet1!$B$1</c:f>
+              <c:f>[1]Sheet1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2020</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -4020,359 +4020,44 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Sheet1!$A$2:$A$60</c:f>
+              <c:f>[1]Sheet1!$A$2:$A$65</c:f>
               <c:strCache>
-                <c:ptCount val="59"/>
-                <c:pt idx="0">
-                  <c:v>July 1</c:v>
-                </c:pt>
+                <c:ptCount val="64"/>
                 <c:pt idx="1">
-                  <c:v>July 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>July 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>July 4</c:v>
+                  <c:v>B (Water Recreation)  Fail / Pass</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>July 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>July 6</c:v>
+                  <c:v>Warren Ames Bridge</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>July 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>July 8</c:v>
+                  <c:v>Kenai River Gull Rookery 1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>July 9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>July 10</c:v>
+                  <c:v>Kenai River Gull Rookery 2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>July 11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>July 12</c:v>
+                  <c:v>South Kenai Beach 3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>July 13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>July 14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>July 15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>July 16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>July 17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>July 18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>July 19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>July 20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>July 21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>July 22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>July 23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>July 24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>July 25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>July 26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>July 27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>July 28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>July 29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>July 30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>July 31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>Aug 1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Aug 2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>Aug 3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Aug 4</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>Aug 5</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>Aug 6</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>Aug 7</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>Aug 8</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>Aug 9</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>Aug 10</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>Aug 11</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>Aug 12</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>Aug 13</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>Aug 14</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>Aug 15</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>Aug 16</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>Aug 17</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>Aug 18</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>Aug 19</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>Aug 20</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>Aug 21</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>Aug 22</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>Aug 23</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>Aug 24</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>Aug 25</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>Aug 26</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>Aug 27</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>Aug 28</c:v>
+                  <c:v>North Kenai Beach 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sheet1!$B$2:$B$60</c:f>
+              <c:f>[1]Sheet1!$C$2:$C$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="59"/>
-                <c:pt idx="0">
-                  <c:v>5355</c:v>
-                </c:pt>
+                <c:ptCount val="64"/>
                 <c:pt idx="1">
-                  <c:v>3468</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3576</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3965</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4290</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11190</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15138</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12127</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8686</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6032</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10104</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16526</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>36247</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>30084</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>34662</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>19086</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>31392</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>26143</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>32598</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>46306</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>17854</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>17316</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>20172</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>20562</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>23922</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>20117</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>38004</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>47946</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>40632</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>43048</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>40718</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>24792</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>37548</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>43706</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>41152</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>39293</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>40686</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>26737</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>25520</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>35474</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>24791</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>44123</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>49097</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>65900</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>107241</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>70055</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>112174</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>134874</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>56939</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>15709</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>43468</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>43826</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>20828</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>17402</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>4785</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4389,12 +4074,9 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sheet1!$C$1</c:f>
+              <c:f>[1]Sheet1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2019</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -4412,344 +4094,41 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Sheet1!$A$2:$A$60</c:f>
+              <c:f>[1]Sheet1!$A$2:$A$65</c:f>
               <c:strCache>
-                <c:ptCount val="59"/>
-                <c:pt idx="0">
-                  <c:v>July 1</c:v>
-                </c:pt>
+                <c:ptCount val="64"/>
                 <c:pt idx="1">
-                  <c:v>July 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>July 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>July 4</c:v>
+                  <c:v>B (Water Recreation)  Fail / Pass</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>July 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>July 6</c:v>
+                  <c:v>Warren Ames Bridge</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>July 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>July 8</c:v>
+                  <c:v>Kenai River Gull Rookery 1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>July 9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>July 10</c:v>
+                  <c:v>Kenai River Gull Rookery 2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>July 11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>July 12</c:v>
+                  <c:v>South Kenai Beach 3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>July 13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>July 14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>July 15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>July 16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>July 17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>July 18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>July 19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>July 20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>July 21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>July 22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>July 23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>July 24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>July 25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>July 26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>July 27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>July 28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>July 29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>July 30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>July 31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>Aug 1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Aug 2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>Aug 3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Aug 4</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>Aug 5</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>Aug 6</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>Aug 7</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>Aug 8</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>Aug 9</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>Aug 10</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>Aug 11</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>Aug 12</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>Aug 13</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>Aug 14</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>Aug 15</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>Aug 16</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>Aug 17</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>Aug 18</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>Aug 19</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>Aug 20</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>Aug 21</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>Aug 22</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>Aug 23</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>Aug 24</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>Aug 25</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>Aug 26</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>Aug 27</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>Aug 28</c:v>
+                  <c:v>North Kenai Beach 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sheet1!$C$2:$C$60</c:f>
+              <c:f>[1]Sheet1!$E$2:$E$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="59"/>
-                <c:pt idx="0">
-                  <c:v>6810</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7230</c:v>
-                </c:pt>
+                <c:ptCount val="64"/>
                 <c:pt idx="2">
-                  <c:v>6250</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7740</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8472</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9093</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12621</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21444</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15190</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10485</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14098</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>22868</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20130</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>34054</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>30509</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16420</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>23285</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>46059</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>25963</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>35652</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>76650</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>75542</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>36107</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>53574</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>80928</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>77996</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>98201</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>99038</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>75604</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>42439</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>34315</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>37711</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>42084</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>55930</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>62687</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>72712</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>76394</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>61264</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>48046</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>37042</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>32759</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>32146</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>25377</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>22158</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>25809</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>24908</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>22220</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>18146</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>16763</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>10131</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4766,12 +4145,9 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sheet1!$D$1</c:f>
+              <c:f>[1]Sheet1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2018</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -4789,371 +4165,74 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Sheet1!$A$2:$A$60</c:f>
+              <c:f>[1]Sheet1!$A$2:$A$65</c:f>
               <c:strCache>
-                <c:ptCount val="59"/>
-                <c:pt idx="0">
-                  <c:v>July 1</c:v>
-                </c:pt>
+                <c:ptCount val="64"/>
                 <c:pt idx="1">
-                  <c:v>July 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>July 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>July 4</c:v>
+                  <c:v>B (Water Recreation)  Fail / Pass</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>July 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>July 6</c:v>
+                  <c:v>Warren Ames Bridge</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>July 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>July 8</c:v>
+                  <c:v>Kenai River Gull Rookery 1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>July 9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>July 10</c:v>
+                  <c:v>Kenai River Gull Rookery 2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>July 11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>July 12</c:v>
+                  <c:v>South Kenai Beach 3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>July 13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>July 14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>July 15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>July 16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>July 17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>July 18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>July 19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>July 20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>July 21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>July 22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>July 23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>July 24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>July 25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>July 26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>July 27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>July 28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>July 29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>July 30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>July 31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>Aug 1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Aug 2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>Aug 3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Aug 4</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>Aug 5</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>Aug 6</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>Aug 7</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>Aug 8</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>Aug 9</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>Aug 10</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>Aug 11</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>Aug 12</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>Aug 13</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>Aug 14</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>Aug 15</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>Aug 16</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>Aug 17</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>Aug 18</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>Aug 19</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>Aug 20</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>Aug 21</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>Aug 22</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>Aug 23</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>Aug 24</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>Aug 25</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>Aug 26</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>Aug 27</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>Aug 28</c:v>
+                  <c:v>North Kenai Beach 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sheet1!$D$2:$D$60</c:f>
+              <c:f>[1]Sheet1!$H$2:$H$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="59"/>
-                <c:pt idx="0">
-                  <c:v>1966</c:v>
-                </c:pt>
+                <c:ptCount val="64"/>
                 <c:pt idx="1">
-                  <c:v>3694</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2394</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4559</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5065</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6505</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7786</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5544</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5724</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3744</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4062</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14898</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23394</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8593</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7662</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7110</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11072</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>19280</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>30293</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>33858</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>62503</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>24618</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>33606</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>25466</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>14129</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>15316</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>16043</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>8923</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>11482</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>14879</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>18579</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>22734</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>17967</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>22848</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>27423</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>31944</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>30190</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>55768</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>11146</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>14372</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>14265</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>26837</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>40040</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>16205</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>6692</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>12195</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>18030</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>23000</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>26642</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>29068</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>27787</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>17005</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>6539</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>28895</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>17189</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>19651</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>7795</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>9351</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1436</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5170,12 +4249,9 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sheet1!$E$1</c:f>
+              <c:f>[1]Sheet1!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2017</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -5193,359 +4269,38 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Sheet1!$A$2:$A$60</c:f>
+              <c:f>[1]Sheet1!$A$2:$A$65</c:f>
               <c:strCache>
-                <c:ptCount val="59"/>
-                <c:pt idx="0">
-                  <c:v>July 1</c:v>
-                </c:pt>
+                <c:ptCount val="64"/>
                 <c:pt idx="1">
-                  <c:v>July 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>July 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>July 4</c:v>
+                  <c:v>B (Water Recreation)  Fail / Pass</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>July 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>July 6</c:v>
+                  <c:v>Warren Ames Bridge</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>July 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>July 8</c:v>
+                  <c:v>Kenai River Gull Rookery 1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>July 9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>July 10</c:v>
+                  <c:v>Kenai River Gull Rookery 2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>July 11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>July 12</c:v>
+                  <c:v>South Kenai Beach 3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>July 13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>July 14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>July 15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>July 16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>July 17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>July 18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>July 19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>July 20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>July 21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>July 22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>July 23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>July 24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>July 25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>July 26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>July 27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>July 28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>July 29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>July 30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>July 31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>Aug 1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Aug 2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>Aug 3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Aug 4</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>Aug 5</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>Aug 6</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>Aug 7</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>Aug 8</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>Aug 9</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>Aug 10</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>Aug 11</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>Aug 12</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>Aug 13</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>Aug 14</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>Aug 15</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>Aug 16</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>Aug 17</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>Aug 18</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>Aug 19</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>Aug 20</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>Aug 21</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>Aug 22</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>Aug 23</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>Aug 24</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>Aug 25</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>Aug 26</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>Aug 27</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>Aug 28</c:v>
+                  <c:v>North Kenai Beach 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sheet1!$E$2:$E$60</c:f>
+              <c:f>[1]Sheet1!$I$2:$I$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="59"/>
-                <c:pt idx="0">
-                  <c:v>2924</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4088</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4880</c:v>
-                </c:pt>
+                <c:ptCount val="64"/>
                 <c:pt idx="3">
-                  <c:v>8652</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8833</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5676</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9688</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12138</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17946</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19932</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9390</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11330</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8346</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6565</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9180</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10185</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>30081</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>30486</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>24480</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>29730</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>27450</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>14280</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>27864</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>48467</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>59951</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>71904</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>66624</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>53887</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>56765</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>25104</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30523</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>30222</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>13064</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>23180</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>20405</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>17137</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>32544</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>56283</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>30678</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>13072</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>8620</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>13168</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>18558</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>30833</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>35256</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>21046</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>16629</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>30362</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>33151</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>32187</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>23203</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>20586</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>12087</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>12268</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>16610</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6476,976 +5231,153 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1">
-            <v>2020</v>
-          </cell>
-          <cell r="C1">
-            <v>2019</v>
-          </cell>
-          <cell r="D1">
-            <v>2018</v>
-          </cell>
-          <cell r="E1">
-            <v>2017</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>July 1</v>
-          </cell>
-          <cell r="B2">
-            <v>5355</v>
-          </cell>
-          <cell r="C2">
-            <v>6810</v>
-          </cell>
-          <cell r="D2">
-            <v>1966</v>
-          </cell>
-          <cell r="E2">
-            <v>2924</v>
-          </cell>
-        </row>
         <row r="3">
           <cell r="A3" t="str">
-            <v>July 2</v>
+            <v>B (Water Recreation)  Fail / Pass</v>
           </cell>
-          <cell r="B3">
-            <v>3468</v>
+          <cell r="C3" t="str">
+            <v>Fecal Coliform</v>
           </cell>
-          <cell r="C3">
-            <v>7230</v>
+          <cell r="E3"/>
+          <cell r="H3" t="str">
+            <v>Enterococci</v>
           </cell>
-          <cell r="D3">
-            <v>3694</v>
-          </cell>
-          <cell r="E3">
-            <v>4088</v>
-          </cell>
+          <cell r="I3"/>
         </row>
         <row r="4">
-          <cell r="A4" t="str">
-            <v>July 3</v>
+          <cell r="A4"/>
+          <cell r="C4" t="str">
+            <v>Secondary recreation</v>
           </cell>
-          <cell r="B4">
-            <v>3576</v>
+          <cell r="E4" t="str">
+            <v>Harvesting for consumption of raw mollusks or other raw aquatic life</v>
           </cell>
-          <cell r="C4">
-            <v>6250</v>
+          <cell r="H4" t="str">
+            <v>Contact recreation</v>
           </cell>
-          <cell r="D4">
-            <v>2394</v>
-          </cell>
-          <cell r="E4">
-            <v>4880</v>
-          </cell>
+          <cell r="I4"/>
         </row>
         <row r="5">
-          <cell r="A5" t="str">
-            <v>July 4</v>
+          <cell r="A5"/>
+          <cell r="C5" t="str">
+            <v>30-day geometric mean of samples may not exceed 200 CFU/100 mL</v>
           </cell>
-          <cell r="B5">
-            <v>3965</v>
+          <cell r="E5" t="str">
+            <v>30-day geometric mean of samples may not exceed 14 CFU/100 mL</v>
           </cell>
-          <cell r="C5">
-            <v>7740</v>
+          <cell r="H5" t="str">
+            <v>In a 30-day period, not more than 10% of individual samples may exceed 130 CFU/100 mL</v>
           </cell>
-          <cell r="D5">
-            <v>4559</v>
-          </cell>
-          <cell r="E5">
-            <v>8652</v>
+          <cell r="I5" t="str">
+            <v>30-day geometric mean of samples may not exceed 35 CFU/100 mL</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>July 5</v>
+            <v>Warren Ames Bridge</v>
           </cell>
-          <cell r="B6">
-            <v>4290</v>
+          <cell r="C6"/>
+          <cell r="E6"/>
+          <cell r="H6" t="str">
+            <v>0/4</v>
           </cell>
-          <cell r="C6">
-            <v>8472</v>
-          </cell>
-          <cell r="D6">
-            <v>5065</v>
-          </cell>
-          <cell r="E6">
-            <v>8833</v>
-          </cell>
+          <cell r="I6"/>
         </row>
         <row r="7">
-          <cell r="A7" t="str">
-            <v>July 6</v>
+          <cell r="A7"/>
+          <cell r="C7"/>
+          <cell r="E7"/>
+          <cell r="H7" t="str">
+            <v>0/4</v>
           </cell>
-          <cell r="B7">
-            <v>11190</v>
-          </cell>
-          <cell r="C7">
-            <v>9093</v>
-          </cell>
-          <cell r="D7">
-            <v>6505</v>
-          </cell>
-          <cell r="E7">
-            <v>5676</v>
-          </cell>
+          <cell r="I7"/>
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>July 7</v>
+            <v>Kenai River Gull Rookery 1</v>
           </cell>
-          <cell r="B8">
-            <v>15138</v>
+          <cell r="C8"/>
+          <cell r="E8"/>
+          <cell r="H8" t="str">
+            <v>0/4</v>
           </cell>
-          <cell r="C8">
-            <v>12621</v>
-          </cell>
-          <cell r="D8">
-            <v>7786</v>
-          </cell>
-          <cell r="E8">
-            <v>9688</v>
-          </cell>
+          <cell r="I8"/>
         </row>
         <row r="9">
-          <cell r="A9" t="str">
-            <v>July 8</v>
+          <cell r="A9"/>
+          <cell r="C9"/>
+          <cell r="E9"/>
+          <cell r="H9" t="str">
+            <v>0/4</v>
           </cell>
-          <cell r="B9">
-            <v>12127</v>
-          </cell>
-          <cell r="C9">
-            <v>21444</v>
-          </cell>
-          <cell r="D9">
-            <v>5544</v>
-          </cell>
-          <cell r="E9">
-            <v>12138</v>
-          </cell>
+          <cell r="I9"/>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>July 9</v>
+            <v>Kenai River Gull Rookery 2</v>
           </cell>
-          <cell r="B10">
-            <v>8686</v>
+          <cell r="C10"/>
+          <cell r="E10"/>
+          <cell r="H10" t="str">
+            <v>0/4</v>
           </cell>
-          <cell r="C10">
-            <v>15190</v>
-          </cell>
-          <cell r="D10">
-            <v>5724</v>
-          </cell>
-          <cell r="E10">
-            <v>17946</v>
-          </cell>
+          <cell r="I10"/>
         </row>
         <row r="11">
-          <cell r="A11" t="str">
-            <v>July 10</v>
+          <cell r="A11"/>
+          <cell r="C11"/>
+          <cell r="E11"/>
+          <cell r="H11" t="str">
+            <v>0/4</v>
           </cell>
-          <cell r="B11">
-            <v>6032</v>
-          </cell>
-          <cell r="C11">
-            <v>10485</v>
-          </cell>
-          <cell r="D11">
-            <v>3744</v>
-          </cell>
-          <cell r="E11">
-            <v>19932</v>
-          </cell>
+          <cell r="I11"/>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>July 11</v>
+            <v>South Kenai Beach 3</v>
           </cell>
-          <cell r="B12">
-            <v>10104</v>
+          <cell r="C12"/>
+          <cell r="E12"/>
+          <cell r="H12" t="str">
+            <v>2/5</v>
           </cell>
-          <cell r="C12">
-            <v>14098</v>
-          </cell>
-          <cell r="D12">
-            <v>4062</v>
-          </cell>
-          <cell r="E12">
-            <v>9390</v>
-          </cell>
+          <cell r="I12"/>
         </row>
         <row r="13">
-          <cell r="A13" t="str">
-            <v>July 12</v>
+          <cell r="A13"/>
+          <cell r="C13"/>
+          <cell r="E13"/>
+          <cell r="H13" t="str">
+            <v>0/5</v>
           </cell>
-          <cell r="B13">
-            <v>16526</v>
-          </cell>
-          <cell r="C13">
-            <v>22868</v>
-          </cell>
-          <cell r="D13">
-            <v>14898</v>
-          </cell>
-          <cell r="E13">
-            <v>11330</v>
-          </cell>
+          <cell r="I13"/>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>July 13</v>
+            <v>North Kenai Beach 4</v>
           </cell>
-          <cell r="B14">
-            <v>36247</v>
+          <cell r="C14"/>
+          <cell r="E14"/>
+          <cell r="H14" t="str">
+            <v>0/5</v>
           </cell>
-          <cell r="C14">
-            <v>20130</v>
-          </cell>
-          <cell r="D14">
-            <v>23394</v>
-          </cell>
-          <cell r="E14">
-            <v>8346</v>
-          </cell>
+          <cell r="I14"/>
         </row>
         <row r="15">
-          <cell r="A15" t="str">
-            <v>July 14</v>
+          <cell r="A15"/>
+          <cell r="C15"/>
+          <cell r="E15"/>
+          <cell r="H15" t="str">
+            <v>0/5</v>
           </cell>
-          <cell r="B15">
-            <v>30084</v>
-          </cell>
-          <cell r="C15">
-            <v>34054</v>
-          </cell>
-          <cell r="D15">
-            <v>8593</v>
-          </cell>
-          <cell r="E15">
-            <v>6565</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>July 15</v>
-          </cell>
-          <cell r="B16">
-            <v>34662</v>
-          </cell>
-          <cell r="C16">
-            <v>30509</v>
-          </cell>
-          <cell r="D16">
-            <v>7662</v>
-          </cell>
-          <cell r="E16">
-            <v>9180</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>July 16</v>
-          </cell>
-          <cell r="B17">
-            <v>19086</v>
-          </cell>
-          <cell r="C17">
-            <v>16420</v>
-          </cell>
-          <cell r="D17">
-            <v>7110</v>
-          </cell>
-          <cell r="E17">
-            <v>10185</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>July 17</v>
-          </cell>
-          <cell r="B18">
-            <v>31392</v>
-          </cell>
-          <cell r="C18">
-            <v>23285</v>
-          </cell>
-          <cell r="D18">
-            <v>11072</v>
-          </cell>
-          <cell r="E18">
-            <v>30081</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>July 18</v>
-          </cell>
-          <cell r="B19">
-            <v>26143</v>
-          </cell>
-          <cell r="C19">
-            <v>46059</v>
-          </cell>
-          <cell r="D19">
-            <v>19280</v>
-          </cell>
-          <cell r="E19">
-            <v>30486</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>July 19</v>
-          </cell>
-          <cell r="B20">
-            <v>32598</v>
-          </cell>
-          <cell r="C20">
-            <v>25963</v>
-          </cell>
-          <cell r="D20">
-            <v>30293</v>
-          </cell>
-          <cell r="E20">
-            <v>24480</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>July 20</v>
-          </cell>
-          <cell r="B21">
-            <v>46306</v>
-          </cell>
-          <cell r="C21">
-            <v>35652</v>
-          </cell>
-          <cell r="D21">
-            <v>33858</v>
-          </cell>
-          <cell r="E21">
-            <v>29730</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>July 21</v>
-          </cell>
-          <cell r="B22">
-            <v>17854</v>
-          </cell>
-          <cell r="C22">
-            <v>76650</v>
-          </cell>
-          <cell r="D22">
-            <v>62503</v>
-          </cell>
-          <cell r="E22">
-            <v>27450</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>July 22</v>
-          </cell>
-          <cell r="B23">
-            <v>17316</v>
-          </cell>
-          <cell r="C23">
-            <v>75542</v>
-          </cell>
-          <cell r="D23">
-            <v>24618</v>
-          </cell>
-          <cell r="E23">
-            <v>14280</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>July 23</v>
-          </cell>
-          <cell r="B24">
-            <v>20172</v>
-          </cell>
-          <cell r="C24">
-            <v>36107</v>
-          </cell>
-          <cell r="D24">
-            <v>33606</v>
-          </cell>
-          <cell r="E24">
-            <v>27864</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>July 24</v>
-          </cell>
-          <cell r="B25">
-            <v>20562</v>
-          </cell>
-          <cell r="C25">
-            <v>53574</v>
-          </cell>
-          <cell r="D25">
-            <v>25466</v>
-          </cell>
-          <cell r="E25">
-            <v>48467</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>July 25</v>
-          </cell>
-          <cell r="B26">
-            <v>23922</v>
-          </cell>
-          <cell r="C26">
-            <v>80928</v>
-          </cell>
-          <cell r="D26">
-            <v>14129</v>
-          </cell>
-          <cell r="E26">
-            <v>59951</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>July 26</v>
-          </cell>
-          <cell r="B27">
-            <v>20117</v>
-          </cell>
-          <cell r="C27">
-            <v>77996</v>
-          </cell>
-          <cell r="D27">
-            <v>15316</v>
-          </cell>
-          <cell r="E27">
-            <v>71904</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>July 27</v>
-          </cell>
-          <cell r="B28">
-            <v>38004</v>
-          </cell>
-          <cell r="C28">
-            <v>98201</v>
-          </cell>
-          <cell r="D28">
-            <v>16043</v>
-          </cell>
-          <cell r="E28">
-            <v>66624</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>July 28</v>
-          </cell>
-          <cell r="B29">
-            <v>47946</v>
-          </cell>
-          <cell r="C29">
-            <v>99038</v>
-          </cell>
-          <cell r="D29">
-            <v>8923</v>
-          </cell>
-          <cell r="E29">
-            <v>53887</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>July 29</v>
-          </cell>
-          <cell r="B30">
-            <v>40632</v>
-          </cell>
-          <cell r="C30">
-            <v>75604</v>
-          </cell>
-          <cell r="D30">
-            <v>11482</v>
-          </cell>
-          <cell r="E30">
-            <v>56765</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>July 30</v>
-          </cell>
-          <cell r="B31">
-            <v>43048</v>
-          </cell>
-          <cell r="C31">
-            <v>42439</v>
-          </cell>
-          <cell r="D31">
-            <v>14879</v>
-          </cell>
-          <cell r="E31">
-            <v>25104</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>July 31</v>
-          </cell>
-          <cell r="B32">
-            <v>40718</v>
-          </cell>
-          <cell r="C32">
-            <v>34315</v>
-          </cell>
-          <cell r="D32">
-            <v>18579</v>
-          </cell>
-          <cell r="E32">
-            <v>30523</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>Aug 1</v>
-          </cell>
-          <cell r="B33">
-            <v>24792</v>
-          </cell>
-          <cell r="C33">
-            <v>37711</v>
-          </cell>
-          <cell r="D33">
-            <v>22734</v>
-          </cell>
-          <cell r="E33">
-            <v>30222</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>Aug 2</v>
-          </cell>
-          <cell r="B34">
-            <v>37548</v>
-          </cell>
-          <cell r="C34">
-            <v>42084</v>
-          </cell>
-          <cell r="D34">
-            <v>17967</v>
-          </cell>
-          <cell r="E34">
-            <v>13064</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>Aug 3</v>
-          </cell>
-          <cell r="B35">
-            <v>43706</v>
-          </cell>
-          <cell r="C35">
-            <v>55930</v>
-          </cell>
-          <cell r="D35">
-            <v>22848</v>
-          </cell>
-          <cell r="E35">
-            <v>23180</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>Aug 4</v>
-          </cell>
-          <cell r="B36">
-            <v>41152</v>
-          </cell>
-          <cell r="C36">
-            <v>62687</v>
-          </cell>
-          <cell r="D36">
-            <v>27423</v>
-          </cell>
-          <cell r="E36">
-            <v>20405</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>Aug 5</v>
-          </cell>
-          <cell r="B37">
-            <v>39293</v>
-          </cell>
-          <cell r="C37">
-            <v>72712</v>
-          </cell>
-          <cell r="D37">
-            <v>31944</v>
-          </cell>
-          <cell r="E37">
-            <v>17137</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38" t="str">
-            <v>Aug 6</v>
-          </cell>
-          <cell r="B38">
-            <v>40686</v>
-          </cell>
-          <cell r="C38">
-            <v>76394</v>
-          </cell>
-          <cell r="D38">
-            <v>30190</v>
-          </cell>
-          <cell r="E38">
-            <v>32544</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39" t="str">
-            <v>Aug 7</v>
-          </cell>
-          <cell r="B39">
-            <v>26737</v>
-          </cell>
-          <cell r="C39">
-            <v>61264</v>
-          </cell>
-          <cell r="D39">
-            <v>55768</v>
-          </cell>
-          <cell r="E39">
-            <v>56283</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40" t="str">
-            <v>Aug 8</v>
-          </cell>
-          <cell r="B40">
-            <v>25520</v>
-          </cell>
-          <cell r="C40">
-            <v>48046</v>
-          </cell>
-          <cell r="D40">
-            <v>11146</v>
-          </cell>
-          <cell r="E40">
-            <v>30678</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41" t="str">
-            <v>Aug 9</v>
-          </cell>
-          <cell r="B41">
-            <v>35474</v>
-          </cell>
-          <cell r="C41">
-            <v>37042</v>
-          </cell>
-          <cell r="D41">
-            <v>14372</v>
-          </cell>
-          <cell r="E41">
-            <v>13072</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42" t="str">
-            <v>Aug 10</v>
-          </cell>
-          <cell r="B42">
-            <v>24791</v>
-          </cell>
-          <cell r="C42">
-            <v>32759</v>
-          </cell>
-          <cell r="D42">
-            <v>14265</v>
-          </cell>
-          <cell r="E42">
-            <v>8620</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43" t="str">
-            <v>Aug 11</v>
-          </cell>
-          <cell r="B43">
-            <v>44123</v>
-          </cell>
-          <cell r="C43">
-            <v>32146</v>
-          </cell>
-          <cell r="D43">
-            <v>26837</v>
-          </cell>
-          <cell r="E43">
-            <v>13168</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44" t="str">
-            <v>Aug 12</v>
-          </cell>
-          <cell r="B44">
-            <v>49097</v>
-          </cell>
-          <cell r="C44">
-            <v>25377</v>
-          </cell>
-          <cell r="D44">
-            <v>40040</v>
-          </cell>
-          <cell r="E44">
-            <v>18558</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45" t="str">
-            <v>Aug 13</v>
-          </cell>
-          <cell r="B45">
-            <v>65900</v>
-          </cell>
-          <cell r="C45">
-            <v>22158</v>
-          </cell>
-          <cell r="D45">
-            <v>16205</v>
-          </cell>
-          <cell r="E45">
-            <v>30833</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46" t="str">
-            <v>Aug 14</v>
-          </cell>
-          <cell r="B46">
-            <v>107241</v>
-          </cell>
-          <cell r="C46">
-            <v>25809</v>
-          </cell>
-          <cell r="D46">
-            <v>6692</v>
-          </cell>
-          <cell r="E46">
-            <v>35256</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47" t="str">
-            <v>Aug 15</v>
-          </cell>
-          <cell r="B47">
-            <v>70055</v>
-          </cell>
-          <cell r="C47">
-            <v>24908</v>
-          </cell>
-          <cell r="D47">
-            <v>12195</v>
-          </cell>
-          <cell r="E47">
-            <v>21046</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48" t="str">
-            <v>Aug 16</v>
-          </cell>
-          <cell r="B48">
-            <v>112174</v>
-          </cell>
-          <cell r="C48">
-            <v>22220</v>
-          </cell>
-          <cell r="D48">
-            <v>18030</v>
-          </cell>
-          <cell r="E48">
-            <v>16629</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49" t="str">
-            <v>Aug 17</v>
-          </cell>
-          <cell r="B49">
-            <v>134874</v>
-          </cell>
-          <cell r="C49">
-            <v>18146</v>
-          </cell>
-          <cell r="D49">
-            <v>23000</v>
-          </cell>
-          <cell r="E49">
-            <v>30362</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50" t="str">
-            <v>Aug 18</v>
-          </cell>
-          <cell r="B50">
-            <v>56939</v>
-          </cell>
-          <cell r="C50">
-            <v>16763</v>
-          </cell>
-          <cell r="D50">
-            <v>26642</v>
-          </cell>
-          <cell r="E50">
-            <v>33151</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51" t="str">
-            <v>Aug 19</v>
-          </cell>
-          <cell r="B51">
-            <v>15709</v>
-          </cell>
-          <cell r="C51">
-            <v>10131</v>
-          </cell>
-          <cell r="D51">
-            <v>29068</v>
-          </cell>
-          <cell r="E51">
-            <v>32187</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52" t="str">
-            <v>Aug 20</v>
-          </cell>
-          <cell r="B52">
-            <v>43468</v>
-          </cell>
-          <cell r="D52">
-            <v>27787</v>
-          </cell>
-          <cell r="E52">
-            <v>23203</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53" t="str">
-            <v>Aug 21</v>
-          </cell>
-          <cell r="B53">
-            <v>43826</v>
-          </cell>
-          <cell r="D53">
-            <v>17005</v>
-          </cell>
-          <cell r="E53">
-            <v>20586</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54" t="str">
-            <v>Aug 22</v>
-          </cell>
-          <cell r="B54">
-            <v>20828</v>
-          </cell>
-          <cell r="D54">
-            <v>6539</v>
-          </cell>
-          <cell r="E54">
-            <v>12087</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55" t="str">
-            <v>Aug 23</v>
-          </cell>
-          <cell r="B55">
-            <v>17402</v>
-          </cell>
-          <cell r="D55">
-            <v>28895</v>
-          </cell>
-          <cell r="E55">
-            <v>12268</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56" t="str">
-            <v>Aug 24</v>
-          </cell>
-          <cell r="B56">
-            <v>4785</v>
-          </cell>
-          <cell r="D56">
-            <v>17189</v>
-          </cell>
-          <cell r="E56">
-            <v>16610</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57" t="str">
-            <v>Aug 25</v>
-          </cell>
-          <cell r="D57">
-            <v>19651</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58" t="str">
-            <v>Aug 26</v>
-          </cell>
-          <cell r="D58">
-            <v>7795</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59" t="str">
-            <v>Aug 27</v>
-          </cell>
-          <cell r="D59">
-            <v>9351</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60" t="str">
-            <v>Aug 28</v>
-          </cell>
-          <cell r="D60">
-            <v>1436</v>
-          </cell>
+          <cell r="I15"/>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -11253,8 +9185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11501,8 +9433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13535,10 +11467,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI17"/>
+  <dimension ref="A1:AI18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:K16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13948,7 +11880,12 @@
       <c r="J16" s="239"/>
       <c r="K16" s="240"/>
     </row>
-    <row r="17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="5:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>220</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="A15:K15"/>
@@ -14529,8 +12466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>

--- a/data/2020 Beach Sampling Compiled Results_FINALREPORT.xlsx
+++ b/data/2020 Beach Sampling Compiled Results_FINALREPORT.xlsx
@@ -9,41 +9,42 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="803" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="803" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2020 READ THIS FIRST" sheetId="28" r:id="rId1"/>
     <sheet name="2019-2020_FinalReport_MST2020" sheetId="27" r:id="rId2"/>
     <sheet name="2017-2020_SKERunCounts_FINALRPT" sheetId="30" r:id="rId3"/>
     <sheet name="2019-2020_FinalReport_WQStnds" sheetId="10" r:id="rId4"/>
-    <sheet name="2019-2020_FinalReport_SampSites" sheetId="7" r:id="rId5"/>
-    <sheet name="2019-2020_FinalReport_WkExcdnce" sheetId="20" r:id="rId6"/>
-    <sheet name="2019-2020_FinalReport_Entero" sheetId="19" r:id="rId7"/>
-    <sheet name="2019-2020 Final report_FC" sheetId="26" r:id="rId8"/>
-    <sheet name="10%_STV_samples" sheetId="22" r:id="rId9"/>
-    <sheet name="Geomean calcs" sheetId="21" r:id="rId10"/>
+    <sheet name="clarify_wq_stds" sheetId="31" r:id="rId5"/>
+    <sheet name="2019-2020_FinalReport_SampSites" sheetId="7" r:id="rId6"/>
+    <sheet name="2019-2020_FinalReport_WkExcdnce" sheetId="20" r:id="rId7"/>
+    <sheet name="2019-2020_FinalReport_Entero" sheetId="19" r:id="rId8"/>
+    <sheet name="2019-2020 Final report_FC" sheetId="26" r:id="rId9"/>
+    <sheet name="10%_STV_samples" sheetId="22" r:id="rId10"/>
+    <sheet name="Geomean calcs" sheetId="21" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
-    <definedName name="bCol" localSheetId="9">'Geomean calcs'!#REF!</definedName>
+    <definedName name="bCol" localSheetId="10">'Geomean calcs'!#REF!</definedName>
     <definedName name="bCol">#REF!</definedName>
-    <definedName name="bRow" localSheetId="9">'Geomean calcs'!#REF!</definedName>
+    <definedName name="bRow" localSheetId="10">'Geomean calcs'!#REF!</definedName>
     <definedName name="bRow">#REF!</definedName>
-    <definedName name="CritDays" localSheetId="9">'Geomean calcs'!#REF!</definedName>
+    <definedName name="CritDays" localSheetId="10">'Geomean calcs'!#REF!</definedName>
     <definedName name="CritDays">#REF!</definedName>
-    <definedName name="CritNbr" localSheetId="9">'Geomean calcs'!#REF!</definedName>
+    <definedName name="CritNbr" localSheetId="10">'Geomean calcs'!#REF!</definedName>
     <definedName name="CritNbr">#REF!</definedName>
-    <definedName name="insufficient" localSheetId="9">'Geomean calcs'!#REF!</definedName>
+    <definedName name="insufficient" localSheetId="10">'Geomean calcs'!#REF!</definedName>
     <definedName name="insufficient">#REF!</definedName>
-    <definedName name="tData" localSheetId="9">'Geomean calcs'!#REF!</definedName>
+    <definedName name="tData" localSheetId="10">'Geomean calcs'!#REF!</definedName>
     <definedName name="tData">#REF!</definedName>
-    <definedName name="tDate" localSheetId="9">'Geomean calcs'!#REF!</definedName>
+    <definedName name="tDate" localSheetId="10">'Geomean calcs'!#REF!</definedName>
     <definedName name="tDate">#REF!</definedName>
-    <definedName name="vRanBottom" localSheetId="9">'Geomean calcs'!#REF!</definedName>
+    <definedName name="vRanBottom" localSheetId="10">'Geomean calcs'!#REF!</definedName>
     <definedName name="vRanBottom">#REF!</definedName>
-    <definedName name="vRandTop" localSheetId="9">'Geomean calcs'!#REF!</definedName>
+    <definedName name="vRandTop" localSheetId="10">'Geomean calcs'!#REF!</definedName>
     <definedName name="vRandTop">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="247">
   <si>
     <t>Sample Date</t>
   </si>
@@ -119,9 +120,6 @@
   </si>
   <si>
     <t>Upstream of gull rookery on the Keanai River; provides data for bacteria levels above influence of rookery</t>
-  </si>
-  <si>
-    <t>Downstream of gull rookery on the Keanai River; provides data for bacteria levels below rookery</t>
   </si>
   <si>
     <t>One of two sites on North Kenai Beach, receiving high dipnetting pressure during PUF; fish carcassess from PUF attract hundreds of gulls present during certain days of PUF; provides data for bacteria levels before, during, after PUF</t>
@@ -1120,6 +1118,87 @@
   <si>
     <t>Look up full def here; do they mean no more thn 10% of sampes from season, or for 30 days?  If its for 30 days, there should be2-3 values per column at each site</t>
   </si>
+  <si>
+    <t>Downstream of gull rookery on the Kenai River; provides data for bacteria levels below rookery</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>statute</t>
+  </si>
+  <si>
+    <t>18 AAC 70 (14)(B)(i)</t>
+  </si>
+  <si>
+    <t>bacteria</t>
+  </si>
+  <si>
+    <t>seasonal_std</t>
+  </si>
+  <si>
+    <t>30_day_std</t>
+  </si>
+  <si>
+    <t>both 30-day criteria AND seasonal criteria must be present for site to fail standard</t>
+  </si>
+  <si>
+    <t>Fecal Coliform</t>
+  </si>
+  <si>
+    <t>18 AAC 70 (14)(B)(ii)</t>
+  </si>
+  <si>
+    <t>"In a 30-day period, the geometric mean of samples may not exceed 200 fecal coliform/100ml, and* not more than 10% of the samples may exceed 400 fecal coliform/100ml."</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harvesting for consumption of raw mollusks or other raw aquatic life      </t>
+  </si>
+  <si>
+    <t>18 AAC 70 (14)(D)</t>
+  </si>
+  <si>
+    <t>"The geometric mean of samples may not exceed 14 fecal coliform/100 ml; and* not more than 10% of the samples may exceed […] 31 CFU per 100 ml for a membrane filtration test."</t>
+  </si>
+  <si>
+    <t>"In a 30-day period, the geometric mean of samples may not exceed 35 enterococci CFU/100 ml, and* not more than 10% of the samples may exceed a statistical threshold value (STV) of 130 enterococci CFU/100 ml."</t>
+  </si>
+  <si>
+    <t>Water recreation: contact recreation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water recreation: secondary recreation         </t>
+  </si>
+  <si>
+    <t>adec language</t>
+  </si>
+  <si>
+    <t>General comment: in instances when geometric mean calculations are based off of all values available-to-date in the season - rather than a 30-day rolling period, the relevance of an individual weekly value is gradually diluted as the season goes on.  A standard applied in July would not mean the same thing as one applied in August.  Thus rolling geometric means are a more consistent representation of in-river conditions.</t>
+  </si>
+  <si>
+    <t>exceeded if 1.) geometric mean of all samples from THE ENTIRE SEASON UNTIL CURRENT DATE &gt; 14 MPN/100 mL,                                  AND                                                                     2.) 10% of samples from THE ENTIRE SEASON UNTIL CURRENT DATE &gt; 31 CFU/100 mL</t>
+  </si>
+  <si>
+    <t>exceeded if rolling 30-day geometric mean enterococci value &gt; 35 CFU/100 mL</t>
+  </si>
+  <si>
+    <t>exceeded if 10% of all enterococci samples from THE ENTIRE SEASON UNTIL CURRENT DATE &gt; 130 CFU/100 mL</t>
+  </si>
+  <si>
+    <t>exceeded if rolling 30-day geometric mean fecal coliform value &gt; 200 CFU/100 mL</t>
+  </si>
+  <si>
+    <t>exceeded if 10% of all fecal coliform samples from THE ENTIRE SEASON UNTIL CURRENT DATE &gt; 400 MPN/100 mL</t>
+  </si>
+  <si>
+    <t>interpretation correct?</t>
+  </si>
 </sst>
 </file>
 
@@ -1128,7 +1207,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm\-dd\-yyyy"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1385,6 +1464,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -3029,7 +3122,7 @@
     <xf numFmtId="0" fontId="20" fillId="9" borderId="65" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="294">
+  <cellXfs count="301">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3714,6 +3807,39 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3729,88 +3855,73 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="25" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="25" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="25" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="25" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="25" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="25" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="25" fillId="8" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="25" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="25" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="25" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="25" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="25" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="25" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="25" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="25" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="25" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="25" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="25" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="25" fillId="8" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="25" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="25" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="25" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="25" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="25" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="83" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="82" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="65" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="3" applyAlignment="1">
@@ -3828,9 +3939,6 @@
     <xf numFmtId="14" fontId="1" fillId="11" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="65" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3861,38 +3969,44 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="83" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="82" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="65" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="65" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="71" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="65" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="10" borderId="65" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="81" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="65" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="71" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5680,67 +5794,67 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="111" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="111" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -5751,9 +5865,2300 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L76"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.109375" style="42"/>
+    <col min="2" max="2" width="16.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="48"/>
+    <col min="7" max="7" width="16.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="273" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="273"/>
+      <c r="C1" s="273"/>
+      <c r="D1" s="273"/>
+      <c r="E1" s="273"/>
+      <c r="F1" s="273"/>
+      <c r="G1" s="273"/>
+      <c r="H1" s="273"/>
+      <c r="I1" s="273"/>
+      <c r="J1" s="273"/>
+      <c r="K1" s="273"/>
+      <c r="L1" s="273"/>
+    </row>
+    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="273" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="273"/>
+      <c r="C2" s="273"/>
+      <c r="D2" s="273"/>
+      <c r="E2" s="273"/>
+      <c r="F2" s="273"/>
+      <c r="G2" s="273"/>
+      <c r="H2" s="273"/>
+      <c r="I2" s="273"/>
+      <c r="J2" s="273"/>
+      <c r="K2" s="273"/>
+      <c r="L2" s="273"/>
+    </row>
+    <row r="3" spans="1:12" s="98" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A3" s="274" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="274"/>
+      <c r="C3" s="274"/>
+      <c r="D3" s="274"/>
+      <c r="E3" s="274"/>
+      <c r="F3" s="274"/>
+      <c r="G3" s="274"/>
+      <c r="H3" s="274"/>
+      <c r="I3" s="274"/>
+      <c r="J3" s="274"/>
+      <c r="K3" s="274"/>
+      <c r="L3" s="275"/>
+    </row>
+    <row r="4" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="43"/>
+      <c r="B4" s="270" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="271"/>
+      <c r="D4" s="271"/>
+      <c r="E4" s="66"/>
+      <c r="G4" s="270" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="271"/>
+      <c r="I4" s="271"/>
+      <c r="J4" s="271"/>
+      <c r="K4" s="66"/>
+    </row>
+    <row r="5" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="284" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="285"/>
+      <c r="D5" s="286"/>
+      <c r="G5" s="284" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="285"/>
+      <c r="I5" s="287"/>
+      <c r="J5" s="286"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="49"/>
+      <c r="C6" s="267"/>
+      <c r="D6" s="269"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="267"/>
+      <c r="I6" s="268"/>
+      <c r="J6" s="269"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="50"/>
+      <c r="C7" s="278"/>
+      <c r="D7" s="279"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="278"/>
+      <c r="I7" s="280"/>
+      <c r="J7" s="279"/>
+    </row>
+    <row r="8" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="51"/>
+      <c r="C8" s="281"/>
+      <c r="D8" s="282"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="281"/>
+      <c r="I8" s="283"/>
+      <c r="J8" s="282"/>
+    </row>
+    <row r="9" spans="1:12" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="276" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="277"/>
+      <c r="E9" s="68"/>
+      <c r="G9" s="276" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="277"/>
+      <c r="I9" s="1">
+        <v>400</v>
+      </c>
+      <c r="J9" s="1">
+        <v>31</v>
+      </c>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+    </row>
+    <row r="10" spans="1:12" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="J10" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="K10" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" s="69" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="272" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="45">
+        <v>43977</v>
+      </c>
+      <c r="C11" s="40">
+        <v>2</v>
+      </c>
+      <c r="D11" s="92">
+        <f>IF(C11&gt;130,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="67">
+        <f>(SUM(D11:D23)/COUNT(D11:D23))*100</f>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="F11" s="272" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="45">
+        <v>43977</v>
+      </c>
+      <c r="H11" s="40">
+        <v>4</v>
+      </c>
+      <c r="I11" s="92">
+        <f>IF(H11&gt;400,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="92">
+        <f>IF(H11&gt;31,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="93">
+        <f>(SUM(I11:I23)/COUNT(I11:I23))*100</f>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="L11" s="57">
+        <f>(SUM(J11:J23)/COUNT(J11:J23))*100</f>
+        <v>53.846153846153847</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="272"/>
+      <c r="B12" s="32">
+        <v>43986</v>
+      </c>
+      <c r="C12" s="1">
+        <v>50</v>
+      </c>
+      <c r="D12" s="58">
+        <f>IF(C12&gt;130,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="59"/>
+      <c r="F12" s="272"/>
+      <c r="G12" s="32">
+        <v>43986</v>
+      </c>
+      <c r="H12" s="1">
+        <v>69</v>
+      </c>
+      <c r="I12" s="80">
+        <f>IF(H12&gt;400,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="80">
+        <f>IF(H12&gt;31,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K12" s="94"/>
+      <c r="L12" s="59"/>
+    </row>
+    <row r="13" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="272"/>
+      <c r="B13" s="32">
+        <v>43991</v>
+      </c>
+      <c r="C13" s="1">
+        <v>6</v>
+      </c>
+      <c r="D13" s="110">
+        <f t="shared" ref="D13:D22" si="0">IF(C13&gt;130,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="59"/>
+      <c r="F13" s="272"/>
+      <c r="G13" s="32">
+        <v>43991</v>
+      </c>
+      <c r="H13" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="I13" s="80">
+        <f t="shared" ref="I13:I72" si="1">IF(H13&gt;400,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="80">
+        <f t="shared" ref="J13:J22" si="2">IF(H13&gt;31,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="94"/>
+      <c r="L13" s="59"/>
+    </row>
+    <row r="14" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="272"/>
+      <c r="B14" s="32">
+        <v>44000</v>
+      </c>
+      <c r="C14" s="1">
+        <v>38</v>
+      </c>
+      <c r="D14" s="110">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="59"/>
+      <c r="F14" s="272"/>
+      <c r="G14" s="32">
+        <v>44000</v>
+      </c>
+      <c r="H14" s="1">
+        <v>46</v>
+      </c>
+      <c r="I14" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="80">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="94"/>
+      <c r="L14" s="59"/>
+    </row>
+    <row r="15" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="272"/>
+      <c r="B15" s="32">
+        <v>44005</v>
+      </c>
+      <c r="C15" s="1">
+        <v>25</v>
+      </c>
+      <c r="D15" s="110">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="59"/>
+      <c r="F15" s="272"/>
+      <c r="G15" s="32">
+        <v>44005</v>
+      </c>
+      <c r="H15" s="1">
+        <v>49</v>
+      </c>
+      <c r="I15" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="80">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K15" s="94"/>
+      <c r="L15" s="59"/>
+    </row>
+    <row r="16" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="272"/>
+      <c r="B16" s="32">
+        <v>44011</v>
+      </c>
+      <c r="C16" s="1">
+        <v>38</v>
+      </c>
+      <c r="D16" s="110">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="59"/>
+      <c r="F16" s="272"/>
+      <c r="G16" s="32">
+        <v>44011</v>
+      </c>
+      <c r="H16" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="I16" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="94"/>
+      <c r="L16" s="59"/>
+    </row>
+    <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="272"/>
+      <c r="B17" s="32">
+        <v>44019</v>
+      </c>
+      <c r="C17" s="1">
+        <v>16</v>
+      </c>
+      <c r="D17" s="110">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="59"/>
+      <c r="F17" s="272"/>
+      <c r="G17" s="32">
+        <v>44019</v>
+      </c>
+      <c r="H17" s="1">
+        <v>13</v>
+      </c>
+      <c r="I17" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="94"/>
+      <c r="L17" s="59"/>
+    </row>
+    <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="272"/>
+      <c r="B18" s="32">
+        <v>44025</v>
+      </c>
+      <c r="C18" s="1">
+        <v>178</v>
+      </c>
+      <c r="D18" s="110">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="59"/>
+      <c r="F18" s="272"/>
+      <c r="G18" s="32">
+        <v>44025</v>
+      </c>
+      <c r="H18" s="1">
+        <v>600</v>
+      </c>
+      <c r="I18" s="80">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J18" s="80">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K18" s="94"/>
+      <c r="L18" s="59"/>
+    </row>
+    <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="272"/>
+      <c r="B19" s="32">
+        <v>44032</v>
+      </c>
+      <c r="C19" s="1">
+        <v>108</v>
+      </c>
+      <c r="D19" s="110">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="59"/>
+      <c r="F19" s="272"/>
+      <c r="G19" s="32">
+        <v>44032</v>
+      </c>
+      <c r="H19" s="1">
+        <v>196</v>
+      </c>
+      <c r="I19" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="80">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K19" s="94"/>
+      <c r="L19" s="59"/>
+    </row>
+    <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="272"/>
+      <c r="B20" s="32">
+        <v>44039</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4</v>
+      </c>
+      <c r="D20" s="110">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="59"/>
+      <c r="F20" s="272"/>
+      <c r="G20" s="32">
+        <v>44039</v>
+      </c>
+      <c r="H20" s="1">
+        <v>8.6</v>
+      </c>
+      <c r="I20" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="94"/>
+      <c r="L20" s="59"/>
+    </row>
+    <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="272"/>
+      <c r="B21" s="32">
+        <v>44048</v>
+      </c>
+      <c r="C21" s="1">
+        <v>121</v>
+      </c>
+      <c r="D21" s="110">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="59"/>
+      <c r="F21" s="272"/>
+      <c r="G21" s="32">
+        <v>44048</v>
+      </c>
+      <c r="H21" s="1">
+        <v>184</v>
+      </c>
+      <c r="I21" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="80">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K21" s="94"/>
+      <c r="L21" s="59"/>
+    </row>
+    <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="272"/>
+      <c r="B22" s="32">
+        <v>44054</v>
+      </c>
+      <c r="C22" s="1">
+        <v>9</v>
+      </c>
+      <c r="D22" s="110">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="59"/>
+      <c r="F22" s="272"/>
+      <c r="G22" s="32">
+        <v>44054</v>
+      </c>
+      <c r="H22" s="1">
+        <v>17</v>
+      </c>
+      <c r="I22" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="94"/>
+      <c r="L22" s="59"/>
+    </row>
+    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="272"/>
+      <c r="B23" s="44">
+        <v>44061</v>
+      </c>
+      <c r="C23" s="41">
+        <v>96</v>
+      </c>
+      <c r="D23" s="60">
+        <v>0</v>
+      </c>
+      <c r="E23" s="61"/>
+      <c r="F23" s="272"/>
+      <c r="G23" s="44">
+        <v>44061</v>
+      </c>
+      <c r="H23" s="41">
+        <v>153</v>
+      </c>
+      <c r="I23" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="96">
+        <f t="shared" ref="J23:J75" si="3">IF(H23&gt;31,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K23" s="95"/>
+      <c r="L23" s="61"/>
+    </row>
+    <row r="24" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="272" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="45">
+        <v>43977</v>
+      </c>
+      <c r="C24" s="40">
+        <v>2</v>
+      </c>
+      <c r="D24" s="56">
+        <f>IF(C24&gt;130,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="57">
+        <f>(SUM(D24:D36)/COUNT(D24:D36))*100</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="272" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="45">
+        <v>43977</v>
+      </c>
+      <c r="H24" s="40">
+        <v>0</v>
+      </c>
+      <c r="I24" s="92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="93">
+        <f>(SUM(I24:I36)/COUNT(I24:I36))*100</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="57">
+        <f>(SUM(J24:J36)/COUNT(J24:J36))*100</f>
+        <v>30.76923076923077</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="272"/>
+      <c r="B25" s="32">
+        <v>43986</v>
+      </c>
+      <c r="C25" s="1">
+        <v>27</v>
+      </c>
+      <c r="D25" s="58">
+        <f>IF(C25&gt;130,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="59"/>
+      <c r="F25" s="272"/>
+      <c r="G25" s="32">
+        <v>43986</v>
+      </c>
+      <c r="H25" s="1">
+        <v>36</v>
+      </c>
+      <c r="I25" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="80">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K25" s="94"/>
+      <c r="L25" s="59"/>
+    </row>
+    <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="272"/>
+      <c r="B26" s="32">
+        <v>43991</v>
+      </c>
+      <c r="C26" s="1">
+        <v>8</v>
+      </c>
+      <c r="D26" s="58">
+        <f t="shared" ref="D26:D35" si="4">IF(C26&gt;130,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="59"/>
+      <c r="F26" s="272"/>
+      <c r="G26" s="32">
+        <v>43991</v>
+      </c>
+      <c r="H26" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="I26" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="94"/>
+      <c r="L26" s="59"/>
+    </row>
+    <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="272"/>
+      <c r="B27" s="32">
+        <v>44000</v>
+      </c>
+      <c r="C27" s="1">
+        <v>13</v>
+      </c>
+      <c r="D27" s="58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="59"/>
+      <c r="F27" s="272"/>
+      <c r="G27" s="32">
+        <v>44000</v>
+      </c>
+      <c r="H27" s="1">
+        <v>54</v>
+      </c>
+      <c r="I27" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="80">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K27" s="94"/>
+      <c r="L27" s="59"/>
+    </row>
+    <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="272"/>
+      <c r="B28" s="32">
+        <v>44005</v>
+      </c>
+      <c r="C28" s="1">
+        <v>18</v>
+      </c>
+      <c r="D28" s="58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="59"/>
+      <c r="F28" s="272"/>
+      <c r="G28" s="32">
+        <v>44005</v>
+      </c>
+      <c r="H28" s="1">
+        <v>14</v>
+      </c>
+      <c r="I28" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="94"/>
+      <c r="L28" s="59"/>
+    </row>
+    <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="272"/>
+      <c r="B29" s="32">
+        <v>44011</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+      <c r="D29" s="58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="59"/>
+      <c r="F29" s="272"/>
+      <c r="G29" s="32">
+        <v>44011</v>
+      </c>
+      <c r="H29" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="I29" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="94"/>
+      <c r="L29" s="59"/>
+    </row>
+    <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="272"/>
+      <c r="B30" s="32">
+        <v>44019</v>
+      </c>
+      <c r="C30" s="1">
+        <v>4</v>
+      </c>
+      <c r="D30" s="58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="59"/>
+      <c r="F30" s="272"/>
+      <c r="G30" s="32">
+        <v>44019</v>
+      </c>
+      <c r="H30" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="I30" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="94"/>
+      <c r="L30" s="59"/>
+    </row>
+    <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="272"/>
+      <c r="B31" s="32">
+        <v>44025</v>
+      </c>
+      <c r="C31" s="1">
+        <v>5</v>
+      </c>
+      <c r="D31" s="58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="59"/>
+      <c r="F31" s="272"/>
+      <c r="G31" s="32">
+        <v>44025</v>
+      </c>
+      <c r="H31" s="1">
+        <v>29</v>
+      </c>
+      <c r="I31" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="94"/>
+      <c r="L31" s="59"/>
+    </row>
+    <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="272"/>
+      <c r="B32" s="32">
+        <v>44032</v>
+      </c>
+      <c r="C32" s="1">
+        <v>6</v>
+      </c>
+      <c r="D32" s="58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="59"/>
+      <c r="F32" s="272"/>
+      <c r="G32" s="32">
+        <v>44032</v>
+      </c>
+      <c r="H32" s="1">
+        <v>31</v>
+      </c>
+      <c r="I32" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="94"/>
+      <c r="L32" s="59"/>
+    </row>
+    <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="272"/>
+      <c r="B33" s="32">
+        <v>44039</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="59"/>
+      <c r="F33" s="272"/>
+      <c r="G33" s="32">
+        <v>44039</v>
+      </c>
+      <c r="H33" s="1">
+        <v>2</v>
+      </c>
+      <c r="I33" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="94"/>
+      <c r="L33" s="59"/>
+    </row>
+    <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="272"/>
+      <c r="B34" s="32">
+        <v>44048</v>
+      </c>
+      <c r="C34" s="1">
+        <v>38</v>
+      </c>
+      <c r="D34" s="58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="59"/>
+      <c r="F34" s="272"/>
+      <c r="G34" s="32">
+        <v>44048</v>
+      </c>
+      <c r="H34" s="1">
+        <v>31</v>
+      </c>
+      <c r="I34" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="94"/>
+      <c r="L34" s="59"/>
+    </row>
+    <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="272"/>
+      <c r="B35" s="32">
+        <v>44054</v>
+      </c>
+      <c r="C35" s="1">
+        <v>8</v>
+      </c>
+      <c r="D35" s="58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="59"/>
+      <c r="F35" s="272"/>
+      <c r="G35" s="32">
+        <v>44054</v>
+      </c>
+      <c r="H35" s="1">
+        <v>43</v>
+      </c>
+      <c r="I35" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="80">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K35" s="94"/>
+      <c r="L35" s="59"/>
+    </row>
+    <row r="36" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="272"/>
+      <c r="B36" s="44">
+        <v>44061</v>
+      </c>
+      <c r="C36" s="41">
+        <v>23</v>
+      </c>
+      <c r="D36" s="60">
+        <v>0</v>
+      </c>
+      <c r="E36" s="61"/>
+      <c r="F36" s="272"/>
+      <c r="G36" s="44">
+        <v>44061</v>
+      </c>
+      <c r="H36" s="41">
+        <v>42</v>
+      </c>
+      <c r="I36" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="96">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K36" s="95"/>
+      <c r="L36" s="61"/>
+    </row>
+    <row r="37" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="272" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="45">
+        <v>43977</v>
+      </c>
+      <c r="C37" s="40">
+        <v>1</v>
+      </c>
+      <c r="D37" s="56">
+        <f>IF(C37&gt;130,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="57">
+        <f>(SUM(D37:D49)/COUNT(D37:D49))*100</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="272" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="45">
+        <v>43977</v>
+      </c>
+      <c r="H37" s="40">
+        <v>3</v>
+      </c>
+      <c r="I37" s="92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="93">
+        <f>(SUM(I37:I49)/COUNT(I37:I49))*100</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="57">
+        <f>(SUM(J37:J49)/COUNT(J37:J49))*100</f>
+        <v>30.76923076923077</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="272"/>
+      <c r="B38" s="32">
+        <v>43986</v>
+      </c>
+      <c r="C38" s="1">
+        <v>6</v>
+      </c>
+      <c r="D38" s="58">
+        <f>IF(C38&gt;130,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="59"/>
+      <c r="F38" s="272"/>
+      <c r="G38" s="32">
+        <v>43986</v>
+      </c>
+      <c r="H38" s="1">
+        <v>38</v>
+      </c>
+      <c r="I38" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="80">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K38" s="94"/>
+      <c r="L38" s="59"/>
+    </row>
+    <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="272"/>
+      <c r="B39" s="32">
+        <v>43991</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2</v>
+      </c>
+      <c r="D39" s="58">
+        <f t="shared" ref="D39:D48" si="5">IF(C39&gt;130,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="59"/>
+      <c r="F39" s="272"/>
+      <c r="G39" s="32">
+        <v>43991</v>
+      </c>
+      <c r="H39" s="1">
+        <v>32</v>
+      </c>
+      <c r="I39" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="80">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K39" s="94"/>
+      <c r="L39" s="59"/>
+    </row>
+    <row r="40" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="272"/>
+      <c r="B40" s="32">
+        <v>44000</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="58">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="59"/>
+      <c r="F40" s="272"/>
+      <c r="G40" s="32">
+        <v>44000</v>
+      </c>
+      <c r="H40" s="1">
+        <v>15</v>
+      </c>
+      <c r="I40" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="94"/>
+      <c r="L40" s="59"/>
+    </row>
+    <row r="41" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="272"/>
+      <c r="B41" s="32">
+        <v>44005</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2</v>
+      </c>
+      <c r="D41" s="58">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="59"/>
+      <c r="F41" s="272"/>
+      <c r="G41" s="32">
+        <v>44005</v>
+      </c>
+      <c r="H41" s="1">
+        <v>17</v>
+      </c>
+      <c r="I41" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="94"/>
+      <c r="L41" s="59"/>
+    </row>
+    <row r="42" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="272"/>
+      <c r="B42" s="32">
+        <v>44011</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="58">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="59"/>
+      <c r="F42" s="272"/>
+      <c r="G42" s="32">
+        <v>44011</v>
+      </c>
+      <c r="H42" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="I42" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="94"/>
+      <c r="L42" s="59"/>
+    </row>
+    <row r="43" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="272"/>
+      <c r="B43" s="32">
+        <v>44019</v>
+      </c>
+      <c r="C43" s="1">
+        <v>3</v>
+      </c>
+      <c r="D43" s="58">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E43" s="59"/>
+      <c r="F43" s="272"/>
+      <c r="G43" s="32">
+        <v>44019</v>
+      </c>
+      <c r="H43" s="1">
+        <v>22</v>
+      </c>
+      <c r="I43" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="94"/>
+      <c r="L43" s="59"/>
+    </row>
+    <row r="44" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="272"/>
+      <c r="B44" s="32">
+        <v>44025</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2</v>
+      </c>
+      <c r="D44" s="58">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="59"/>
+      <c r="F44" s="272"/>
+      <c r="G44" s="32">
+        <v>44025</v>
+      </c>
+      <c r="H44" s="1">
+        <v>15</v>
+      </c>
+      <c r="I44" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="94"/>
+      <c r="L44" s="59"/>
+    </row>
+    <row r="45" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="272"/>
+      <c r="B45" s="32">
+        <v>44032</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="58">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="59"/>
+      <c r="F45" s="272"/>
+      <c r="G45" s="32">
+        <v>44032</v>
+      </c>
+      <c r="H45" s="1">
+        <v>46</v>
+      </c>
+      <c r="I45" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="80">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K45" s="94"/>
+      <c r="L45" s="59"/>
+    </row>
+    <row r="46" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="272"/>
+      <c r="B46" s="32">
+        <v>44039</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="58">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E46" s="59"/>
+      <c r="F46" s="272"/>
+      <c r="G46" s="32">
+        <v>44039</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1</v>
+      </c>
+      <c r="I46" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="94"/>
+      <c r="L46" s="59"/>
+    </row>
+    <row r="47" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A47" s="272"/>
+      <c r="B47" s="32">
+        <v>44048</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2</v>
+      </c>
+      <c r="D47" s="58">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="59"/>
+      <c r="F47" s="272"/>
+      <c r="G47" s="32">
+        <v>44048</v>
+      </c>
+      <c r="H47" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="I47" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="94"/>
+      <c r="L47" s="59"/>
+    </row>
+    <row r="48" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="272"/>
+      <c r="B48" s="32">
+        <v>44054</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="58">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E48" s="59"/>
+      <c r="F48" s="272"/>
+      <c r="G48" s="32">
+        <v>44054</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="I48" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="94"/>
+      <c r="L48" s="59"/>
+    </row>
+    <row r="49" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="272"/>
+      <c r="B49" s="44">
+        <v>44061</v>
+      </c>
+      <c r="C49" s="41">
+        <v>8</v>
+      </c>
+      <c r="D49" s="60">
+        <v>0</v>
+      </c>
+      <c r="E49" s="61"/>
+      <c r="F49" s="272"/>
+      <c r="G49" s="44">
+        <v>44061</v>
+      </c>
+      <c r="H49" s="41">
+        <v>36</v>
+      </c>
+      <c r="I49" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="96">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K49" s="95"/>
+      <c r="L49" s="61"/>
+    </row>
+    <row r="50" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="272" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="45">
+        <v>43977</v>
+      </c>
+      <c r="C50" s="40">
+        <v>0</v>
+      </c>
+      <c r="D50" s="56">
+        <f>IF(C50&gt;130,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="57">
+        <f>(SUM(D50:D62)/COUNT(D50:D62))*100</f>
+        <v>0</v>
+      </c>
+      <c r="F50" s="272" t="s">
+        <v>2</v>
+      </c>
+      <c r="G50" s="45">
+        <v>43977</v>
+      </c>
+      <c r="H50" s="115">
+        <v>1</v>
+      </c>
+      <c r="I50" s="92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="93">
+        <f>(SUM(I50:I62)/COUNT(I50:I62))*100</f>
+        <v>0</v>
+      </c>
+      <c r="L50" s="57">
+        <f>(SUM(J50:J62)/COUNT(J50:J62))*100</f>
+        <v>61.53846153846154</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A51" s="272"/>
+      <c r="B51" s="32">
+        <v>43986</v>
+      </c>
+      <c r="C51" s="1">
+        <v>10</v>
+      </c>
+      <c r="D51" s="58">
+        <f>IF(C51&gt;130,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E51" s="59"/>
+      <c r="F51" s="272"/>
+      <c r="G51" s="32">
+        <v>43986</v>
+      </c>
+      <c r="H51" s="118">
+        <v>12</v>
+      </c>
+      <c r="I51" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="94"/>
+      <c r="L51" s="59"/>
+    </row>
+    <row r="52" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="272"/>
+      <c r="B52" s="32">
+        <v>43991</v>
+      </c>
+      <c r="C52" s="1">
+        <v>3</v>
+      </c>
+      <c r="D52" s="58">
+        <f t="shared" ref="D52:D61" si="6">IF(C52&gt;130,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E52" s="59"/>
+      <c r="F52" s="272"/>
+      <c r="G52" s="32">
+        <v>43991</v>
+      </c>
+      <c r="H52" s="118">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I52" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="94"/>
+      <c r="L52" s="59"/>
+    </row>
+    <row r="53" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A53" s="272"/>
+      <c r="B53" s="32">
+        <v>44000</v>
+      </c>
+      <c r="C53" s="1">
+        <v>4</v>
+      </c>
+      <c r="D53" s="58">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E53" s="59"/>
+      <c r="F53" s="272"/>
+      <c r="G53" s="32">
+        <v>44000</v>
+      </c>
+      <c r="H53" s="118">
+        <v>38</v>
+      </c>
+      <c r="I53" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="80">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K53" s="94"/>
+      <c r="L53" s="59"/>
+    </row>
+    <row r="54" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A54" s="272"/>
+      <c r="B54" s="32">
+        <v>44005</v>
+      </c>
+      <c r="C54" s="1">
+        <v>13</v>
+      </c>
+      <c r="D54" s="58">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E54" s="59"/>
+      <c r="F54" s="272"/>
+      <c r="G54" s="32">
+        <v>44005</v>
+      </c>
+      <c r="H54" s="118">
+        <v>62</v>
+      </c>
+      <c r="I54" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="80">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K54" s="94"/>
+      <c r="L54" s="59"/>
+    </row>
+    <row r="55" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A55" s="272"/>
+      <c r="B55" s="32">
+        <v>44011</v>
+      </c>
+      <c r="C55" s="1">
+        <v>16</v>
+      </c>
+      <c r="D55" s="58">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E55" s="59"/>
+      <c r="F55" s="272"/>
+      <c r="G55" s="32">
+        <v>44011</v>
+      </c>
+      <c r="H55" s="118">
+        <v>310</v>
+      </c>
+      <c r="I55" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="80">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K55" s="94"/>
+      <c r="L55" s="59"/>
+    </row>
+    <row r="56" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A56" s="272"/>
+      <c r="B56" s="32">
+        <v>44019</v>
+      </c>
+      <c r="C56" s="1">
+        <v>18</v>
+      </c>
+      <c r="D56" s="58">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E56" s="59"/>
+      <c r="F56" s="272"/>
+      <c r="G56" s="32">
+        <v>44019</v>
+      </c>
+      <c r="H56" s="118">
+        <v>84</v>
+      </c>
+      <c r="I56" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="80">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K56" s="94"/>
+      <c r="L56" s="59"/>
+    </row>
+    <row r="57" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A57" s="272"/>
+      <c r="B57" s="32">
+        <v>44025</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="58">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E57" s="59"/>
+      <c r="F57" s="272"/>
+      <c r="G57" s="32">
+        <v>44025</v>
+      </c>
+      <c r="H57" s="118">
+        <v>17</v>
+      </c>
+      <c r="I57" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="94"/>
+      <c r="L57" s="59"/>
+    </row>
+    <row r="58" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A58" s="272"/>
+      <c r="B58" s="32">
+        <v>44032</v>
+      </c>
+      <c r="C58" s="1">
+        <v>32</v>
+      </c>
+      <c r="D58" s="58">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E58" s="59"/>
+      <c r="F58" s="272"/>
+      <c r="G58" s="32">
+        <v>44032</v>
+      </c>
+      <c r="H58" s="118">
+        <v>280</v>
+      </c>
+      <c r="I58" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="80">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K58" s="94"/>
+      <c r="L58" s="59"/>
+    </row>
+    <row r="59" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A59" s="272"/>
+      <c r="B59" s="32">
+        <v>44039</v>
+      </c>
+      <c r="C59" s="1">
+        <v>6</v>
+      </c>
+      <c r="D59" s="58">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E59" s="59"/>
+      <c r="F59" s="272"/>
+      <c r="G59" s="32">
+        <v>44039</v>
+      </c>
+      <c r="H59" s="118">
+        <v>52</v>
+      </c>
+      <c r="I59" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="80">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K59" s="94"/>
+      <c r="L59" s="59"/>
+    </row>
+    <row r="60" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A60" s="272"/>
+      <c r="B60" s="32">
+        <v>44048</v>
+      </c>
+      <c r="C60" s="1">
+        <v>11</v>
+      </c>
+      <c r="D60" s="58">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E60" s="59"/>
+      <c r="F60" s="272"/>
+      <c r="G60" s="32">
+        <v>44048</v>
+      </c>
+      <c r="H60" s="118">
+        <v>57</v>
+      </c>
+      <c r="I60" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="80">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K60" s="94"/>
+      <c r="L60" s="59"/>
+    </row>
+    <row r="61" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A61" s="272"/>
+      <c r="B61" s="32">
+        <v>44054</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0</v>
+      </c>
+      <c r="D61" s="58">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E61" s="59"/>
+      <c r="F61" s="272"/>
+      <c r="G61" s="32">
+        <v>44054</v>
+      </c>
+      <c r="H61" s="118">
+        <v>3</v>
+      </c>
+      <c r="I61" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="94"/>
+      <c r="L61" s="59"/>
+    </row>
+    <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="272"/>
+      <c r="B62" s="44">
+        <v>44061</v>
+      </c>
+      <c r="C62" s="41">
+        <v>37</v>
+      </c>
+      <c r="D62" s="60">
+        <v>0</v>
+      </c>
+      <c r="E62" s="61"/>
+      <c r="F62" s="272"/>
+      <c r="G62" s="44">
+        <v>44061</v>
+      </c>
+      <c r="H62" s="118">
+        <v>76</v>
+      </c>
+      <c r="I62" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J62" s="96">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K62" s="95"/>
+      <c r="L62" s="61"/>
+    </row>
+    <row r="63" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="272" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="45">
+        <v>43977</v>
+      </c>
+      <c r="C63" s="40">
+        <v>0</v>
+      </c>
+      <c r="D63" s="56">
+        <f>IF(C63&gt;130,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E63" s="57">
+        <f>(SUM(D63:D75)/COUNT(D63:D75))*100</f>
+        <v>0</v>
+      </c>
+      <c r="F63" s="272" t="s">
+        <v>3</v>
+      </c>
+      <c r="G63" s="45">
+        <v>43977</v>
+      </c>
+      <c r="H63" s="40">
+        <v>1</v>
+      </c>
+      <c r="I63" s="92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K63" s="93">
+        <f>(SUM(I63:I75)/COUNT(I63:I75))*100</f>
+        <v>0</v>
+      </c>
+      <c r="L63" s="57">
+        <f>(SUM(J63:J75)/COUNT(J63:J75))*100</f>
+        <v>15.384615384615385</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A64" s="272"/>
+      <c r="B64" s="32">
+        <v>43986</v>
+      </c>
+      <c r="C64" s="1">
+        <v>4</v>
+      </c>
+      <c r="D64" s="58">
+        <f>IF(C64&gt;130,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E64" s="59"/>
+      <c r="F64" s="272"/>
+      <c r="G64" s="32">
+        <v>43986</v>
+      </c>
+      <c r="H64" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I64" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K64" s="94"/>
+      <c r="L64" s="59"/>
+    </row>
+    <row r="65" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A65" s="272"/>
+      <c r="B65" s="32">
+        <v>43991</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0</v>
+      </c>
+      <c r="D65" s="58">
+        <f t="shared" ref="D65:D74" si="7">IF(C65&gt;130,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E65" s="59"/>
+      <c r="F65" s="272"/>
+      <c r="G65" s="32">
+        <v>43991</v>
+      </c>
+      <c r="H65" s="1">
+        <v>12</v>
+      </c>
+      <c r="I65" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="94"/>
+      <c r="L65" s="59"/>
+    </row>
+    <row r="66" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A66" s="272"/>
+      <c r="B66" s="32">
+        <v>44000</v>
+      </c>
+      <c r="C66" s="1">
+        <v>13</v>
+      </c>
+      <c r="D66" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E66" s="59"/>
+      <c r="F66" s="272"/>
+      <c r="G66" s="32">
+        <v>44000</v>
+      </c>
+      <c r="H66" s="1">
+        <v>31</v>
+      </c>
+      <c r="I66" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J66" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K66" s="94"/>
+      <c r="L66" s="59"/>
+    </row>
+    <row r="67" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A67" s="272"/>
+      <c r="B67" s="32">
+        <v>44005</v>
+      </c>
+      <c r="C67" s="1">
+        <v>14</v>
+      </c>
+      <c r="D67" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E67" s="59"/>
+      <c r="F67" s="272"/>
+      <c r="G67" s="32">
+        <v>44005</v>
+      </c>
+      <c r="H67" s="1">
+        <v>28</v>
+      </c>
+      <c r="I67" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J67" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K67" s="94"/>
+      <c r="L67" s="59"/>
+    </row>
+    <row r="68" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A68" s="272"/>
+      <c r="B68" s="32">
+        <v>44011</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0</v>
+      </c>
+      <c r="D68" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E68" s="59"/>
+      <c r="F68" s="272"/>
+      <c r="G68" s="32">
+        <v>44011</v>
+      </c>
+      <c r="H68" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="I68" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J68" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K68" s="94"/>
+      <c r="L68" s="59"/>
+    </row>
+    <row r="69" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A69" s="272"/>
+      <c r="B69" s="32">
+        <v>44019</v>
+      </c>
+      <c r="C69" s="1">
+        <v>22</v>
+      </c>
+      <c r="D69" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E69" s="59"/>
+      <c r="F69" s="272"/>
+      <c r="G69" s="32">
+        <v>44019</v>
+      </c>
+      <c r="H69" s="1">
+        <v>50</v>
+      </c>
+      <c r="I69" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="80">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K69" s="94"/>
+      <c r="L69" s="59"/>
+    </row>
+    <row r="70" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A70" s="272"/>
+      <c r="B70" s="32">
+        <v>44025</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1</v>
+      </c>
+      <c r="D70" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E70" s="59"/>
+      <c r="F70" s="272"/>
+      <c r="G70" s="32">
+        <v>44025</v>
+      </c>
+      <c r="H70" s="1">
+        <v>15</v>
+      </c>
+      <c r="I70" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J70" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K70" s="94"/>
+      <c r="L70" s="59"/>
+    </row>
+    <row r="71" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A71" s="272"/>
+      <c r="B71" s="32">
+        <v>44032</v>
+      </c>
+      <c r="C71" s="1">
+        <v>24</v>
+      </c>
+      <c r="D71" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E71" s="59"/>
+      <c r="F71" s="272"/>
+      <c r="G71" s="32">
+        <v>44032</v>
+      </c>
+      <c r="H71" s="1">
+        <v>40</v>
+      </c>
+      <c r="I71" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J71" s="80">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K71" s="94"/>
+      <c r="L71" s="59"/>
+    </row>
+    <row r="72" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A72" s="272"/>
+      <c r="B72" s="32">
+        <v>44039</v>
+      </c>
+      <c r="C72" s="1">
+        <v>3</v>
+      </c>
+      <c r="D72" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E72" s="59"/>
+      <c r="F72" s="272"/>
+      <c r="G72" s="32">
+        <v>44039</v>
+      </c>
+      <c r="H72" s="1">
+        <v>10</v>
+      </c>
+      <c r="I72" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J72" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K72" s="94"/>
+      <c r="L72" s="59"/>
+    </row>
+    <row r="73" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A73" s="272"/>
+      <c r="B73" s="32">
+        <v>44048</v>
+      </c>
+      <c r="C73" s="1">
+        <v>8</v>
+      </c>
+      <c r="D73" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E73" s="59"/>
+      <c r="F73" s="272"/>
+      <c r="G73" s="32">
+        <v>44048</v>
+      </c>
+      <c r="H73" s="1">
+        <v>29</v>
+      </c>
+      <c r="I73" s="80">
+        <f t="shared" ref="I73:I75" si="8">IF(H73&gt;400,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J73" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K73" s="94"/>
+      <c r="L73" s="59"/>
+    </row>
+    <row r="74" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A74" s="272"/>
+      <c r="B74" s="32">
+        <v>44054</v>
+      </c>
+      <c r="C74" s="1">
+        <v>2</v>
+      </c>
+      <c r="D74" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E74" s="59"/>
+      <c r="F74" s="272"/>
+      <c r="G74" s="32">
+        <v>44054</v>
+      </c>
+      <c r="H74" s="1">
+        <v>19</v>
+      </c>
+      <c r="I74" s="80">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J74" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K74" s="94"/>
+      <c r="L74" s="59"/>
+    </row>
+    <row r="75" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="272"/>
+      <c r="B75" s="44">
+        <v>44061</v>
+      </c>
+      <c r="C75" s="41">
+        <v>33</v>
+      </c>
+      <c r="D75" s="60">
+        <v>0</v>
+      </c>
+      <c r="E75" s="61"/>
+      <c r="F75" s="272"/>
+      <c r="G75" s="44">
+        <v>44061</v>
+      </c>
+      <c r="H75" s="41">
+        <v>27</v>
+      </c>
+      <c r="I75" s="96">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J75" s="96">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K75" s="95"/>
+      <c r="L75" s="61"/>
+    </row>
+    <row r="76" spans="1:12" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="I76" s="79"/>
+      <c r="J76" s="79"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A24:A36"/>
+    <mergeCell ref="F24:F36"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A11:A23"/>
+    <mergeCell ref="F11:F23"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="A63:A75"/>
+    <mergeCell ref="F63:F75"/>
+    <mergeCell ref="A37:A49"/>
+    <mergeCell ref="F37:F49"/>
+    <mergeCell ref="A50:A62"/>
+    <mergeCell ref="F50:F62"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -5778,212 +8183,212 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="288" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="288"/>
-      <c r="C1" s="288"/>
-      <c r="D1" s="288"/>
-      <c r="E1" s="288"/>
-      <c r="F1" s="288"/>
-      <c r="G1" s="288"/>
-      <c r="H1" s="288"/>
-      <c r="I1" s="288"/>
-      <c r="J1" s="288"/>
-      <c r="K1" s="288"/>
-      <c r="L1" s="288"/>
-      <c r="M1" s="288"/>
-      <c r="N1" s="288"/>
-      <c r="O1" s="288"/>
-      <c r="P1" s="288"/>
+      <c r="A1" s="291" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="291"/>
+      <c r="C1" s="291"/>
+      <c r="D1" s="291"/>
+      <c r="E1" s="291"/>
+      <c r="F1" s="291"/>
+      <c r="G1" s="291"/>
+      <c r="H1" s="291"/>
+      <c r="I1" s="291"/>
+      <c r="J1" s="291"/>
+      <c r="K1" s="291"/>
+      <c r="L1" s="291"/>
+      <c r="M1" s="291"/>
+      <c r="N1" s="291"/>
+      <c r="O1" s="291"/>
+      <c r="P1" s="291"/>
     </row>
     <row r="2" spans="1:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="267" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="267"/>
-      <c r="C2" s="267"/>
-      <c r="D2" s="267"/>
-      <c r="E2" s="267"/>
-      <c r="F2" s="267"/>
-      <c r="G2" s="267"/>
-      <c r="H2" s="267"/>
-      <c r="I2" s="267"/>
-      <c r="J2" s="267"/>
-      <c r="K2" s="267"/>
-      <c r="L2" s="267"/>
-      <c r="M2" s="267"/>
-      <c r="N2" s="267"/>
-      <c r="O2" s="267"/>
-      <c r="P2" s="267"/>
+      <c r="A2" s="273" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="273"/>
+      <c r="C2" s="273"/>
+      <c r="D2" s="273"/>
+      <c r="E2" s="273"/>
+      <c r="F2" s="273"/>
+      <c r="G2" s="273"/>
+      <c r="H2" s="273"/>
+      <c r="I2" s="273"/>
+      <c r="J2" s="273"/>
+      <c r="K2" s="273"/>
+      <c r="L2" s="273"/>
+      <c r="M2" s="273"/>
+      <c r="N2" s="273"/>
+      <c r="O2" s="273"/>
+      <c r="P2" s="273"/>
     </row>
     <row r="3" spans="1:16" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B3" s="290" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="290"/>
-      <c r="D3" s="290"/>
-      <c r="E3" s="290"/>
-      <c r="F3" s="290"/>
-      <c r="G3" s="290"/>
-      <c r="H3" s="290"/>
-      <c r="I3" s="290"/>
-      <c r="J3" s="290"/>
-      <c r="K3" s="290"/>
-      <c r="L3" s="290"/>
-      <c r="M3" s="290"/>
-      <c r="N3" s="290"/>
-      <c r="O3" s="290"/>
-      <c r="P3" s="290"/>
+      <c r="B3" s="292" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="292"/>
+      <c r="D3" s="292"/>
+      <c r="E3" s="292"/>
+      <c r="F3" s="292"/>
+      <c r="G3" s="292"/>
+      <c r="H3" s="292"/>
+      <c r="I3" s="292"/>
+      <c r="J3" s="292"/>
+      <c r="K3" s="292"/>
+      <c r="L3" s="292"/>
+      <c r="M3" s="292"/>
+      <c r="N3" s="292"/>
+      <c r="O3" s="292"/>
+      <c r="P3" s="292"/>
     </row>
     <row r="4" spans="1:16" s="47" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="43"/>
-      <c r="B4" s="286" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="287"/>
-      <c r="D4" s="287"/>
-      <c r="E4" s="287"/>
-      <c r="F4" s="287"/>
-      <c r="G4" s="287"/>
-      <c r="H4" s="291"/>
+      <c r="B4" s="270" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="271"/>
+      <c r="D4" s="271"/>
+      <c r="E4" s="271"/>
+      <c r="F4" s="271"/>
+      <c r="G4" s="271"/>
+      <c r="H4" s="293"/>
       <c r="I4" s="48"/>
-      <c r="J4" s="286" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="287"/>
-      <c r="L4" s="287"/>
-      <c r="M4" s="287"/>
-      <c r="N4" s="287"/>
-      <c r="O4" s="287"/>
-      <c r="P4" s="291"/>
+      <c r="J4" s="270" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="271"/>
+      <c r="L4" s="271"/>
+      <c r="M4" s="271"/>
+      <c r="N4" s="271"/>
+      <c r="O4" s="271"/>
+      <c r="P4" s="293"/>
     </row>
     <row r="5" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="279" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="280"/>
-      <c r="D5" s="281"/>
-      <c r="J5" s="279" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" s="280"/>
-      <c r="L5" s="281"/>
+      <c r="B5" s="284" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="285"/>
+      <c r="D5" s="286"/>
+      <c r="J5" s="284" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" s="285"/>
+      <c r="L5" s="286"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B6" s="49">
         <v>5</v>
       </c>
-      <c r="C6" s="283" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="284"/>
+      <c r="C6" s="267" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="269"/>
       <c r="J6" s="49">
         <v>5</v>
       </c>
-      <c r="K6" s="283" t="s">
-        <v>72</v>
-      </c>
-      <c r="L6" s="284"/>
+      <c r="K6" s="267" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="269"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B7" s="50">
         <v>30</v>
       </c>
-      <c r="C7" s="273" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="274"/>
+      <c r="C7" s="278" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="279"/>
       <c r="J7" s="50">
         <v>30</v>
       </c>
-      <c r="K7" s="273" t="s">
-        <v>71</v>
-      </c>
-      <c r="L7" s="274"/>
+      <c r="K7" s="278" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" s="279"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="276" t="e">
+        <v>69</v>
+      </c>
+      <c r="C8" s="281" t="e">
         <f>"Insufficient Data, .i.e, less than " &amp; CritNbr</f>
         <v>#REF!</v>
       </c>
-      <c r="D8" s="277"/>
+      <c r="D8" s="282"/>
       <c r="J8" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="K8" s="276" t="e">
+        <v>69</v>
+      </c>
+      <c r="K8" s="281" t="e">
         <f>"Insufficient Data, .i.e, less than " &amp; CritNbr</f>
         <v>#REF!</v>
       </c>
-      <c r="L8" s="277"/>
+      <c r="L8" s="282"/>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="270" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="271"/>
-      <c r="E9" s="289" t="s">
+      <c r="B9" s="276" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
-      <c r="J9" s="270" t="s">
-        <v>69</v>
-      </c>
-      <c r="K9" s="271"/>
-      <c r="M9" s="289" t="s">
+      <c r="C9" s="277"/>
+      <c r="E9" s="288" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="288"/>
+      <c r="G9" s="288"/>
+      <c r="H9" s="288"/>
+      <c r="J9" s="276" t="s">
         <v>68</v>
       </c>
-      <c r="N9" s="289"/>
-      <c r="O9" s="289"/>
-      <c r="P9" s="289"/>
+      <c r="K9" s="277"/>
+      <c r="M9" s="288" t="s">
+        <v>67</v>
+      </c>
+      <c r="N9" s="288"/>
+      <c r="O9" s="288"/>
+      <c r="P9" s="288"/>
     </row>
     <row r="10" spans="1:16" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F10" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="L10" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="M10" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="55" t="s">
+      <c r="N10" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="55" t="s">
+      <c r="O10" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="J10" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="L10" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="M10" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="N10" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="O10" s="55" t="s">
-        <v>65</v>
-      </c>
       <c r="P10" s="55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
@@ -8509,7 +10914,7 @@
       </c>
     </row>
     <row r="63" spans="1:16" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="292" t="s">
+      <c r="A63" s="289" t="s">
         <v>3</v>
       </c>
       <c r="B63" s="45">
@@ -8536,7 +10941,7 @@
         <f t="shared" si="6"/>
         <v>Insufficient</v>
       </c>
-      <c r="I63" s="292" t="s">
+      <c r="I63" s="289" t="s">
         <v>3</v>
       </c>
       <c r="J63" s="45">
@@ -8563,7 +10968,7 @@
       </c>
     </row>
     <row r="64" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="292"/>
+      <c r="A64" s="289"/>
       <c r="B64" s="32">
         <v>43986</v>
       </c>
@@ -8586,7 +10991,7 @@
         <f t="shared" si="6"/>
         <v>Insufficient</v>
       </c>
-      <c r="I64" s="292"/>
+      <c r="I64" s="289"/>
       <c r="J64" s="32">
         <v>43986</v>
       </c>
@@ -8611,7 +11016,7 @@
       </c>
     </row>
     <row r="65" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="292"/>
+      <c r="A65" s="289"/>
       <c r="B65" s="32">
         <v>43991</v>
       </c>
@@ -8636,7 +11041,7 @@
         <f t="shared" si="6"/>
         <v>Insufficient</v>
       </c>
-      <c r="I65" s="292"/>
+      <c r="I65" s="289"/>
       <c r="J65" s="32">
         <v>43991</v>
       </c>
@@ -8661,7 +11066,7 @@
       </c>
     </row>
     <row r="66" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="292"/>
+      <c r="A66" s="289"/>
       <c r="B66" s="32">
         <v>44000</v>
       </c>
@@ -8684,7 +11089,7 @@
         <f t="shared" si="6"/>
         <v>Insufficient</v>
       </c>
-      <c r="I66" s="292"/>
+      <c r="I66" s="289"/>
       <c r="J66" s="32">
         <v>44000</v>
       </c>
@@ -8709,7 +11114,7 @@
       </c>
     </row>
     <row r="67" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A67" s="292"/>
+      <c r="A67" s="289"/>
       <c r="B67" s="32">
         <v>44005</v>
       </c>
@@ -8732,7 +11137,7 @@
         <f t="shared" si="6"/>
         <v>2.8314850804230636</v>
       </c>
-      <c r="I67" s="292"/>
+      <c r="I67" s="289"/>
       <c r="J67" s="32">
         <v>44005</v>
       </c>
@@ -8757,7 +11162,7 @@
       </c>
     </row>
     <row r="68" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A68" s="292"/>
+      <c r="A68" s="289"/>
       <c r="B68" s="32">
         <v>44011</v>
       </c>
@@ -8782,7 +11187,7 @@
         <f t="shared" si="6"/>
         <v>2.8314850804230636</v>
       </c>
-      <c r="I68" s="292"/>
+      <c r="I68" s="289"/>
       <c r="J68" s="32">
         <v>44011</v>
       </c>
@@ -8807,7 +11212,7 @@
       </c>
     </row>
     <row r="69" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A69" s="292"/>
+      <c r="A69" s="289"/>
       <c r="B69" s="32">
         <v>44019</v>
       </c>
@@ -8830,7 +11235,7 @@
         <f t="shared" si="6"/>
         <v>3.9818676015813006</v>
       </c>
-      <c r="I69" s="292"/>
+      <c r="I69" s="289"/>
       <c r="J69" s="32">
         <v>44019</v>
       </c>
@@ -8855,7 +11260,7 @@
       </c>
     </row>
     <row r="70" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A70" s="292"/>
+      <c r="A70" s="289"/>
       <c r="B70" s="32">
         <v>44025</v>
       </c>
@@ -8878,7 +11283,7 @@
         <f t="shared" si="6"/>
         <v>4.5739647637524294</v>
       </c>
-      <c r="I70" s="292"/>
+      <c r="I70" s="289"/>
       <c r="J70" s="32">
         <v>44025</v>
       </c>
@@ -8903,7 +11308,7 @@
       </c>
     </row>
     <row r="71" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A71" s="292"/>
+      <c r="A71" s="289"/>
       <c r="B71" s="32">
         <v>44032</v>
       </c>
@@ -8926,7 +11331,7 @@
         <f t="shared" si="6"/>
         <v>5.1706648945764728</v>
       </c>
-      <c r="I71" s="292"/>
+      <c r="I71" s="289"/>
       <c r="J71" s="32">
         <v>44032</v>
       </c>
@@ -8951,7 +11356,7 @@
       </c>
     </row>
     <row r="72" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A72" s="292"/>
+      <c r="A72" s="289"/>
       <c r="B72" s="32">
         <v>44039</v>
       </c>
@@ -8974,7 +11379,7 @@
         <f t="shared" si="6"/>
         <v>3.7996626191740397</v>
       </c>
-      <c r="I72" s="292"/>
+      <c r="I72" s="289"/>
       <c r="J72" s="32">
         <v>44039</v>
       </c>
@@ -8999,7 +11404,7 @@
       </c>
     </row>
     <row r="73" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A73" s="292"/>
+      <c r="A73" s="289"/>
       <c r="B73" s="32">
         <v>44048</v>
       </c>
@@ -9022,7 +11427,7 @@
         <f t="shared" si="6"/>
         <v>6.6155968669143732</v>
       </c>
-      <c r="I73" s="292"/>
+      <c r="I73" s="289"/>
       <c r="J73" s="32">
         <v>44048</v>
       </c>
@@ -9047,7 +11452,7 @@
       </c>
     </row>
     <row r="74" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A74" s="292"/>
+      <c r="A74" s="289"/>
       <c r="B74" s="32">
         <v>44054</v>
       </c>
@@ -9070,7 +11475,7 @@
         <f t="shared" si="6"/>
         <v>4.0953450221584387</v>
       </c>
-      <c r="I74" s="292"/>
+      <c r="I74" s="289"/>
       <c r="J74" s="32">
         <v>44054</v>
       </c>
@@ -9095,7 +11500,7 @@
       </c>
     </row>
     <row r="75" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="293"/>
+      <c r="A75" s="290"/>
       <c r="B75" s="32">
         <v>44061</v>
       </c>
@@ -9118,7 +11523,7 @@
         <f t="shared" si="6"/>
         <v>6.3086842910598087</v>
       </c>
-      <c r="I75" s="293"/>
+      <c r="I75" s="290"/>
       <c r="J75" s="44">
         <v>44061</v>
       </c>
@@ -9148,17 +11553,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="A63:A75"/>
-    <mergeCell ref="I63:I75"/>
-    <mergeCell ref="I11:I23"/>
-    <mergeCell ref="A11:A23"/>
-    <mergeCell ref="A24:A36"/>
-    <mergeCell ref="I24:I36"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A37:A49"/>
     <mergeCell ref="I37:I49"/>
@@ -9175,6 +11569,17 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A63:A75"/>
+    <mergeCell ref="I63:I75"/>
+    <mergeCell ref="I11:I23"/>
+    <mergeCell ref="A11:A23"/>
+    <mergeCell ref="A24:A36"/>
+    <mergeCell ref="I24:I36"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="J9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9185,7 +11590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -9200,7 +11605,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="175" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B1" s="175"/>
       <c r="C1" s="175"/>
@@ -9209,31 +11614,31 @@
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="176" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="177"/>
       <c r="E3" s="178"/>
     </row>
     <row r="4" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="129" t="s">
-        <v>50</v>
-      </c>
       <c r="C4" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="E4" s="31" t="s">
         <v>84</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
@@ -9247,7 +11652,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="71" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" s="73" t="s">
         <v>4</v>
@@ -9274,10 +11679,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="74" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" s="75" t="s">
         <v>4</v>
@@ -9321,7 +11726,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="131" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="132">
         <v>13100</v>
@@ -9336,7 +11741,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="134" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="135">
         <v>1590</v>
@@ -9357,7 +11762,7 @@
         <v>5210</v>
       </c>
       <c r="E12" s="136" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9372,7 +11777,7 @@
         <v>8050</v>
       </c>
       <c r="E13" s="136" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9392,7 +11797,7 @@
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A15" s="184" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B15" s="185"/>
       <c r="C15" s="185"/>
@@ -9401,7 +11806,7 @@
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="172" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="173"/>
       <c r="C16" s="173"/>
@@ -9433,7 +11838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -9447,7 +11852,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="166" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="167">
         <v>2020</v>
@@ -9464,7 +11869,7 @@
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="168" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B2" s="169">
         <v>5355</v>
@@ -9481,7 +11886,7 @@
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="168" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B3" s="170">
         <v>3468</v>
@@ -9498,7 +11903,7 @@
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="168" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B4" s="169">
         <v>3576</v>
@@ -9515,7 +11920,7 @@
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="168" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B5" s="170">
         <v>3965</v>
@@ -9532,7 +11937,7 @@
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="168" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B6" s="169">
         <v>4290</v>
@@ -9549,7 +11954,7 @@
     </row>
     <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="168" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B7" s="170">
         <v>11190</v>
@@ -9566,7 +11971,7 @@
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="168" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B8" s="169">
         <v>15138</v>
@@ -9583,7 +11988,7 @@
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="168" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B9" s="170">
         <v>12127</v>
@@ -9600,7 +12005,7 @@
     </row>
     <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="168" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B10" s="169">
         <v>8686</v>
@@ -9617,7 +12022,7 @@
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="168" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B11" s="170">
         <v>6032</v>
@@ -9634,7 +12039,7 @@
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="168" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B12" s="169">
         <v>10104</v>
@@ -9651,7 +12056,7 @@
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="168" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B13" s="170">
         <v>16526</v>
@@ -9668,7 +12073,7 @@
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="168" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B14" s="169">
         <v>36247</v>
@@ -9685,7 +12090,7 @@
     </row>
     <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="168" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B15" s="170">
         <v>30084</v>
@@ -9702,7 +12107,7 @@
     </row>
     <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="168" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B16" s="169">
         <v>34662</v>
@@ -9719,7 +12124,7 @@
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="168" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B17" s="170">
         <v>19086</v>
@@ -9736,7 +12141,7 @@
     </row>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="168" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B18" s="169">
         <v>31392</v>
@@ -9753,7 +12158,7 @@
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="168" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B19" s="170">
         <v>26143</v>
@@ -9770,7 +12175,7 @@
     </row>
     <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="168" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B20" s="169">
         <v>32598</v>
@@ -9787,7 +12192,7 @@
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="168" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B21" s="170">
         <v>46306</v>
@@ -9804,7 +12209,7 @@
     </row>
     <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="168" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B22" s="169">
         <v>17854</v>
@@ -9821,7 +12226,7 @@
     </row>
     <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="168" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B23" s="170">
         <v>17316</v>
@@ -9838,7 +12243,7 @@
     </row>
     <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="168" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B24" s="169">
         <v>20172</v>
@@ -9855,7 +12260,7 @@
     </row>
     <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="168" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B25" s="170">
         <v>20562</v>
@@ -9872,7 +12277,7 @@
     </row>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="168" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B26" s="169">
         <v>23922</v>
@@ -9889,7 +12294,7 @@
     </row>
     <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="168" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B27" s="170">
         <v>20117</v>
@@ -9906,7 +12311,7 @@
     </row>
     <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="168" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B28" s="169">
         <v>38004</v>
@@ -9923,7 +12328,7 @@
     </row>
     <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="168" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B29" s="170">
         <v>47946</v>
@@ -9940,7 +12345,7 @@
     </row>
     <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="168" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B30" s="169">
         <v>40632</v>
@@ -9957,7 +12362,7 @@
     </row>
     <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="168" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B31" s="170">
         <v>43048</v>
@@ -9974,7 +12379,7 @@
     </row>
     <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="168" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B32" s="169">
         <v>40718</v>
@@ -9991,7 +12396,7 @@
     </row>
     <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="168" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B33" s="170">
         <v>24792</v>
@@ -10008,7 +12413,7 @@
     </row>
     <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="168" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B34" s="169">
         <v>37548</v>
@@ -10025,7 +12430,7 @@
     </row>
     <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="168" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B35" s="170">
         <v>43706</v>
@@ -10042,7 +12447,7 @@
     </row>
     <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="168" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B36" s="169">
         <v>41152</v>
@@ -10059,7 +12464,7 @@
     </row>
     <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="168" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B37" s="170">
         <v>39293</v>
@@ -10076,7 +12481,7 @@
     </row>
     <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="168" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B38" s="169">
         <v>40686</v>
@@ -10093,7 +12498,7 @@
     </row>
     <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="168" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B39" s="170">
         <v>26737</v>
@@ -10110,7 +12515,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="168" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B40" s="169">
         <v>25520</v>
@@ -10127,7 +12532,7 @@
     </row>
     <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="168" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B41" s="170">
         <v>35474</v>
@@ -10144,7 +12549,7 @@
     </row>
     <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="168" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B42" s="169">
         <v>24791</v>
@@ -10161,7 +12566,7 @@
     </row>
     <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="168" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B43" s="170">
         <v>44123</v>
@@ -10178,7 +12583,7 @@
     </row>
     <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="168" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B44" s="169">
         <v>49097</v>
@@ -10195,7 +12600,7 @@
     </row>
     <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="168" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B45" s="170">
         <v>65900</v>
@@ -10212,7 +12617,7 @@
     </row>
     <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="168" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B46" s="169">
         <v>107241</v>
@@ -10229,7 +12634,7 @@
     </row>
     <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="168" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B47" s="170">
         <v>70055</v>
@@ -10246,7 +12651,7 @@
     </row>
     <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="168" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B48" s="169">
         <v>112174</v>
@@ -10263,7 +12668,7 @@
     </row>
     <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="168" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B49" s="170">
         <v>134874</v>
@@ -10280,7 +12685,7 @@
     </row>
     <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="168" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B50" s="169">
         <v>56939</v>
@@ -10297,7 +12702,7 @@
     </row>
     <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="168" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B51" s="170">
         <v>15709</v>
@@ -10314,7 +12719,7 @@
     </row>
     <row r="52" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="168" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B52" s="169">
         <v>43468</v>
@@ -10328,7 +12733,7 @@
     </row>
     <row r="53" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="168" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B53" s="170">
         <v>43826</v>
@@ -10342,7 +12747,7 @@
     </row>
     <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="168" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B54" s="169">
         <v>20828</v>
@@ -10356,7 +12761,7 @@
     </row>
     <row r="55" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="168" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B55" s="170">
         <v>17402</v>
@@ -10370,7 +12775,7 @@
     </row>
     <row r="56" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="168" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B56" s="169">
         <v>4785</v>
@@ -10384,7 +12789,7 @@
     </row>
     <row r="57" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="168" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B57" s="171"/>
       <c r="C57" s="171"/>
@@ -10394,7 +12799,7 @@
     </row>
     <row r="58" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="168" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D58" s="169">
         <v>7795</v>
@@ -10402,7 +12807,7 @@
     </row>
     <row r="59" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="168" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D59" s="170">
         <v>9351</v>
@@ -10410,7 +12815,7 @@
     </row>
     <row r="60" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="168" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D60" s="169">
         <v>1436</v>
@@ -10442,14 +12847,14 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="187" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" s="187"/>
       <c r="C1" s="187"/>
     </row>
     <row r="2" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="188" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="189"/>
       <c r="C2" s="190"/>
@@ -10458,98 +12863,98 @@
     <row r="3" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="19"/>
       <c r="B3" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="84" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="130" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="155" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="25"/>
     </row>
     <row r="6" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A6" s="195" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="28"/>
     </row>
     <row r="7" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="196"/>
       <c r="B7" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="29"/>
     </row>
     <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="196"/>
       <c r="B8" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="29"/>
     </row>
     <row r="9" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="196"/>
       <c r="B9" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="29"/>
     </row>
     <row r="10" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="197"/>
       <c r="B10" s="112" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="30"/>
     </row>
     <row r="11" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A11" s="198" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="199"/>
       <c r="C11" s="200"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="201" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="202"/>
       <c r="C12" s="203"/>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="210" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="211"/>
       <c r="C13" s="212"/>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="204" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="205"/>
       <c r="C14" s="206"/>
     </row>
     <row r="15" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="207" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B15" s="208"/>
       <c r="C15" s="209"/>
@@ -10557,14 +12962,14 @@
     <row r="16" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D22" s="191" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22" s="191"/>
       <c r="F22" s="191"/>
     </row>
     <row r="23" spans="4:6" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D23" s="192" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E23" s="193"/>
       <c r="F23" s="194"/>
@@ -10572,37 +12977,37 @@
     <row r="24" spans="4:6" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D24" s="9"/>
       <c r="E24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="25" spans="4:6" ht="79.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D25" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="F25" s="14" t="s">
         <v>32</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="26" spans="4:6" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D26" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="F26" s="17" t="s">
         <v>35</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="27" spans="4:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D27" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -10626,10 +13031,177 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34.109375" style="297" customWidth="1"/>
+    <col min="2" max="2" width="11" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="34.77734375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.77734375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="23.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="111" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="297" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="297" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="297" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" s="297" t="s">
+        <v>239</v>
+      </c>
+      <c r="E1" s="297" t="s">
+        <v>226</v>
+      </c>
+      <c r="F1" s="297" t="s">
+        <v>225</v>
+      </c>
+      <c r="G1" s="297" t="s">
+        <v>232</v>
+      </c>
+      <c r="H1" s="111" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="42" customFormat="1" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="294" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" s="295" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="295" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="296" t="s">
+        <v>236</v>
+      </c>
+      <c r="E2" s="295" t="s">
+        <v>242</v>
+      </c>
+      <c r="F2" s="295" t="s">
+        <v>243</v>
+      </c>
+      <c r="G2" s="295" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="42" customFormat="1" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="294" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" s="295" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3" s="295" t="s">
+        <v>230</v>
+      </c>
+      <c r="E3" s="295" t="s">
+        <v>244</v>
+      </c>
+      <c r="F3" s="295" t="s">
+        <v>245</v>
+      </c>
+      <c r="G3" s="295" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="42" customFormat="1" ht="127.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="294" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4" s="295" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="295" t="s">
+        <v>228</v>
+      </c>
+      <c r="D4" s="296" t="s">
+        <v>235</v>
+      </c>
+      <c r="E4" s="295"/>
+      <c r="F4" s="295" t="s">
+        <v>241</v>
+      </c>
+      <c r="G4" s="295" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="298"/>
+      <c r="B5" s="295"/>
+      <c r="C5" s="295"/>
+      <c r="D5" s="295"/>
+      <c r="E5" s="295"/>
+      <c r="F5" s="295"/>
+      <c r="G5" s="295"/>
+    </row>
+    <row r="6" spans="1:8" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="300" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6" s="295"/>
+      <c r="C6" s="295"/>
+      <c r="D6" s="295"/>
+      <c r="E6" s="295"/>
+      <c r="F6" s="295"/>
+      <c r="G6" s="295"/>
+    </row>
+    <row r="7" spans="1:8" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="298"/>
+      <c r="B7" s="295"/>
+      <c r="C7" s="295"/>
+      <c r="D7" s="295"/>
+      <c r="E7" s="295"/>
+      <c r="F7" s="295"/>
+      <c r="G7" s="295"/>
+    </row>
+    <row r="8" spans="1:8" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="298"/>
+      <c r="B8" s="295"/>
+      <c r="C8" s="295"/>
+      <c r="D8" s="295"/>
+      <c r="E8" s="295"/>
+      <c r="F8" s="295"/>
+      <c r="G8" s="295"/>
+    </row>
+    <row r="9" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="299"/>
+      <c r="B9" s="295"/>
+      <c r="C9" s="295"/>
+      <c r="D9" s="295"/>
+      <c r="E9" s="295"/>
+      <c r="F9" s="295"/>
+      <c r="G9" s="295"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10644,7 +13216,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="213" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B1" s="213"/>
       <c r="C1" s="213"/>
@@ -10716,7 +13288,7 @@
         <v>-151.25399999999999</v>
       </c>
       <c r="E5" s="141" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -10733,7 +13305,7 @@
         <v>-151.26804000000001</v>
       </c>
       <c r="E6" s="141" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -10750,7 +13322,7 @@
         <v>-151.26532</v>
       </c>
       <c r="E7" s="146" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -10764,7 +13336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O25"/>
   <sheetViews>
@@ -10798,7 +13370,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="175" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B1" s="175"/>
       <c r="C1" s="175"/>
@@ -10811,13 +13383,13 @@
       <c r="J1" s="175"/>
       <c r="K1" s="175"/>
       <c r="O1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="226" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" s="227"/>
       <c r="C3" s="227"/>
@@ -10833,23 +13405,23 @@
     <row r="4" spans="1:15" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="35"/>
       <c r="B4" s="229" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="230"/>
       <c r="D4" s="229" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" s="230"/>
       <c r="F4" s="231" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G4" s="232"/>
       <c r="H4" s="229" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I4" s="230"/>
       <c r="J4" s="229" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K4" s="233"/>
     </row>
@@ -10858,34 +13430,34 @@
         <v>0</v>
       </c>
       <c r="B5" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="83" t="s">
-        <v>87</v>
-      </c>
       <c r="D5" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="83" t="s">
-        <v>87</v>
-      </c>
       <c r="F5" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="G5" s="83" t="s">
-        <v>87</v>
-      </c>
       <c r="H5" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="I5" s="83" t="s">
-        <v>87</v>
-      </c>
       <c r="J5" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" s="84" t="s">
         <v>86</v>
-      </c>
-      <c r="K5" s="84" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -10893,16 +13465,16 @@
         <v>43977</v>
       </c>
       <c r="B6" s="114" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C6" s="113" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D6" s="114">
         <v>2</v>
       </c>
       <c r="E6" s="115" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F6" s="113">
         <v>1</v>
@@ -10934,10 +13506,10 @@
         <v>69</v>
       </c>
       <c r="D7" s="117" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F7" s="158">
         <v>6</v>
@@ -10963,10 +13535,10 @@
         <v>43991</v>
       </c>
       <c r="B8" s="117" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C8" s="158" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D8" s="117">
         <v>8</v>
@@ -11004,10 +13576,10 @@
         <v>46</v>
       </c>
       <c r="D9" s="117" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F9" s="158">
         <v>1</v>
@@ -11033,10 +13605,10 @@
         <v>44005</v>
       </c>
       <c r="B10" s="117" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C10" s="157" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D10" s="117">
         <v>18</v>
@@ -11074,10 +13646,10 @@
         <v>5.7</v>
       </c>
       <c r="D11" s="117" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E11" s="118" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F11" s="158">
         <v>1</v>
@@ -11103,10 +13675,10 @@
         <v>44019</v>
       </c>
       <c r="B12" s="117" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C12" s="158" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D12" s="117">
         <v>4</v>
@@ -11138,7 +13710,7 @@
         <v>44022</v>
       </c>
       <c r="B13" s="216" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="217"/>
       <c r="D13" s="217"/>
@@ -11161,10 +13733,10 @@
         <v>600</v>
       </c>
       <c r="D14" s="117" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E14" s="118" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F14" s="158">
         <v>2</v>
@@ -11190,10 +13762,10 @@
         <v>44032</v>
       </c>
       <c r="B15" s="117" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" s="157" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D15" s="117">
         <v>6</v>
@@ -11231,10 +13803,10 @@
         <v>8.6</v>
       </c>
       <c r="D16" s="117" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16" s="118" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F16" s="158" t="s">
         <v>8</v>
@@ -11260,7 +13832,7 @@
         <v>44043</v>
       </c>
       <c r="B17" s="216" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="217"/>
       <c r="D17" s="217"/>
@@ -11277,10 +13849,10 @@
         <v>44048</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C18" s="157" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D18" s="117">
         <v>38</v>
@@ -11318,10 +13890,10 @@
         <v>17</v>
       </c>
       <c r="D19" s="117" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F19" s="160" t="s">
         <v>8</v>
@@ -11347,10 +13919,10 @@
         <v>44061</v>
       </c>
       <c r="B20" s="117" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="157" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D20" s="117">
         <v>23</v>
@@ -11379,7 +13951,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="219" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B21" s="220"/>
       <c r="C21" s="220"/>
@@ -11394,10 +13966,10 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" s="222" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22" s="222"/>
       <c r="D22" s="222"/>
@@ -11411,10 +13983,10 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" s="224" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23" s="224"/>
       <c r="D23" s="224"/>
@@ -11428,10 +14000,10 @@
     </row>
     <row r="24" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24" s="214" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C24" s="214"/>
       <c r="D24" s="214"/>
@@ -11465,7 +14037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI18"/>
   <sheetViews>
@@ -11480,7 +14052,7 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="175" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B1" s="175"/>
       <c r="C1" s="175"/>
@@ -11495,46 +14067,46 @@
     </row>
     <row r="2" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="104" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="226" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="234"/>
-      <c r="C3" s="234"/>
-      <c r="D3" s="234"/>
-      <c r="E3" s="234"/>
-      <c r="F3" s="234"/>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="235"/>
+        <v>137</v>
+      </c>
+      <c r="B3" s="245"/>
+      <c r="C3" s="245"/>
+      <c r="D3" s="245"/>
+      <c r="E3" s="245"/>
+      <c r="F3" s="245"/>
+      <c r="G3" s="245"/>
+      <c r="H3" s="245"/>
+      <c r="I3" s="245"/>
+      <c r="J3" s="245"/>
+      <c r="K3" s="246"/>
     </row>
     <row r="4" spans="1:35" s="3" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="236" t="s">
+      <c r="B4" s="247" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="248"/>
+      <c r="D4" s="247" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="237"/>
-      <c r="D4" s="236" t="s">
+      <c r="E4" s="248"/>
+      <c r="F4" s="247" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="248"/>
+      <c r="H4" s="247" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="237"/>
-      <c r="F4" s="236" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="237"/>
-      <c r="H4" s="236" t="s">
+      <c r="I4" s="248"/>
+      <c r="J4" s="247" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="237"/>
-      <c r="J4" s="236" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" s="238"/>
+      <c r="K4" s="249"/>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
@@ -11562,34 +14134,34 @@
         <v>0</v>
       </c>
       <c r="B5" s="88" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D5" s="88" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E5" s="90" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F5" s="88" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G5" s="90" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H5" s="88" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I5" s="90" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J5" s="88" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K5" s="161" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O5"/>
       <c r="P5"/>
@@ -11620,31 +14192,31 @@
       <c r="B6" s="120">
         <v>14.163642982643259</v>
       </c>
-      <c r="C6" s="247">
+      <c r="C6" s="242">
         <v>7.69230769230769E-2</v>
       </c>
       <c r="D6" s="120">
         <v>10.021665914008862</v>
       </c>
-      <c r="E6" s="247">
+      <c r="E6" s="242">
         <v>0</v>
       </c>
       <c r="F6" s="120">
         <v>1.8881750225898042</v>
       </c>
-      <c r="G6" s="247">
+      <c r="G6" s="242">
         <v>0</v>
       </c>
       <c r="H6" s="100">
         <v>3.7880780662300646</v>
       </c>
-      <c r="I6" s="244">
+      <c r="I6" s="239">
         <v>0</v>
       </c>
       <c r="J6" s="100">
         <v>2.8314850804230636</v>
       </c>
-      <c r="K6" s="241">
+      <c r="K6" s="236">
         <v>0</v>
       </c>
     </row>
@@ -11655,23 +14227,23 @@
       <c r="B7" s="120">
         <v>25.522645676066997</v>
       </c>
-      <c r="C7" s="248"/>
+      <c r="C7" s="243"/>
       <c r="D7" s="120">
         <v>10.021665914008862</v>
       </c>
-      <c r="E7" s="248"/>
+      <c r="E7" s="243"/>
       <c r="F7" s="120">
         <v>1.8881750225898042</v>
       </c>
-      <c r="G7" s="248"/>
+      <c r="G7" s="243"/>
       <c r="H7" s="100">
         <v>7.5761561324601292</v>
       </c>
-      <c r="I7" s="245"/>
+      <c r="I7" s="240"/>
       <c r="J7" s="100">
         <v>2.8314850804230636</v>
       </c>
-      <c r="K7" s="242"/>
+      <c r="K7" s="237"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="99">
@@ -11680,23 +14252,23 @@
       <c r="B8" s="120">
         <v>20.321496510276965</v>
       </c>
-      <c r="C8" s="248"/>
+      <c r="C8" s="243"/>
       <c r="D8" s="120">
         <v>6.8403632691118492</v>
       </c>
-      <c r="E8" s="248"/>
+      <c r="E8" s="243"/>
       <c r="F8" s="120">
         <v>1.6437518295172258</v>
       </c>
-      <c r="G8" s="248"/>
+      <c r="G8" s="243"/>
       <c r="H8" s="120">
         <v>8.5212521625421758</v>
       </c>
-      <c r="I8" s="245"/>
+      <c r="I8" s="240"/>
       <c r="J8" s="120">
         <v>3.9818676015813006</v>
       </c>
-      <c r="K8" s="242"/>
+      <c r="K8" s="237"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="156">
@@ -11705,23 +14277,23 @@
       <c r="B9" s="125">
         <v>40.032198122303697</v>
       </c>
-      <c r="C9" s="248"/>
+      <c r="C9" s="243"/>
       <c r="D9" s="120">
         <v>6.2266602517197427</v>
       </c>
-      <c r="E9" s="248"/>
+      <c r="E9" s="243"/>
       <c r="F9" s="120">
         <v>1.6437518295172258</v>
       </c>
-      <c r="G9" s="248"/>
+      <c r="G9" s="243"/>
       <c r="H9" s="120">
         <v>6.8403632691118492</v>
       </c>
-      <c r="I9" s="245"/>
+      <c r="I9" s="240"/>
       <c r="J9" s="120">
         <v>4.5739647637524294</v>
       </c>
-      <c r="K9" s="242"/>
+      <c r="K9" s="237"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="87">
@@ -11730,23 +14302,23 @@
       <c r="B10" s="125">
         <v>49.332993514374088</v>
       </c>
-      <c r="C10" s="248"/>
+      <c r="C10" s="243"/>
       <c r="D10" s="120">
         <v>5.3345372167932004</v>
       </c>
-      <c r="E10" s="248"/>
+      <c r="E10" s="243"/>
       <c r="F10" s="120">
         <v>1.6437518295172258</v>
       </c>
-      <c r="G10" s="248"/>
+      <c r="G10" s="243"/>
       <c r="H10" s="120">
         <v>10.368051927942053</v>
       </c>
-      <c r="I10" s="245"/>
+      <c r="I10" s="240"/>
       <c r="J10" s="120">
         <v>5.1706648945764728</v>
       </c>
-      <c r="K10" s="242"/>
+      <c r="K10" s="237"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="87">
@@ -11755,23 +14327,23 @@
       <c r="B11" s="120">
         <v>34.194910051894681</v>
       </c>
-      <c r="C11" s="248"/>
+      <c r="C11" s="243"/>
       <c r="D11" s="120">
         <v>2.9925557394776896</v>
       </c>
-      <c r="E11" s="248"/>
+      <c r="E11" s="243"/>
       <c r="F11" s="120">
         <v>1.2457309396155174</v>
       </c>
-      <c r="G11" s="248"/>
+      <c r="G11" s="243"/>
       <c r="H11" s="120">
         <v>8.8825721396916801</v>
       </c>
-      <c r="I11" s="245"/>
+      <c r="I11" s="240"/>
       <c r="J11" s="120">
         <v>3.7996626191740397</v>
       </c>
-      <c r="K11" s="242"/>
+      <c r="K11" s="237"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="87">
@@ -11780,23 +14352,23 @@
       <c r="B12" s="125">
         <v>43.108391704344136</v>
       </c>
-      <c r="C12" s="248"/>
+      <c r="C12" s="243"/>
       <c r="D12" s="120">
         <v>5.3925349500948707</v>
       </c>
-      <c r="E12" s="248"/>
+      <c r="E12" s="243"/>
       <c r="F12" s="120">
         <v>1.4309690811052556</v>
       </c>
-      <c r="G12" s="248"/>
+      <c r="G12" s="243"/>
       <c r="H12" s="120">
         <v>8.2412537011387155</v>
       </c>
-      <c r="I12" s="245"/>
+      <c r="I12" s="240"/>
       <c r="J12" s="120">
         <v>6.6155968669143732</v>
       </c>
-      <c r="K12" s="242"/>
+      <c r="K12" s="237"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="87">
@@ -11805,23 +14377,23 @@
       <c r="B13" s="125">
         <v>38.422562505562567</v>
       </c>
-      <c r="C13" s="248"/>
+      <c r="C13" s="243"/>
       <c r="D13" s="120">
         <v>6.1943960264379951</v>
       </c>
-      <c r="E13" s="248"/>
+      <c r="E13" s="243"/>
       <c r="F13" s="120">
         <v>1</v>
       </c>
-      <c r="G13" s="248"/>
+      <c r="G13" s="243"/>
       <c r="H13" s="120">
         <v>4.0246932341711164</v>
       </c>
-      <c r="I13" s="245"/>
+      <c r="I13" s="240"/>
       <c r="J13" s="120">
         <v>4.0953450221584387</v>
       </c>
-      <c r="K13" s="242"/>
+      <c r="K13" s="237"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="87">
@@ -11830,27 +14402,27 @@
       <c r="B14" s="101">
         <v>25.429614470037862</v>
       </c>
-      <c r="C14" s="249"/>
+      <c r="C14" s="244"/>
       <c r="D14" s="101">
         <v>9.1442976680260948</v>
       </c>
-      <c r="E14" s="249"/>
+      <c r="E14" s="244"/>
       <c r="F14" s="101">
         <v>1.4142135623730949</v>
       </c>
-      <c r="G14" s="249"/>
+      <c r="G14" s="244"/>
       <c r="H14" s="101">
         <v>5.9112444053102982</v>
       </c>
-      <c r="I14" s="246"/>
+      <c r="I14" s="241"/>
       <c r="J14" s="101">
         <v>6.3086842910598087</v>
       </c>
-      <c r="K14" s="243"/>
+      <c r="K14" s="238"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="219" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B15" s="220"/>
       <c r="C15" s="220"/>
@@ -11865,29 +14437,36 @@
     </row>
     <row r="16" spans="1:35" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="102" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="239" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="239"/>
-      <c r="D16" s="239"/>
-      <c r="E16" s="239"/>
-      <c r="F16" s="239"/>
-      <c r="G16" s="239"/>
-      <c r="H16" s="239"/>
-      <c r="I16" s="239"/>
-      <c r="J16" s="239"/>
-      <c r="K16" s="240"/>
+        <v>55</v>
+      </c>
+      <c r="B16" s="234" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="234"/>
+      <c r="D16" s="234"/>
+      <c r="E16" s="234"/>
+      <c r="F16" s="234"/>
+      <c r="G16" s="234"/>
+      <c r="H16" s="234"/>
+      <c r="I16" s="234"/>
+      <c r="J16" s="234"/>
+      <c r="K16" s="235"/>
     </row>
     <row r="17" spans="5:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="A15:K15"/>
     <mergeCell ref="B16:K16"/>
     <mergeCell ref="K6:K14"/>
@@ -11895,20 +14474,13 @@
     <mergeCell ref="G6:G14"/>
     <mergeCell ref="E6:E14"/>
     <mergeCell ref="C6:C14"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R34"/>
   <sheetViews>
@@ -11938,7 +14510,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="175" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B1" s="175"/>
       <c r="C1" s="175"/>
@@ -11974,105 +14546,105 @@
       <c r="O2" s="97"/>
       <c r="P2" s="97"/>
       <c r="R2" s="107" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="226" t="s">
-        <v>137</v>
-      </c>
-      <c r="B3" s="234"/>
-      <c r="C3" s="234"/>
-      <c r="D3" s="234"/>
-      <c r="E3" s="234"/>
-      <c r="F3" s="234"/>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="234"/>
-      <c r="L3" s="234"/>
-      <c r="M3" s="234"/>
-      <c r="N3" s="234"/>
-      <c r="O3" s="234"/>
-      <c r="P3" s="235"/>
+        <v>136</v>
+      </c>
+      <c r="B3" s="245"/>
+      <c r="C3" s="245"/>
+      <c r="D3" s="245"/>
+      <c r="E3" s="245"/>
+      <c r="F3" s="245"/>
+      <c r="G3" s="245"/>
+      <c r="H3" s="245"/>
+      <c r="I3" s="245"/>
+      <c r="J3" s="245"/>
+      <c r="K3" s="245"/>
+      <c r="L3" s="245"/>
+      <c r="M3" s="245"/>
+      <c r="N3" s="245"/>
+      <c r="O3" s="245"/>
+      <c r="P3" s="246"/>
     </row>
     <row r="4" spans="1:18" ht="31.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="236" t="s">
+      <c r="B4" s="247" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="266"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="247" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="250"/>
-      <c r="D4" s="237"/>
-      <c r="E4" s="236" t="s">
+      <c r="F4" s="266"/>
+      <c r="G4" s="248"/>
+      <c r="H4" s="247" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="266"/>
+      <c r="J4" s="248"/>
+      <c r="K4" s="247" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="250"/>
-      <c r="G4" s="237"/>
-      <c r="H4" s="236" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="250"/>
-      <c r="J4" s="237"/>
-      <c r="K4" s="236" t="s">
+      <c r="L4" s="266"/>
+      <c r="M4" s="248"/>
+      <c r="N4" s="247" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="250"/>
-      <c r="M4" s="237"/>
-      <c r="N4" s="236" t="s">
-        <v>55</v>
-      </c>
-      <c r="O4" s="250"/>
-      <c r="P4" s="238"/>
+      <c r="O4" s="266"/>
+      <c r="P4" s="249"/>
     </row>
     <row r="5" spans="1:18" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="86" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="88" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="D5" s="90" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="90" t="s">
-        <v>97</v>
-      </c>
       <c r="E5" s="89" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="F5" s="90" t="s">
+      <c r="G5" s="90" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="90" t="s">
-        <v>97</v>
-      </c>
       <c r="H5" s="89" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="I5" s="90" t="s">
+      <c r="J5" s="90" t="s">
         <v>96</v>
       </c>
-      <c r="J5" s="90" t="s">
-        <v>97</v>
-      </c>
       <c r="K5" s="89" t="s">
+        <v>94</v>
+      </c>
+      <c r="L5" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="L5" s="90" t="s">
+      <c r="M5" s="90" t="s">
         <v>96</v>
       </c>
-      <c r="M5" s="90" t="s">
-        <v>97</v>
-      </c>
       <c r="N5" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="O5" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="O5" s="90" t="s">
+      <c r="P5" s="161" t="s">
         <v>96</v>
-      </c>
-      <c r="P5" s="161" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -12082,46 +14654,46 @@
       <c r="B6" s="126">
         <v>33.08060410780066</v>
       </c>
-      <c r="C6" s="257">
+      <c r="C6" s="256">
         <v>0.53849999999999998</v>
       </c>
-      <c r="D6" s="254">
+      <c r="D6" s="253">
         <v>7.6899999999999996E-2</v>
       </c>
       <c r="E6" s="128">
         <v>21.395811121327949</v>
       </c>
-      <c r="F6" s="251">
+      <c r="F6" s="250">
         <v>0.30769999999999997</v>
       </c>
-      <c r="G6" s="254">
+      <c r="G6" s="253">
         <v>0</v>
       </c>
       <c r="H6" s="128">
         <v>23.597632800122881</v>
       </c>
-      <c r="I6" s="251">
+      <c r="I6" s="250">
         <v>0.30769999999999997</v>
       </c>
-      <c r="J6" s="254">
+      <c r="J6" s="253">
         <v>0</v>
       </c>
       <c r="K6" s="128">
         <v>22.644350588563061</v>
       </c>
-      <c r="L6" s="257">
+      <c r="L6" s="256">
         <v>0.61539999999999995</v>
       </c>
-      <c r="M6" s="254">
+      <c r="M6" s="253">
         <v>0</v>
       </c>
       <c r="N6" s="162">
         <v>17.641925344776748</v>
       </c>
-      <c r="O6" s="251">
+      <c r="O6" s="250">
         <v>0.15379999999999999</v>
       </c>
-      <c r="P6" s="264">
+      <c r="P6" s="263">
         <v>0</v>
       </c>
     </row>
@@ -12132,28 +14704,28 @@
       <c r="B7" s="126">
         <v>23.272000451163198</v>
       </c>
-      <c r="C7" s="258"/>
-      <c r="D7" s="255"/>
+      <c r="C7" s="257"/>
+      <c r="D7" s="254"/>
       <c r="E7" s="128">
         <v>14.346389045745395</v>
       </c>
-      <c r="F7" s="252"/>
-      <c r="G7" s="255"/>
+      <c r="F7" s="251"/>
+      <c r="G7" s="254"/>
       <c r="H7" s="128">
         <v>15.921997047504334</v>
       </c>
-      <c r="I7" s="252"/>
-      <c r="J7" s="255"/>
+      <c r="I7" s="251"/>
+      <c r="J7" s="254"/>
       <c r="K7" s="128">
         <v>38.215560608406783</v>
       </c>
-      <c r="L7" s="258"/>
-      <c r="M7" s="255"/>
+      <c r="L7" s="257"/>
+      <c r="M7" s="254"/>
       <c r="N7" s="103">
         <v>12.6165197514936</v>
       </c>
-      <c r="O7" s="252"/>
-      <c r="P7" s="265"/>
+      <c r="O7" s="251"/>
+      <c r="P7" s="264"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="87">
@@ -12162,28 +14734,28 @@
       <c r="B8" s="126">
         <v>16.666813240515243</v>
       </c>
-      <c r="C8" s="258"/>
-      <c r="D8" s="255"/>
+      <c r="C8" s="257"/>
+      <c r="D8" s="254"/>
       <c r="E8" s="103">
         <v>8.8957975701987895</v>
       </c>
-      <c r="F8" s="252"/>
-      <c r="G8" s="255"/>
+      <c r="F8" s="251"/>
+      <c r="G8" s="254"/>
       <c r="H8" s="128">
         <v>14.273331612887977</v>
       </c>
-      <c r="I8" s="252"/>
-      <c r="J8" s="255"/>
+      <c r="I8" s="251"/>
+      <c r="J8" s="254"/>
       <c r="K8" s="128">
         <v>56.397498701176701</v>
       </c>
-      <c r="L8" s="258"/>
-      <c r="M8" s="255"/>
+      <c r="L8" s="257"/>
+      <c r="M8" s="254"/>
       <c r="N8" s="128">
         <v>17.661882170535574</v>
       </c>
-      <c r="O8" s="252"/>
-      <c r="P8" s="265"/>
+      <c r="O8" s="251"/>
+      <c r="P8" s="264"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="87">
@@ -12192,28 +14764,28 @@
       <c r="B9" s="126">
         <v>35.426084385151015</v>
       </c>
-      <c r="C9" s="258"/>
-      <c r="D9" s="255"/>
+      <c r="C9" s="257"/>
+      <c r="D9" s="254"/>
       <c r="E9" s="103">
         <v>6.5228387904163379</v>
       </c>
-      <c r="F9" s="252"/>
-      <c r="G9" s="255"/>
+      <c r="F9" s="251"/>
+      <c r="G9" s="254"/>
       <c r="H9" s="103">
         <v>10.288276478101775</v>
       </c>
-      <c r="I9" s="252"/>
-      <c r="J9" s="255"/>
+      <c r="I9" s="251"/>
+      <c r="J9" s="254"/>
       <c r="K9" s="128">
         <v>76.213159664643086</v>
       </c>
-      <c r="L9" s="258"/>
-      <c r="M9" s="255"/>
+      <c r="L9" s="257"/>
+      <c r="M9" s="254"/>
       <c r="N9" s="103">
         <v>13.526696144976201</v>
       </c>
-      <c r="O9" s="252"/>
-      <c r="P9" s="265"/>
+      <c r="O9" s="251"/>
+      <c r="P9" s="264"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="87">
@@ -12222,28 +14794,28 @@
       <c r="B10" s="126">
         <v>54.332086373112325</v>
       </c>
-      <c r="C10" s="258"/>
-      <c r="D10" s="255"/>
+      <c r="C10" s="257"/>
+      <c r="D10" s="254"/>
       <c r="E10" s="103">
         <v>9.6309229273197356</v>
       </c>
-      <c r="F10" s="252"/>
-      <c r="G10" s="255"/>
+      <c r="F10" s="251"/>
+      <c r="G10" s="254"/>
       <c r="H10" s="128">
         <v>14.96051100207255</v>
       </c>
-      <c r="I10" s="252"/>
-      <c r="J10" s="255"/>
+      <c r="I10" s="251"/>
+      <c r="J10" s="254"/>
       <c r="K10" s="128">
         <v>105.51446060687503</v>
       </c>
-      <c r="L10" s="258"/>
-      <c r="M10" s="255"/>
+      <c r="L10" s="257"/>
+      <c r="M10" s="254"/>
       <c r="N10" s="128">
         <v>17.738169422210554</v>
       </c>
-      <c r="O10" s="252"/>
-      <c r="P10" s="265"/>
+      <c r="O10" s="251"/>
+      <c r="P10" s="264"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="87">
@@ -12252,28 +14824,28 @@
       <c r="B11" s="126">
         <v>100.37724176365805</v>
       </c>
-      <c r="C11" s="258"/>
-      <c r="D11" s="255"/>
+      <c r="C11" s="257"/>
+      <c r="D11" s="254"/>
       <c r="E11" s="103">
         <v>12.159896986661952</v>
       </c>
-      <c r="F11" s="252"/>
-      <c r="G11" s="255"/>
+      <c r="F11" s="251"/>
+      <c r="G11" s="254"/>
       <c r="H11" s="103">
         <v>8.8365559224036119</v>
       </c>
-      <c r="I11" s="252"/>
-      <c r="J11" s="255"/>
+      <c r="I11" s="251"/>
+      <c r="J11" s="254"/>
       <c r="K11" s="128">
         <v>62.787052924838868</v>
       </c>
-      <c r="L11" s="258"/>
-      <c r="M11" s="255"/>
+      <c r="L11" s="257"/>
+      <c r="M11" s="254"/>
       <c r="N11" s="128">
         <v>18.171205928321395</v>
       </c>
-      <c r="O11" s="252"/>
-      <c r="P11" s="265"/>
+      <c r="O11" s="251"/>
+      <c r="P11" s="264"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="87">
@@ -12282,28 +14854,28 @@
       <c r="B12" s="126">
         <v>116.79678786133688</v>
       </c>
-      <c r="C12" s="258"/>
-      <c r="D12" s="255"/>
+      <c r="C12" s="257"/>
+      <c r="D12" s="254"/>
       <c r="E12" s="128">
         <v>15.365186828730106</v>
       </c>
-      <c r="F12" s="252"/>
-      <c r="G12" s="255"/>
+      <c r="F12" s="251"/>
+      <c r="G12" s="254"/>
       <c r="H12" s="103">
         <v>8.2457653775279294</v>
       </c>
-      <c r="I12" s="252"/>
-      <c r="J12" s="255"/>
+      <c r="I12" s="251"/>
+      <c r="J12" s="254"/>
       <c r="K12" s="128">
         <v>61.287412753200151</v>
       </c>
-      <c r="L12" s="258"/>
-      <c r="M12" s="255"/>
+      <c r="L12" s="257"/>
+      <c r="M12" s="254"/>
       <c r="N12" s="128">
         <v>20.42383588585367</v>
       </c>
-      <c r="O12" s="252"/>
-      <c r="P12" s="265"/>
+      <c r="O12" s="251"/>
+      <c r="P12" s="264"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="87">
@@ -12312,28 +14884,28 @@
       <c r="B13" s="126">
         <v>79.439134437386485</v>
       </c>
-      <c r="C13" s="258"/>
-      <c r="D13" s="255"/>
+      <c r="C13" s="257"/>
+      <c r="D13" s="254"/>
       <c r="E13" s="128">
         <v>18.876608443272278</v>
       </c>
-      <c r="F13" s="252"/>
-      <c r="G13" s="255"/>
+      <c r="F13" s="251"/>
+      <c r="G13" s="254"/>
       <c r="H13" s="103">
         <v>6.0127696040083451</v>
       </c>
-      <c r="I13" s="252"/>
-      <c r="J13" s="255"/>
+      <c r="I13" s="251"/>
+      <c r="J13" s="254"/>
       <c r="K13" s="128">
         <v>33.521333078293225</v>
       </c>
-      <c r="L13" s="258"/>
-      <c r="M13" s="255"/>
+      <c r="L13" s="257"/>
+      <c r="M13" s="254"/>
       <c r="N13" s="128">
         <v>20.130778478807645</v>
       </c>
-      <c r="O13" s="252"/>
-      <c r="P13" s="265"/>
+      <c r="O13" s="251"/>
+      <c r="P13" s="264"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="87">
@@ -12342,32 +14914,32 @@
       <c r="B14" s="127">
         <v>60.442516756167393</v>
       </c>
-      <c r="C14" s="259"/>
-      <c r="D14" s="256"/>
+      <c r="C14" s="258"/>
+      <c r="D14" s="255"/>
       <c r="E14" s="128">
         <v>20.327980051809416</v>
       </c>
-      <c r="F14" s="253"/>
-      <c r="G14" s="256"/>
+      <c r="F14" s="252"/>
+      <c r="G14" s="255"/>
       <c r="H14" s="103">
         <v>7.1633605575943573</v>
       </c>
-      <c r="I14" s="253"/>
-      <c r="J14" s="256"/>
+      <c r="I14" s="252"/>
+      <c r="J14" s="255"/>
       <c r="K14" s="128">
         <v>45.226628691318233</v>
       </c>
-      <c r="L14" s="259"/>
-      <c r="M14" s="256"/>
+      <c r="L14" s="258"/>
+      <c r="M14" s="255"/>
       <c r="N14" s="128">
         <v>22.642014848563427</v>
       </c>
-      <c r="O14" s="253"/>
-      <c r="P14" s="266"/>
+      <c r="O14" s="252"/>
+      <c r="P14" s="265"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="219" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B15" s="220"/>
       <c r="C15" s="220"/>
@@ -12387,47 +14959,47 @@
     </row>
     <row r="16" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="105" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="262" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="262"/>
-      <c r="D16" s="262"/>
-      <c r="E16" s="262"/>
-      <c r="F16" s="262"/>
-      <c r="G16" s="262"/>
-      <c r="H16" s="262"/>
-      <c r="I16" s="262"/>
-      <c r="J16" s="262"/>
-      <c r="K16" s="262"/>
-      <c r="L16" s="262"/>
-      <c r="M16" s="262"/>
-      <c r="N16" s="262"/>
-      <c r="O16" s="262"/>
-      <c r="P16" s="263"/>
+        <v>56</v>
+      </c>
+      <c r="B16" s="261" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="261"/>
+      <c r="D16" s="261"/>
+      <c r="E16" s="261"/>
+      <c r="F16" s="261"/>
+      <c r="G16" s="261"/>
+      <c r="H16" s="261"/>
+      <c r="I16" s="261"/>
+      <c r="J16" s="261"/>
+      <c r="K16" s="261"/>
+      <c r="L16" s="261"/>
+      <c r="M16" s="261"/>
+      <c r="N16" s="261"/>
+      <c r="O16" s="261"/>
+      <c r="P16" s="262"/>
     </row>
     <row r="17" spans="1:16" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="106" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="260" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="260"/>
-      <c r="D17" s="260"/>
-      <c r="E17" s="260"/>
-      <c r="F17" s="260"/>
-      <c r="G17" s="260"/>
-      <c r="H17" s="260"/>
-      <c r="I17" s="260"/>
-      <c r="J17" s="260"/>
-      <c r="K17" s="260"/>
-      <c r="L17" s="260"/>
-      <c r="M17" s="260"/>
-      <c r="N17" s="260"/>
-      <c r="O17" s="260"/>
-      <c r="P17" s="261"/>
+        <v>57</v>
+      </c>
+      <c r="B17" s="259" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="259"/>
+      <c r="D17" s="259"/>
+      <c r="E17" s="259"/>
+      <c r="F17" s="259"/>
+      <c r="G17" s="259"/>
+      <c r="H17" s="259"/>
+      <c r="I17" s="259"/>
+      <c r="J17" s="259"/>
+      <c r="K17" s="259"/>
+      <c r="L17" s="259"/>
+      <c r="M17" s="259"/>
+      <c r="N17" s="259"/>
+      <c r="O17" s="259"/>
+      <c r="P17" s="260"/>
     </row>
     <row r="18" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12437,6 +15009,12 @@
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="B4:D4"/>
     <mergeCell ref="F6:F14"/>
     <mergeCell ref="D6:D14"/>
     <mergeCell ref="C6:C14"/>
@@ -12451,2304 +15029,7 @@
     <mergeCell ref="J6:J14"/>
     <mergeCell ref="I6:I14"/>
     <mergeCell ref="G6:G14"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L76"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.109375" style="42"/>
-    <col min="2" max="2" width="16.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="48"/>
-    <col min="7" max="7" width="16.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="267" t="s">
-        <v>156</v>
-      </c>
-      <c r="B1" s="267"/>
-      <c r="C1" s="267"/>
-      <c r="D1" s="267"/>
-      <c r="E1" s="267"/>
-      <c r="F1" s="267"/>
-      <c r="G1" s="267"/>
-      <c r="H1" s="267"/>
-      <c r="I1" s="267"/>
-      <c r="J1" s="267"/>
-      <c r="K1" s="267"/>
-      <c r="L1" s="267"/>
-    </row>
-    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="267" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="267"/>
-      <c r="C2" s="267"/>
-      <c r="D2" s="267"/>
-      <c r="E2" s="267"/>
-      <c r="F2" s="267"/>
-      <c r="G2" s="267"/>
-      <c r="H2" s="267"/>
-      <c r="I2" s="267"/>
-      <c r="J2" s="267"/>
-      <c r="K2" s="267"/>
-      <c r="L2" s="267"/>
-    </row>
-    <row r="3" spans="1:12" s="98" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="268" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" s="268"/>
-      <c r="C3" s="268"/>
-      <c r="D3" s="268"/>
-      <c r="E3" s="268"/>
-      <c r="F3" s="268"/>
-      <c r="G3" s="268"/>
-      <c r="H3" s="268"/>
-      <c r="I3" s="268"/>
-      <c r="J3" s="268"/>
-      <c r="K3" s="268"/>
-      <c r="L3" s="269"/>
-    </row>
-    <row r="4" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="43"/>
-      <c r="B4" s="286" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="287"/>
-      <c r="D4" s="287"/>
-      <c r="E4" s="66"/>
-      <c r="G4" s="286" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="287"/>
-      <c r="I4" s="287"/>
-      <c r="J4" s="287"/>
-      <c r="K4" s="66"/>
-    </row>
-    <row r="5" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="279" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="280"/>
-      <c r="D5" s="281"/>
-      <c r="G5" s="279" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" s="280"/>
-      <c r="I5" s="282"/>
-      <c r="J5" s="281"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="49"/>
-      <c r="C6" s="283"/>
-      <c r="D6" s="284"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="283"/>
-      <c r="I6" s="285"/>
-      <c r="J6" s="284"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="50"/>
-      <c r="C7" s="273"/>
-      <c r="D7" s="274"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="273"/>
-      <c r="I7" s="275"/>
-      <c r="J7" s="274"/>
-    </row>
-    <row r="8" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="51"/>
-      <c r="C8" s="276"/>
-      <c r="D8" s="277"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="276"/>
-      <c r="I8" s="278"/>
-      <c r="J8" s="277"/>
-    </row>
-    <row r="9" spans="1:12" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="270" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="271"/>
-      <c r="E9" s="68"/>
-      <c r="G9" s="270" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="271"/>
-      <c r="I9" s="1">
-        <v>400</v>
-      </c>
-      <c r="J9" s="1">
-        <v>31</v>
-      </c>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-    </row>
-    <row r="10" spans="1:12" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="I10" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="J10" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="K10" s="69" t="s">
-        <v>80</v>
-      </c>
-      <c r="L10" s="69" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="272" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="45">
-        <v>43977</v>
-      </c>
-      <c r="C11" s="40">
-        <v>2</v>
-      </c>
-      <c r="D11" s="92">
-        <f>IF(C11&gt;130,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="67">
-        <f>(SUM(D11:D23)/COUNT(D11:D23))*100</f>
-        <v>7.6923076923076925</v>
-      </c>
-      <c r="F11" s="272" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="45">
-        <v>43977</v>
-      </c>
-      <c r="H11" s="40">
-        <v>4</v>
-      </c>
-      <c r="I11" s="92">
-        <f>IF(H11&gt;400,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="92">
-        <f>IF(H11&gt;31,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="93">
-        <f>(SUM(I11:I23)/COUNT(I11:I23))*100</f>
-        <v>7.6923076923076925</v>
-      </c>
-      <c r="L11" s="57">
-        <f>(SUM(J11:J23)/COUNT(J11:J23))*100</f>
-        <v>53.846153846153847</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="272"/>
-      <c r="B12" s="32">
-        <v>43986</v>
-      </c>
-      <c r="C12" s="1">
-        <v>50</v>
-      </c>
-      <c r="D12" s="58">
-        <f>IF(C12&gt;130,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="59"/>
-      <c r="F12" s="272"/>
-      <c r="G12" s="32">
-        <v>43986</v>
-      </c>
-      <c r="H12" s="1">
-        <v>69</v>
-      </c>
-      <c r="I12" s="80">
-        <f>IF(H12&gt;400,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="80">
-        <f>IF(H12&gt;31,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="K12" s="94"/>
-      <c r="L12" s="59"/>
-    </row>
-    <row r="13" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="272"/>
-      <c r="B13" s="32">
-        <v>43991</v>
-      </c>
-      <c r="C13" s="1">
-        <v>6</v>
-      </c>
-      <c r="D13" s="110">
-        <f t="shared" ref="D13:D22" si="0">IF(C13&gt;130,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="272"/>
-      <c r="G13" s="32">
-        <v>43991</v>
-      </c>
-      <c r="H13" s="1">
-        <v>7.7</v>
-      </c>
-      <c r="I13" s="80">
-        <f t="shared" ref="I13:I72" si="1">IF(H13&gt;400,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="80">
-        <f t="shared" ref="J13:J22" si="2">IF(H13&gt;31,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="94"/>
-      <c r="L13" s="59"/>
-    </row>
-    <row r="14" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="272"/>
-      <c r="B14" s="32">
-        <v>44000</v>
-      </c>
-      <c r="C14" s="1">
-        <v>38</v>
-      </c>
-      <c r="D14" s="110">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="59"/>
-      <c r="F14" s="272"/>
-      <c r="G14" s="32">
-        <v>44000</v>
-      </c>
-      <c r="H14" s="1">
-        <v>46</v>
-      </c>
-      <c r="I14" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="80">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K14" s="94"/>
-      <c r="L14" s="59"/>
-    </row>
-    <row r="15" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="272"/>
-      <c r="B15" s="32">
-        <v>44005</v>
-      </c>
-      <c r="C15" s="1">
-        <v>25</v>
-      </c>
-      <c r="D15" s="110">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="272"/>
-      <c r="G15" s="32">
-        <v>44005</v>
-      </c>
-      <c r="H15" s="1">
-        <v>49</v>
-      </c>
-      <c r="I15" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="80">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K15" s="94"/>
-      <c r="L15" s="59"/>
-    </row>
-    <row r="16" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="272"/>
-      <c r="B16" s="32">
-        <v>44011</v>
-      </c>
-      <c r="C16" s="1">
-        <v>38</v>
-      </c>
-      <c r="D16" s="110">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="59"/>
-      <c r="F16" s="272"/>
-      <c r="G16" s="32">
-        <v>44011</v>
-      </c>
-      <c r="H16" s="1">
-        <v>5.7</v>
-      </c>
-      <c r="I16" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="80">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="94"/>
-      <c r="L16" s="59"/>
-    </row>
-    <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="272"/>
-      <c r="B17" s="32">
-        <v>44019</v>
-      </c>
-      <c r="C17" s="1">
-        <v>16</v>
-      </c>
-      <c r="D17" s="110">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="272"/>
-      <c r="G17" s="32">
-        <v>44019</v>
-      </c>
-      <c r="H17" s="1">
-        <v>13</v>
-      </c>
-      <c r="I17" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="80">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="94"/>
-      <c r="L17" s="59"/>
-    </row>
-    <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="272"/>
-      <c r="B18" s="32">
-        <v>44025</v>
-      </c>
-      <c r="C18" s="1">
-        <v>178</v>
-      </c>
-      <c r="D18" s="110">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E18" s="59"/>
-      <c r="F18" s="272"/>
-      <c r="G18" s="32">
-        <v>44025</v>
-      </c>
-      <c r="H18" s="1">
-        <v>600</v>
-      </c>
-      <c r="I18" s="80">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J18" s="80">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K18" s="94"/>
-      <c r="L18" s="59"/>
-    </row>
-    <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="272"/>
-      <c r="B19" s="32">
-        <v>44032</v>
-      </c>
-      <c r="C19" s="1">
-        <v>108</v>
-      </c>
-      <c r="D19" s="110">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="59"/>
-      <c r="F19" s="272"/>
-      <c r="G19" s="32">
-        <v>44032</v>
-      </c>
-      <c r="H19" s="1">
-        <v>196</v>
-      </c>
-      <c r="I19" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="80">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K19" s="94"/>
-      <c r="L19" s="59"/>
-    </row>
-    <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="272"/>
-      <c r="B20" s="32">
-        <v>44039</v>
-      </c>
-      <c r="C20" s="1">
-        <v>4</v>
-      </c>
-      <c r="D20" s="110">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="59"/>
-      <c r="F20" s="272"/>
-      <c r="G20" s="32">
-        <v>44039</v>
-      </c>
-      <c r="H20" s="1">
-        <v>8.6</v>
-      </c>
-      <c r="I20" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="80">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="94"/>
-      <c r="L20" s="59"/>
-    </row>
-    <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="272"/>
-      <c r="B21" s="32">
-        <v>44048</v>
-      </c>
-      <c r="C21" s="1">
-        <v>121</v>
-      </c>
-      <c r="D21" s="110">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="59"/>
-      <c r="F21" s="272"/>
-      <c r="G21" s="32">
-        <v>44048</v>
-      </c>
-      <c r="H21" s="1">
-        <v>184</v>
-      </c>
-      <c r="I21" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="80">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K21" s="94"/>
-      <c r="L21" s="59"/>
-    </row>
-    <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="272"/>
-      <c r="B22" s="32">
-        <v>44054</v>
-      </c>
-      <c r="C22" s="1">
-        <v>9</v>
-      </c>
-      <c r="D22" s="110">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="59"/>
-      <c r="F22" s="272"/>
-      <c r="G22" s="32">
-        <v>44054</v>
-      </c>
-      <c r="H22" s="1">
-        <v>17</v>
-      </c>
-      <c r="I22" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="80">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="94"/>
-      <c r="L22" s="59"/>
-    </row>
-    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="272"/>
-      <c r="B23" s="44">
-        <v>44061</v>
-      </c>
-      <c r="C23" s="41">
-        <v>96</v>
-      </c>
-      <c r="D23" s="60">
-        <v>0</v>
-      </c>
-      <c r="E23" s="61"/>
-      <c r="F23" s="272"/>
-      <c r="G23" s="44">
-        <v>44061</v>
-      </c>
-      <c r="H23" s="41">
-        <v>153</v>
-      </c>
-      <c r="I23" s="96">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="96">
-        <f t="shared" ref="J23:J75" si="3">IF(H23&gt;31,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="K23" s="95"/>
-      <c r="L23" s="61"/>
-    </row>
-    <row r="24" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="272" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="45">
-        <v>43977</v>
-      </c>
-      <c r="C24" s="40">
-        <v>2</v>
-      </c>
-      <c r="D24" s="56">
-        <f>IF(C24&gt;130,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="57">
-        <f>(SUM(D24:D36)/COUNT(D24:D36))*100</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="272" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="45">
-        <v>43977</v>
-      </c>
-      <c r="H24" s="40">
-        <v>0</v>
-      </c>
-      <c r="I24" s="92">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="92">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="93">
-        <f>(SUM(I24:I36)/COUNT(I24:I36))*100</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="57">
-        <f>(SUM(J24:J36)/COUNT(J24:J36))*100</f>
-        <v>30.76923076923077</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="272"/>
-      <c r="B25" s="32">
-        <v>43986</v>
-      </c>
-      <c r="C25" s="1">
-        <v>27</v>
-      </c>
-      <c r="D25" s="58">
-        <f>IF(C25&gt;130,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="59"/>
-      <c r="F25" s="272"/>
-      <c r="G25" s="32">
-        <v>43986</v>
-      </c>
-      <c r="H25" s="1">
-        <v>36</v>
-      </c>
-      <c r="I25" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="80">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K25" s="94"/>
-      <c r="L25" s="59"/>
-    </row>
-    <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="272"/>
-      <c r="B26" s="32">
-        <v>43991</v>
-      </c>
-      <c r="C26" s="1">
-        <v>8</v>
-      </c>
-      <c r="D26" s="58">
-        <f t="shared" ref="D26:D35" si="4">IF(C26&gt;130,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="59"/>
-      <c r="F26" s="272"/>
-      <c r="G26" s="32">
-        <v>43991</v>
-      </c>
-      <c r="H26" s="1">
-        <v>7.7</v>
-      </c>
-      <c r="I26" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="80">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="94"/>
-      <c r="L26" s="59"/>
-    </row>
-    <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="272"/>
-      <c r="B27" s="32">
-        <v>44000</v>
-      </c>
-      <c r="C27" s="1">
-        <v>13</v>
-      </c>
-      <c r="D27" s="58">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="59"/>
-      <c r="F27" s="272"/>
-      <c r="G27" s="32">
-        <v>44000</v>
-      </c>
-      <c r="H27" s="1">
-        <v>54</v>
-      </c>
-      <c r="I27" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="80">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K27" s="94"/>
-      <c r="L27" s="59"/>
-    </row>
-    <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="272"/>
-      <c r="B28" s="32">
-        <v>44005</v>
-      </c>
-      <c r="C28" s="1">
-        <v>18</v>
-      </c>
-      <c r="D28" s="58">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="272"/>
-      <c r="G28" s="32">
-        <v>44005</v>
-      </c>
-      <c r="H28" s="1">
-        <v>14</v>
-      </c>
-      <c r="I28" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="80">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="94"/>
-      <c r="L28" s="59"/>
-    </row>
-    <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="272"/>
-      <c r="B29" s="32">
-        <v>44011</v>
-      </c>
-      <c r="C29" s="1">
-        <v>2</v>
-      </c>
-      <c r="D29" s="58">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="59"/>
-      <c r="F29" s="272"/>
-      <c r="G29" s="32">
-        <v>44011</v>
-      </c>
-      <c r="H29" s="1">
-        <v>2.9</v>
-      </c>
-      <c r="I29" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="80">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="94"/>
-      <c r="L29" s="59"/>
-    </row>
-    <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="272"/>
-      <c r="B30" s="32">
-        <v>44019</v>
-      </c>
-      <c r="C30" s="1">
-        <v>4</v>
-      </c>
-      <c r="D30" s="58">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="59"/>
-      <c r="F30" s="272"/>
-      <c r="G30" s="32">
-        <v>44019</v>
-      </c>
-      <c r="H30" s="1">
-        <v>3.3</v>
-      </c>
-      <c r="I30" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="80">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="94"/>
-      <c r="L30" s="59"/>
-    </row>
-    <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="272"/>
-      <c r="B31" s="32">
-        <v>44025</v>
-      </c>
-      <c r="C31" s="1">
-        <v>5</v>
-      </c>
-      <c r="D31" s="58">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="59"/>
-      <c r="F31" s="272"/>
-      <c r="G31" s="32">
-        <v>44025</v>
-      </c>
-      <c r="H31" s="1">
-        <v>29</v>
-      </c>
-      <c r="I31" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="80">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="94"/>
-      <c r="L31" s="59"/>
-    </row>
-    <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="272"/>
-      <c r="B32" s="32">
-        <v>44032</v>
-      </c>
-      <c r="C32" s="1">
-        <v>6</v>
-      </c>
-      <c r="D32" s="58">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E32" s="59"/>
-      <c r="F32" s="272"/>
-      <c r="G32" s="32">
-        <v>44032</v>
-      </c>
-      <c r="H32" s="1">
-        <v>31</v>
-      </c>
-      <c r="I32" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="80">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="94"/>
-      <c r="L32" s="59"/>
-    </row>
-    <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="272"/>
-      <c r="B33" s="32">
-        <v>44039</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="58">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="59"/>
-      <c r="F33" s="272"/>
-      <c r="G33" s="32">
-        <v>44039</v>
-      </c>
-      <c r="H33" s="1">
-        <v>2</v>
-      </c>
-      <c r="I33" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="80">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="94"/>
-      <c r="L33" s="59"/>
-    </row>
-    <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="272"/>
-      <c r="B34" s="32">
-        <v>44048</v>
-      </c>
-      <c r="C34" s="1">
-        <v>38</v>
-      </c>
-      <c r="D34" s="58">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="59"/>
-      <c r="F34" s="272"/>
-      <c r="G34" s="32">
-        <v>44048</v>
-      </c>
-      <c r="H34" s="1">
-        <v>31</v>
-      </c>
-      <c r="I34" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="80">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="94"/>
-      <c r="L34" s="59"/>
-    </row>
-    <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="272"/>
-      <c r="B35" s="32">
-        <v>44054</v>
-      </c>
-      <c r="C35" s="1">
-        <v>8</v>
-      </c>
-      <c r="D35" s="58">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="59"/>
-      <c r="F35" s="272"/>
-      <c r="G35" s="32">
-        <v>44054</v>
-      </c>
-      <c r="H35" s="1">
-        <v>43</v>
-      </c>
-      <c r="I35" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="80">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K35" s="94"/>
-      <c r="L35" s="59"/>
-    </row>
-    <row r="36" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="272"/>
-      <c r="B36" s="44">
-        <v>44061</v>
-      </c>
-      <c r="C36" s="41">
-        <v>23</v>
-      </c>
-      <c r="D36" s="60">
-        <v>0</v>
-      </c>
-      <c r="E36" s="61"/>
-      <c r="F36" s="272"/>
-      <c r="G36" s="44">
-        <v>44061</v>
-      </c>
-      <c r="H36" s="41">
-        <v>42</v>
-      </c>
-      <c r="I36" s="96">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="96">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K36" s="95"/>
-      <c r="L36" s="61"/>
-    </row>
-    <row r="37" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="272" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="45">
-        <v>43977</v>
-      </c>
-      <c r="C37" s="40">
-        <v>1</v>
-      </c>
-      <c r="D37" s="56">
-        <f>IF(C37&gt;130,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E37" s="57">
-        <f>(SUM(D37:D49)/COUNT(D37:D49))*100</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="272" t="s">
-        <v>1</v>
-      </c>
-      <c r="G37" s="45">
-        <v>43977</v>
-      </c>
-      <c r="H37" s="40">
-        <v>3</v>
-      </c>
-      <c r="I37" s="92">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="92">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="93">
-        <f>(SUM(I37:I49)/COUNT(I37:I49))*100</f>
-        <v>0</v>
-      </c>
-      <c r="L37" s="57">
-        <f>(SUM(J37:J49)/COUNT(J37:J49))*100</f>
-        <v>30.76923076923077</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="272"/>
-      <c r="B38" s="32">
-        <v>43986</v>
-      </c>
-      <c r="C38" s="1">
-        <v>6</v>
-      </c>
-      <c r="D38" s="58">
-        <f>IF(C38&gt;130,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E38" s="59"/>
-      <c r="F38" s="272"/>
-      <c r="G38" s="32">
-        <v>43986</v>
-      </c>
-      <c r="H38" s="1">
-        <v>38</v>
-      </c>
-      <c r="I38" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="80">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K38" s="94"/>
-      <c r="L38" s="59"/>
-    </row>
-    <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="272"/>
-      <c r="B39" s="32">
-        <v>43991</v>
-      </c>
-      <c r="C39" s="1">
-        <v>2</v>
-      </c>
-      <c r="D39" s="58">
-        <f t="shared" ref="D39:D48" si="5">IF(C39&gt;130,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="59"/>
-      <c r="F39" s="272"/>
-      <c r="G39" s="32">
-        <v>43991</v>
-      </c>
-      <c r="H39" s="1">
-        <v>32</v>
-      </c>
-      <c r="I39" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="80">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K39" s="94"/>
-      <c r="L39" s="59"/>
-    </row>
-    <row r="40" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="272"/>
-      <c r="B40" s="32">
-        <v>44000</v>
-      </c>
-      <c r="C40" s="1">
-        <v>1</v>
-      </c>
-      <c r="D40" s="58">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E40" s="59"/>
-      <c r="F40" s="272"/>
-      <c r="G40" s="32">
-        <v>44000</v>
-      </c>
-      <c r="H40" s="1">
-        <v>15</v>
-      </c>
-      <c r="I40" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="80">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="94"/>
-      <c r="L40" s="59"/>
-    </row>
-    <row r="41" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="272"/>
-      <c r="B41" s="32">
-        <v>44005</v>
-      </c>
-      <c r="C41" s="1">
-        <v>2</v>
-      </c>
-      <c r="D41" s="58">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E41" s="59"/>
-      <c r="F41" s="272"/>
-      <c r="G41" s="32">
-        <v>44005</v>
-      </c>
-      <c r="H41" s="1">
-        <v>17</v>
-      </c>
-      <c r="I41" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="80">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="94"/>
-      <c r="L41" s="59"/>
-    </row>
-    <row r="42" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="272"/>
-      <c r="B42" s="32">
-        <v>44011</v>
-      </c>
-      <c r="C42" s="1">
-        <v>1</v>
-      </c>
-      <c r="D42" s="58">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E42" s="59"/>
-      <c r="F42" s="272"/>
-      <c r="G42" s="32">
-        <v>44011</v>
-      </c>
-      <c r="H42" s="1">
-        <v>3.3</v>
-      </c>
-      <c r="I42" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="80">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="94"/>
-      <c r="L42" s="59"/>
-    </row>
-    <row r="43" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A43" s="272"/>
-      <c r="B43" s="32">
-        <v>44019</v>
-      </c>
-      <c r="C43" s="1">
-        <v>3</v>
-      </c>
-      <c r="D43" s="58">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E43" s="59"/>
-      <c r="F43" s="272"/>
-      <c r="G43" s="32">
-        <v>44019</v>
-      </c>
-      <c r="H43" s="1">
-        <v>22</v>
-      </c>
-      <c r="I43" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="80">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="94"/>
-      <c r="L43" s="59"/>
-    </row>
-    <row r="44" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A44" s="272"/>
-      <c r="B44" s="32">
-        <v>44025</v>
-      </c>
-      <c r="C44" s="1">
-        <v>2</v>
-      </c>
-      <c r="D44" s="58">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E44" s="59"/>
-      <c r="F44" s="272"/>
-      <c r="G44" s="32">
-        <v>44025</v>
-      </c>
-      <c r="H44" s="1">
-        <v>15</v>
-      </c>
-      <c r="I44" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="80">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="94"/>
-      <c r="L44" s="59"/>
-    </row>
-    <row r="45" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="272"/>
-      <c r="B45" s="32">
-        <v>44032</v>
-      </c>
-      <c r="C45" s="1">
-        <v>1</v>
-      </c>
-      <c r="D45" s="58">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E45" s="59"/>
-      <c r="F45" s="272"/>
-      <c r="G45" s="32">
-        <v>44032</v>
-      </c>
-      <c r="H45" s="1">
-        <v>46</v>
-      </c>
-      <c r="I45" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="80">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K45" s="94"/>
-      <c r="L45" s="59"/>
-    </row>
-    <row r="46" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="272"/>
-      <c r="B46" s="32">
-        <v>44039</v>
-      </c>
-      <c r="C46" s="1">
-        <v>0</v>
-      </c>
-      <c r="D46" s="58">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E46" s="59"/>
-      <c r="F46" s="272"/>
-      <c r="G46" s="32">
-        <v>44039</v>
-      </c>
-      <c r="H46" s="1">
-        <v>1</v>
-      </c>
-      <c r="I46" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J46" s="80">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="94"/>
-      <c r="L46" s="59"/>
-    </row>
-    <row r="47" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="272"/>
-      <c r="B47" s="32">
-        <v>44048</v>
-      </c>
-      <c r="C47" s="1">
-        <v>2</v>
-      </c>
-      <c r="D47" s="58">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E47" s="59"/>
-      <c r="F47" s="272"/>
-      <c r="G47" s="32">
-        <v>44048</v>
-      </c>
-      <c r="H47" s="1">
-        <v>6.7</v>
-      </c>
-      <c r="I47" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="80">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K47" s="94"/>
-      <c r="L47" s="59"/>
-    </row>
-    <row r="48" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="272"/>
-      <c r="B48" s="32">
-        <v>44054</v>
-      </c>
-      <c r="C48" s="1">
-        <v>0</v>
-      </c>
-      <c r="D48" s="58">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E48" s="59"/>
-      <c r="F48" s="272"/>
-      <c r="G48" s="32">
-        <v>44054</v>
-      </c>
-      <c r="H48" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="I48" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="80">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K48" s="94"/>
-      <c r="L48" s="59"/>
-    </row>
-    <row r="49" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="272"/>
-      <c r="B49" s="44">
-        <v>44061</v>
-      </c>
-      <c r="C49" s="41">
-        <v>8</v>
-      </c>
-      <c r="D49" s="60">
-        <v>0</v>
-      </c>
-      <c r="E49" s="61"/>
-      <c r="F49" s="272"/>
-      <c r="G49" s="44">
-        <v>44061</v>
-      </c>
-      <c r="H49" s="41">
-        <v>36</v>
-      </c>
-      <c r="I49" s="96">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J49" s="96">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K49" s="95"/>
-      <c r="L49" s="61"/>
-    </row>
-    <row r="50" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="272" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" s="45">
-        <v>43977</v>
-      </c>
-      <c r="C50" s="40">
-        <v>0</v>
-      </c>
-      <c r="D50" s="56">
-        <f>IF(C50&gt;130,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E50" s="57">
-        <f>(SUM(D50:D62)/COUNT(D50:D62))*100</f>
-        <v>0</v>
-      </c>
-      <c r="F50" s="272" t="s">
-        <v>2</v>
-      </c>
-      <c r="G50" s="45">
-        <v>43977</v>
-      </c>
-      <c r="H50" s="115">
-        <v>1</v>
-      </c>
-      <c r="I50" s="92">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J50" s="92">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K50" s="93">
-        <f>(SUM(I50:I62)/COUNT(I50:I62))*100</f>
-        <v>0</v>
-      </c>
-      <c r="L50" s="57">
-        <f>(SUM(J50:J62)/COUNT(J50:J62))*100</f>
-        <v>61.53846153846154</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="272"/>
-      <c r="B51" s="32">
-        <v>43986</v>
-      </c>
-      <c r="C51" s="1">
-        <v>10</v>
-      </c>
-      <c r="D51" s="58">
-        <f>IF(C51&gt;130,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E51" s="59"/>
-      <c r="F51" s="272"/>
-      <c r="G51" s="32">
-        <v>43986</v>
-      </c>
-      <c r="H51" s="118">
-        <v>12</v>
-      </c>
-      <c r="I51" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J51" s="80">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K51" s="94"/>
-      <c r="L51" s="59"/>
-    </row>
-    <row r="52" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="272"/>
-      <c r="B52" s="32">
-        <v>43991</v>
-      </c>
-      <c r="C52" s="1">
-        <v>3</v>
-      </c>
-      <c r="D52" s="58">
-        <f t="shared" ref="D52:D61" si="6">IF(C52&gt;130,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E52" s="59"/>
-      <c r="F52" s="272"/>
-      <c r="G52" s="32">
-        <v>43991</v>
-      </c>
-      <c r="H52" s="118">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="I52" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J52" s="80">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K52" s="94"/>
-      <c r="L52" s="59"/>
-    </row>
-    <row r="53" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A53" s="272"/>
-      <c r="B53" s="32">
-        <v>44000</v>
-      </c>
-      <c r="C53" s="1">
-        <v>4</v>
-      </c>
-      <c r="D53" s="58">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E53" s="59"/>
-      <c r="F53" s="272"/>
-      <c r="G53" s="32">
-        <v>44000</v>
-      </c>
-      <c r="H53" s="118">
-        <v>38</v>
-      </c>
-      <c r="I53" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J53" s="80">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K53" s="94"/>
-      <c r="L53" s="59"/>
-    </row>
-    <row r="54" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="272"/>
-      <c r="B54" s="32">
-        <v>44005</v>
-      </c>
-      <c r="C54" s="1">
-        <v>13</v>
-      </c>
-      <c r="D54" s="58">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E54" s="59"/>
-      <c r="F54" s="272"/>
-      <c r="G54" s="32">
-        <v>44005</v>
-      </c>
-      <c r="H54" s="118">
-        <v>62</v>
-      </c>
-      <c r="I54" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J54" s="80">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K54" s="94"/>
-      <c r="L54" s="59"/>
-    </row>
-    <row r="55" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="272"/>
-      <c r="B55" s="32">
-        <v>44011</v>
-      </c>
-      <c r="C55" s="1">
-        <v>16</v>
-      </c>
-      <c r="D55" s="58">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E55" s="59"/>
-      <c r="F55" s="272"/>
-      <c r="G55" s="32">
-        <v>44011</v>
-      </c>
-      <c r="H55" s="118">
-        <v>310</v>
-      </c>
-      <c r="I55" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J55" s="80">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K55" s="94"/>
-      <c r="L55" s="59"/>
-    </row>
-    <row r="56" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A56" s="272"/>
-      <c r="B56" s="32">
-        <v>44019</v>
-      </c>
-      <c r="C56" s="1">
-        <v>18</v>
-      </c>
-      <c r="D56" s="58">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E56" s="59"/>
-      <c r="F56" s="272"/>
-      <c r="G56" s="32">
-        <v>44019</v>
-      </c>
-      <c r="H56" s="118">
-        <v>84</v>
-      </c>
-      <c r="I56" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J56" s="80">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K56" s="94"/>
-      <c r="L56" s="59"/>
-    </row>
-    <row r="57" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A57" s="272"/>
-      <c r="B57" s="32">
-        <v>44025</v>
-      </c>
-      <c r="C57" s="1">
-        <v>1</v>
-      </c>
-      <c r="D57" s="58">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E57" s="59"/>
-      <c r="F57" s="272"/>
-      <c r="G57" s="32">
-        <v>44025</v>
-      </c>
-      <c r="H57" s="118">
-        <v>17</v>
-      </c>
-      <c r="I57" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J57" s="80">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K57" s="94"/>
-      <c r="L57" s="59"/>
-    </row>
-    <row r="58" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="272"/>
-      <c r="B58" s="32">
-        <v>44032</v>
-      </c>
-      <c r="C58" s="1">
-        <v>32</v>
-      </c>
-      <c r="D58" s="58">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E58" s="59"/>
-      <c r="F58" s="272"/>
-      <c r="G58" s="32">
-        <v>44032</v>
-      </c>
-      <c r="H58" s="118">
-        <v>280</v>
-      </c>
-      <c r="I58" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J58" s="80">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K58" s="94"/>
-      <c r="L58" s="59"/>
-    </row>
-    <row r="59" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A59" s="272"/>
-      <c r="B59" s="32">
-        <v>44039</v>
-      </c>
-      <c r="C59" s="1">
-        <v>6</v>
-      </c>
-      <c r="D59" s="58">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E59" s="59"/>
-      <c r="F59" s="272"/>
-      <c r="G59" s="32">
-        <v>44039</v>
-      </c>
-      <c r="H59" s="118">
-        <v>52</v>
-      </c>
-      <c r="I59" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J59" s="80">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K59" s="94"/>
-      <c r="L59" s="59"/>
-    </row>
-    <row r="60" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A60" s="272"/>
-      <c r="B60" s="32">
-        <v>44048</v>
-      </c>
-      <c r="C60" s="1">
-        <v>11</v>
-      </c>
-      <c r="D60" s="58">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E60" s="59"/>
-      <c r="F60" s="272"/>
-      <c r="G60" s="32">
-        <v>44048</v>
-      </c>
-      <c r="H60" s="118">
-        <v>57</v>
-      </c>
-      <c r="I60" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J60" s="80">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K60" s="94"/>
-      <c r="L60" s="59"/>
-    </row>
-    <row r="61" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A61" s="272"/>
-      <c r="B61" s="32">
-        <v>44054</v>
-      </c>
-      <c r="C61" s="1">
-        <v>0</v>
-      </c>
-      <c r="D61" s="58">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E61" s="59"/>
-      <c r="F61" s="272"/>
-      <c r="G61" s="32">
-        <v>44054</v>
-      </c>
-      <c r="H61" s="118">
-        <v>3</v>
-      </c>
-      <c r="I61" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J61" s="80">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K61" s="94"/>
-      <c r="L61" s="59"/>
-    </row>
-    <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="272"/>
-      <c r="B62" s="44">
-        <v>44061</v>
-      </c>
-      <c r="C62" s="41">
-        <v>37</v>
-      </c>
-      <c r="D62" s="60">
-        <v>0</v>
-      </c>
-      <c r="E62" s="61"/>
-      <c r="F62" s="272"/>
-      <c r="G62" s="44">
-        <v>44061</v>
-      </c>
-      <c r="H62" s="118">
-        <v>76</v>
-      </c>
-      <c r="I62" s="96">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J62" s="96">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K62" s="95"/>
-      <c r="L62" s="61"/>
-    </row>
-    <row r="63" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="272" t="s">
-        <v>3</v>
-      </c>
-      <c r="B63" s="45">
-        <v>43977</v>
-      </c>
-      <c r="C63" s="40">
-        <v>0</v>
-      </c>
-      <c r="D63" s="56">
-        <f>IF(C63&gt;130,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E63" s="57">
-        <f>(SUM(D63:D75)/COUNT(D63:D75))*100</f>
-        <v>0</v>
-      </c>
-      <c r="F63" s="272" t="s">
-        <v>3</v>
-      </c>
-      <c r="G63" s="45">
-        <v>43977</v>
-      </c>
-      <c r="H63" s="40">
-        <v>1</v>
-      </c>
-      <c r="I63" s="92">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J63" s="92">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K63" s="93">
-        <f>(SUM(I63:I75)/COUNT(I63:I75))*100</f>
-        <v>0</v>
-      </c>
-      <c r="L63" s="57">
-        <f>(SUM(J63:J75)/COUNT(J63:J75))*100</f>
-        <v>15.384615384615385</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A64" s="272"/>
-      <c r="B64" s="32">
-        <v>43986</v>
-      </c>
-      <c r="C64" s="1">
-        <v>4</v>
-      </c>
-      <c r="D64" s="58">
-        <f>IF(C64&gt;130,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E64" s="59"/>
-      <c r="F64" s="272"/>
-      <c r="G64" s="32">
-        <v>43986</v>
-      </c>
-      <c r="H64" s="1">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="I64" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J64" s="80">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K64" s="94"/>
-      <c r="L64" s="59"/>
-    </row>
-    <row r="65" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A65" s="272"/>
-      <c r="B65" s="32">
-        <v>43991</v>
-      </c>
-      <c r="C65" s="1">
-        <v>0</v>
-      </c>
-      <c r="D65" s="58">
-        <f t="shared" ref="D65:D74" si="7">IF(C65&gt;130,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E65" s="59"/>
-      <c r="F65" s="272"/>
-      <c r="G65" s="32">
-        <v>43991</v>
-      </c>
-      <c r="H65" s="1">
-        <v>12</v>
-      </c>
-      <c r="I65" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J65" s="80">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K65" s="94"/>
-      <c r="L65" s="59"/>
-    </row>
-    <row r="66" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A66" s="272"/>
-      <c r="B66" s="32">
-        <v>44000</v>
-      </c>
-      <c r="C66" s="1">
-        <v>13</v>
-      </c>
-      <c r="D66" s="58">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E66" s="59"/>
-      <c r="F66" s="272"/>
-      <c r="G66" s="32">
-        <v>44000</v>
-      </c>
-      <c r="H66" s="1">
-        <v>31</v>
-      </c>
-      <c r="I66" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J66" s="80">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K66" s="94"/>
-      <c r="L66" s="59"/>
-    </row>
-    <row r="67" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A67" s="272"/>
-      <c r="B67" s="32">
-        <v>44005</v>
-      </c>
-      <c r="C67" s="1">
-        <v>14</v>
-      </c>
-      <c r="D67" s="58">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E67" s="59"/>
-      <c r="F67" s="272"/>
-      <c r="G67" s="32">
-        <v>44005</v>
-      </c>
-      <c r="H67" s="1">
-        <v>28</v>
-      </c>
-      <c r="I67" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J67" s="80">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K67" s="94"/>
-      <c r="L67" s="59"/>
-    </row>
-    <row r="68" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A68" s="272"/>
-      <c r="B68" s="32">
-        <v>44011</v>
-      </c>
-      <c r="C68" s="1">
-        <v>0</v>
-      </c>
-      <c r="D68" s="58">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E68" s="59"/>
-      <c r="F68" s="272"/>
-      <c r="G68" s="32">
-        <v>44011</v>
-      </c>
-      <c r="H68" s="1">
-        <v>3.3</v>
-      </c>
-      <c r="I68" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J68" s="80">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K68" s="94"/>
-      <c r="L68" s="59"/>
-    </row>
-    <row r="69" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A69" s="272"/>
-      <c r="B69" s="32">
-        <v>44019</v>
-      </c>
-      <c r="C69" s="1">
-        <v>22</v>
-      </c>
-      <c r="D69" s="58">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E69" s="59"/>
-      <c r="F69" s="272"/>
-      <c r="G69" s="32">
-        <v>44019</v>
-      </c>
-      <c r="H69" s="1">
-        <v>50</v>
-      </c>
-      <c r="I69" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J69" s="80">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K69" s="94"/>
-      <c r="L69" s="59"/>
-    </row>
-    <row r="70" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A70" s="272"/>
-      <c r="B70" s="32">
-        <v>44025</v>
-      </c>
-      <c r="C70" s="1">
-        <v>1</v>
-      </c>
-      <c r="D70" s="58">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E70" s="59"/>
-      <c r="F70" s="272"/>
-      <c r="G70" s="32">
-        <v>44025</v>
-      </c>
-      <c r="H70" s="1">
-        <v>15</v>
-      </c>
-      <c r="I70" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J70" s="80">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K70" s="94"/>
-      <c r="L70" s="59"/>
-    </row>
-    <row r="71" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A71" s="272"/>
-      <c r="B71" s="32">
-        <v>44032</v>
-      </c>
-      <c r="C71" s="1">
-        <v>24</v>
-      </c>
-      <c r="D71" s="58">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E71" s="59"/>
-      <c r="F71" s="272"/>
-      <c r="G71" s="32">
-        <v>44032</v>
-      </c>
-      <c r="H71" s="1">
-        <v>40</v>
-      </c>
-      <c r="I71" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J71" s="80">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K71" s="94"/>
-      <c r="L71" s="59"/>
-    </row>
-    <row r="72" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A72" s="272"/>
-      <c r="B72" s="32">
-        <v>44039</v>
-      </c>
-      <c r="C72" s="1">
-        <v>3</v>
-      </c>
-      <c r="D72" s="58">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E72" s="59"/>
-      <c r="F72" s="272"/>
-      <c r="G72" s="32">
-        <v>44039</v>
-      </c>
-      <c r="H72" s="1">
-        <v>10</v>
-      </c>
-      <c r="I72" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J72" s="80">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K72" s="94"/>
-      <c r="L72" s="59"/>
-    </row>
-    <row r="73" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A73" s="272"/>
-      <c r="B73" s="32">
-        <v>44048</v>
-      </c>
-      <c r="C73" s="1">
-        <v>8</v>
-      </c>
-      <c r="D73" s="58">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E73" s="59"/>
-      <c r="F73" s="272"/>
-      <c r="G73" s="32">
-        <v>44048</v>
-      </c>
-      <c r="H73" s="1">
-        <v>29</v>
-      </c>
-      <c r="I73" s="80">
-        <f t="shared" ref="I73:I75" si="8">IF(H73&gt;400,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J73" s="80">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K73" s="94"/>
-      <c r="L73" s="59"/>
-    </row>
-    <row r="74" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A74" s="272"/>
-      <c r="B74" s="32">
-        <v>44054</v>
-      </c>
-      <c r="C74" s="1">
-        <v>2</v>
-      </c>
-      <c r="D74" s="58">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E74" s="59"/>
-      <c r="F74" s="272"/>
-      <c r="G74" s="32">
-        <v>44054</v>
-      </c>
-      <c r="H74" s="1">
-        <v>19</v>
-      </c>
-      <c r="I74" s="80">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J74" s="80">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K74" s="94"/>
-      <c r="L74" s="59"/>
-    </row>
-    <row r="75" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="272"/>
-      <c r="B75" s="44">
-        <v>44061</v>
-      </c>
-      <c r="C75" s="41">
-        <v>33</v>
-      </c>
-      <c r="D75" s="60">
-        <v>0</v>
-      </c>
-      <c r="E75" s="61"/>
-      <c r="F75" s="272"/>
-      <c r="G75" s="44">
-        <v>44061</v>
-      </c>
-      <c r="H75" s="41">
-        <v>27</v>
-      </c>
-      <c r="I75" s="96">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J75" s="96">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K75" s="95"/>
-      <c r="L75" s="61"/>
-    </row>
-    <row r="76" spans="1:12" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="I76" s="79"/>
-      <c r="J76" s="79"/>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="A63:A75"/>
-    <mergeCell ref="F63:F75"/>
-    <mergeCell ref="A37:A49"/>
-    <mergeCell ref="F37:F49"/>
-    <mergeCell ref="A50:A62"/>
-    <mergeCell ref="F50:F62"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A24:A36"/>
-    <mergeCell ref="F24:F36"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A11:A23"/>
-    <mergeCell ref="F11:F23"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="C6:D6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/data/2020 Beach Sampling Compiled Results_FINALREPORT.xlsx
+++ b/data/2020 Beach Sampling Compiled Results_FINALREPORT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="803" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="803" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="2020 READ THIS FIRST" sheetId="28" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="248">
   <si>
     <t>Sample Date</t>
   </si>
@@ -1198,6 +1198,9 @@
   </si>
   <si>
     <t>interpretation correct?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -3621,6 +3624,27 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3986,27 +4010,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="81" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4073,7 +4076,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4471,7 +4473,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4592,7 +4593,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4667,7 +4667,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5790,69 +5789,69 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="111" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="111" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>159</v>
       </c>
@@ -5871,136 +5870,136 @@
       <selection activeCell="A2" sqref="A2:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="42"/>
-    <col min="2" max="2" width="16.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="48"/>
-    <col min="7" max="7" width="16.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="42"/>
+    <col min="2" max="2" width="16.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="48"/>
+    <col min="7" max="7" width="16.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="273" t="s">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="280" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="273"/>
-      <c r="C1" s="273"/>
-      <c r="D1" s="273"/>
-      <c r="E1" s="273"/>
-      <c r="F1" s="273"/>
-      <c r="G1" s="273"/>
-      <c r="H1" s="273"/>
-      <c r="I1" s="273"/>
-      <c r="J1" s="273"/>
-      <c r="K1" s="273"/>
-      <c r="L1" s="273"/>
-    </row>
-    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="273" t="s">
+      <c r="B1" s="280"/>
+      <c r="C1" s="280"/>
+      <c r="D1" s="280"/>
+      <c r="E1" s="280"/>
+      <c r="F1" s="280"/>
+      <c r="G1" s="280"/>
+      <c r="H1" s="280"/>
+      <c r="I1" s="280"/>
+      <c r="J1" s="280"/>
+      <c r="K1" s="280"/>
+      <c r="L1" s="280"/>
+    </row>
+    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="280" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="273"/>
-      <c r="C2" s="273"/>
-      <c r="D2" s="273"/>
-      <c r="E2" s="273"/>
-      <c r="F2" s="273"/>
-      <c r="G2" s="273"/>
-      <c r="H2" s="273"/>
-      <c r="I2" s="273"/>
-      <c r="J2" s="273"/>
-      <c r="K2" s="273"/>
-      <c r="L2" s="273"/>
-    </row>
-    <row r="3" spans="1:12" s="98" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="274" t="s">
+      <c r="B2" s="280"/>
+      <c r="C2" s="280"/>
+      <c r="D2" s="280"/>
+      <c r="E2" s="280"/>
+      <c r="F2" s="280"/>
+      <c r="G2" s="280"/>
+      <c r="H2" s="280"/>
+      <c r="I2" s="280"/>
+      <c r="J2" s="280"/>
+      <c r="K2" s="280"/>
+      <c r="L2" s="280"/>
+    </row>
+    <row r="3" spans="1:12" s="98" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="281" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="274"/>
-      <c r="C3" s="274"/>
-      <c r="D3" s="274"/>
-      <c r="E3" s="274"/>
-      <c r="F3" s="274"/>
-      <c r="G3" s="274"/>
-      <c r="H3" s="274"/>
-      <c r="I3" s="274"/>
-      <c r="J3" s="274"/>
-      <c r="K3" s="274"/>
-      <c r="L3" s="275"/>
-    </row>
-    <row r="4" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="281"/>
+      <c r="C3" s="281"/>
+      <c r="D3" s="281"/>
+      <c r="E3" s="281"/>
+      <c r="F3" s="281"/>
+      <c r="G3" s="281"/>
+      <c r="H3" s="281"/>
+      <c r="I3" s="281"/>
+      <c r="J3" s="281"/>
+      <c r="K3" s="281"/>
+      <c r="L3" s="282"/>
+    </row>
+    <row r="4" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="43"/>
-      <c r="B4" s="270" t="s">
+      <c r="B4" s="277" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="271"/>
-      <c r="D4" s="271"/>
+      <c r="C4" s="278"/>
+      <c r="D4" s="278"/>
       <c r="E4" s="66"/>
-      <c r="G4" s="270" t="s">
+      <c r="G4" s="277" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="271"/>
-      <c r="I4" s="271"/>
-      <c r="J4" s="271"/>
+      <c r="H4" s="278"/>
+      <c r="I4" s="278"/>
+      <c r="J4" s="278"/>
       <c r="K4" s="66"/>
     </row>
-    <row r="5" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="284" t="s">
+    <row r="5" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="291" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="285"/>
-      <c r="D5" s="286"/>
-      <c r="G5" s="284" t="s">
+      <c r="C5" s="292"/>
+      <c r="D5" s="293"/>
+      <c r="G5" s="291" t="s">
         <v>72</v>
       </c>
-      <c r="H5" s="285"/>
-      <c r="I5" s="287"/>
-      <c r="J5" s="286"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H5" s="292"/>
+      <c r="I5" s="294"/>
+      <c r="J5" s="293"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="49"/>
-      <c r="C6" s="267"/>
-      <c r="D6" s="269"/>
+      <c r="C6" s="274"/>
+      <c r="D6" s="276"/>
       <c r="G6" s="49"/>
-      <c r="H6" s="267"/>
-      <c r="I6" s="268"/>
-      <c r="J6" s="269"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H6" s="274"/>
+      <c r="I6" s="275"/>
+      <c r="J6" s="276"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="50"/>
-      <c r="C7" s="278"/>
-      <c r="D7" s="279"/>
+      <c r="C7" s="285"/>
+      <c r="D7" s="286"/>
       <c r="G7" s="50"/>
-      <c r="H7" s="278"/>
-      <c r="I7" s="280"/>
-      <c r="J7" s="279"/>
-    </row>
-    <row r="8" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H7" s="285"/>
+      <c r="I7" s="287"/>
+      <c r="J7" s="286"/>
+    </row>
+    <row r="8" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="51"/>
-      <c r="C8" s="281"/>
-      <c r="D8" s="282"/>
+      <c r="C8" s="288"/>
+      <c r="D8" s="289"/>
       <c r="G8" s="51"/>
-      <c r="H8" s="281"/>
-      <c r="I8" s="283"/>
-      <c r="J8" s="282"/>
-    </row>
-    <row r="9" spans="1:12" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="276" t="s">
+      <c r="H8" s="288"/>
+      <c r="I8" s="290"/>
+      <c r="J8" s="289"/>
+    </row>
+    <row r="9" spans="1:12" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="283" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="277"/>
+      <c r="C9" s="284"/>
       <c r="E9" s="68"/>
-      <c r="G9" s="276" t="s">
+      <c r="G9" s="283" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="277"/>
+      <c r="H9" s="284"/>
       <c r="I9" s="1">
         <v>400</v>
       </c>
@@ -6010,7 +6009,7 @@
       <c r="K9" s="68"/>
       <c r="L9" s="68"/>
     </row>
-    <row r="10" spans="1:12" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="52" t="s">
         <v>60</v>
       </c>
@@ -6042,8 +6041,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="272" t="s">
+    <row r="11" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="279" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="45">
@@ -6060,7 +6059,7 @@
         <f>(SUM(D11:D23)/COUNT(D11:D23))*100</f>
         <v>7.6923076923076925</v>
       </c>
-      <c r="F11" s="272" t="s">
+      <c r="F11" s="279" t="s">
         <v>5</v>
       </c>
       <c r="G11" s="45">
@@ -6086,8 +6085,8 @@
         <v>53.846153846153847</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="272"/>
+    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="279"/>
       <c r="B12" s="32">
         <v>43986</v>
       </c>
@@ -6099,7 +6098,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="59"/>
-      <c r="F12" s="272"/>
+      <c r="F12" s="279"/>
       <c r="G12" s="32">
         <v>43986</v>
       </c>
@@ -6117,8 +6116,8 @@
       <c r="K12" s="94"/>
       <c r="L12" s="59"/>
     </row>
-    <row r="13" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="272"/>
+    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="279"/>
       <c r="B13" s="32">
         <v>43991</v>
       </c>
@@ -6130,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="59"/>
-      <c r="F13" s="272"/>
+      <c r="F13" s="279"/>
       <c r="G13" s="32">
         <v>43991</v>
       </c>
@@ -6148,8 +6147,8 @@
       <c r="K13" s="94"/>
       <c r="L13" s="59"/>
     </row>
-    <row r="14" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="272"/>
+    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="279"/>
       <c r="B14" s="32">
         <v>44000</v>
       </c>
@@ -6161,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="59"/>
-      <c r="F14" s="272"/>
+      <c r="F14" s="279"/>
       <c r="G14" s="32">
         <v>44000</v>
       </c>
@@ -6179,8 +6178,8 @@
       <c r="K14" s="94"/>
       <c r="L14" s="59"/>
     </row>
-    <row r="15" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="272"/>
+    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="279"/>
       <c r="B15" s="32">
         <v>44005</v>
       </c>
@@ -6192,7 +6191,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="59"/>
-      <c r="F15" s="272"/>
+      <c r="F15" s="279"/>
       <c r="G15" s="32">
         <v>44005</v>
       </c>
@@ -6210,8 +6209,8 @@
       <c r="K15" s="94"/>
       <c r="L15" s="59"/>
     </row>
-    <row r="16" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="272"/>
+    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="279"/>
       <c r="B16" s="32">
         <v>44011</v>
       </c>
@@ -6223,7 +6222,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="59"/>
-      <c r="F16" s="272"/>
+      <c r="F16" s="279"/>
       <c r="G16" s="32">
         <v>44011</v>
       </c>
@@ -6241,8 +6240,8 @@
       <c r="K16" s="94"/>
       <c r="L16" s="59"/>
     </row>
-    <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="272"/>
+    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="279"/>
       <c r="B17" s="32">
         <v>44019</v>
       </c>
@@ -6254,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="59"/>
-      <c r="F17" s="272"/>
+      <c r="F17" s="279"/>
       <c r="G17" s="32">
         <v>44019</v>
       </c>
@@ -6272,8 +6271,8 @@
       <c r="K17" s="94"/>
       <c r="L17" s="59"/>
     </row>
-    <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="272"/>
+    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="279"/>
       <c r="B18" s="32">
         <v>44025</v>
       </c>
@@ -6285,7 +6284,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="59"/>
-      <c r="F18" s="272"/>
+      <c r="F18" s="279"/>
       <c r="G18" s="32">
         <v>44025</v>
       </c>
@@ -6303,8 +6302,8 @@
       <c r="K18" s="94"/>
       <c r="L18" s="59"/>
     </row>
-    <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="272"/>
+    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="279"/>
       <c r="B19" s="32">
         <v>44032</v>
       </c>
@@ -6316,7 +6315,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="59"/>
-      <c r="F19" s="272"/>
+      <c r="F19" s="279"/>
       <c r="G19" s="32">
         <v>44032</v>
       </c>
@@ -6334,8 +6333,8 @@
       <c r="K19" s="94"/>
       <c r="L19" s="59"/>
     </row>
-    <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="272"/>
+    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="279"/>
       <c r="B20" s="32">
         <v>44039</v>
       </c>
@@ -6347,7 +6346,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="59"/>
-      <c r="F20" s="272"/>
+      <c r="F20" s="279"/>
       <c r="G20" s="32">
         <v>44039</v>
       </c>
@@ -6365,8 +6364,8 @@
       <c r="K20" s="94"/>
       <c r="L20" s="59"/>
     </row>
-    <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="272"/>
+    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="279"/>
       <c r="B21" s="32">
         <v>44048</v>
       </c>
@@ -6378,7 +6377,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="59"/>
-      <c r="F21" s="272"/>
+      <c r="F21" s="279"/>
       <c r="G21" s="32">
         <v>44048</v>
       </c>
@@ -6396,8 +6395,8 @@
       <c r="K21" s="94"/>
       <c r="L21" s="59"/>
     </row>
-    <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="272"/>
+    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="279"/>
       <c r="B22" s="32">
         <v>44054</v>
       </c>
@@ -6409,7 +6408,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="59"/>
-      <c r="F22" s="272"/>
+      <c r="F22" s="279"/>
       <c r="G22" s="32">
         <v>44054</v>
       </c>
@@ -6427,8 +6426,8 @@
       <c r="K22" s="94"/>
       <c r="L22" s="59"/>
     </row>
-    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="272"/>
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="279"/>
       <c r="B23" s="44">
         <v>44061</v>
       </c>
@@ -6439,7 +6438,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="61"/>
-      <c r="F23" s="272"/>
+      <c r="F23" s="279"/>
       <c r="G23" s="44">
         <v>44061</v>
       </c>
@@ -6457,8 +6456,8 @@
       <c r="K23" s="95"/>
       <c r="L23" s="61"/>
     </row>
-    <row r="24" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="272" t="s">
+    <row r="24" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="279" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="45">
@@ -6475,7 +6474,7 @@
         <f>(SUM(D24:D36)/COUNT(D24:D36))*100</f>
         <v>0</v>
       </c>
-      <c r="F24" s="272" t="s">
+      <c r="F24" s="279" t="s">
         <v>6</v>
       </c>
       <c r="G24" s="45">
@@ -6501,8 +6500,8 @@
         <v>30.76923076923077</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="272"/>
+    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="279"/>
       <c r="B25" s="32">
         <v>43986</v>
       </c>
@@ -6514,7 +6513,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="59"/>
-      <c r="F25" s="272"/>
+      <c r="F25" s="279"/>
       <c r="G25" s="32">
         <v>43986</v>
       </c>
@@ -6532,8 +6531,8 @@
       <c r="K25" s="94"/>
       <c r="L25" s="59"/>
     </row>
-    <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="272"/>
+    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="279"/>
       <c r="B26" s="32">
         <v>43991</v>
       </c>
@@ -6545,7 +6544,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="59"/>
-      <c r="F26" s="272"/>
+      <c r="F26" s="279"/>
       <c r="G26" s="32">
         <v>43991</v>
       </c>
@@ -6563,8 +6562,8 @@
       <c r="K26" s="94"/>
       <c r="L26" s="59"/>
     </row>
-    <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="272"/>
+    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="279"/>
       <c r="B27" s="32">
         <v>44000</v>
       </c>
@@ -6576,7 +6575,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="59"/>
-      <c r="F27" s="272"/>
+      <c r="F27" s="279"/>
       <c r="G27" s="32">
         <v>44000</v>
       </c>
@@ -6594,8 +6593,8 @@
       <c r="K27" s="94"/>
       <c r="L27" s="59"/>
     </row>
-    <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="272"/>
+    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="279"/>
       <c r="B28" s="32">
         <v>44005</v>
       </c>
@@ -6607,7 +6606,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="59"/>
-      <c r="F28" s="272"/>
+      <c r="F28" s="279"/>
       <c r="G28" s="32">
         <v>44005</v>
       </c>
@@ -6625,8 +6624,8 @@
       <c r="K28" s="94"/>
       <c r="L28" s="59"/>
     </row>
-    <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="272"/>
+    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="279"/>
       <c r="B29" s="32">
         <v>44011</v>
       </c>
@@ -6638,7 +6637,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="59"/>
-      <c r="F29" s="272"/>
+      <c r="F29" s="279"/>
       <c r="G29" s="32">
         <v>44011</v>
       </c>
@@ -6656,8 +6655,8 @@
       <c r="K29" s="94"/>
       <c r="L29" s="59"/>
     </row>
-    <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="272"/>
+    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="279"/>
       <c r="B30" s="32">
         <v>44019</v>
       </c>
@@ -6669,7 +6668,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="59"/>
-      <c r="F30" s="272"/>
+      <c r="F30" s="279"/>
       <c r="G30" s="32">
         <v>44019</v>
       </c>
@@ -6687,8 +6686,8 @@
       <c r="K30" s="94"/>
       <c r="L30" s="59"/>
     </row>
-    <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="272"/>
+    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="279"/>
       <c r="B31" s="32">
         <v>44025</v>
       </c>
@@ -6700,7 +6699,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="59"/>
-      <c r="F31" s="272"/>
+      <c r="F31" s="279"/>
       <c r="G31" s="32">
         <v>44025</v>
       </c>
@@ -6718,8 +6717,8 @@
       <c r="K31" s="94"/>
       <c r="L31" s="59"/>
     </row>
-    <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="272"/>
+    <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="279"/>
       <c r="B32" s="32">
         <v>44032</v>
       </c>
@@ -6731,7 +6730,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="59"/>
-      <c r="F32" s="272"/>
+      <c r="F32" s="279"/>
       <c r="G32" s="32">
         <v>44032</v>
       </c>
@@ -6749,8 +6748,8 @@
       <c r="K32" s="94"/>
       <c r="L32" s="59"/>
     </row>
-    <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="272"/>
+    <row r="33" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="279"/>
       <c r="B33" s="32">
         <v>44039</v>
       </c>
@@ -6762,7 +6761,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="59"/>
-      <c r="F33" s="272"/>
+      <c r="F33" s="279"/>
       <c r="G33" s="32">
         <v>44039</v>
       </c>
@@ -6780,8 +6779,8 @@
       <c r="K33" s="94"/>
       <c r="L33" s="59"/>
     </row>
-    <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="272"/>
+    <row r="34" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="279"/>
       <c r="B34" s="32">
         <v>44048</v>
       </c>
@@ -6793,7 +6792,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="59"/>
-      <c r="F34" s="272"/>
+      <c r="F34" s="279"/>
       <c r="G34" s="32">
         <v>44048</v>
       </c>
@@ -6811,8 +6810,8 @@
       <c r="K34" s="94"/>
       <c r="L34" s="59"/>
     </row>
-    <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="272"/>
+    <row r="35" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="279"/>
       <c r="B35" s="32">
         <v>44054</v>
       </c>
@@ -6824,7 +6823,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="59"/>
-      <c r="F35" s="272"/>
+      <c r="F35" s="279"/>
       <c r="G35" s="32">
         <v>44054</v>
       </c>
@@ -6842,8 +6841,8 @@
       <c r="K35" s="94"/>
       <c r="L35" s="59"/>
     </row>
-    <row r="36" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="272"/>
+    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="279"/>
       <c r="B36" s="44">
         <v>44061</v>
       </c>
@@ -6854,7 +6853,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="61"/>
-      <c r="F36" s="272"/>
+      <c r="F36" s="279"/>
       <c r="G36" s="44">
         <v>44061</v>
       </c>
@@ -6872,8 +6871,8 @@
       <c r="K36" s="95"/>
       <c r="L36" s="61"/>
     </row>
-    <row r="37" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="272" t="s">
+    <row r="37" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="279" t="s">
         <v>1</v>
       </c>
       <c r="B37" s="45">
@@ -6890,7 +6889,7 @@
         <f>(SUM(D37:D49)/COUNT(D37:D49))*100</f>
         <v>0</v>
       </c>
-      <c r="F37" s="272" t="s">
+      <c r="F37" s="279" t="s">
         <v>1</v>
       </c>
       <c r="G37" s="45">
@@ -6916,8 +6915,8 @@
         <v>30.76923076923077</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="272"/>
+    <row r="38" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="279"/>
       <c r="B38" s="32">
         <v>43986</v>
       </c>
@@ -6929,7 +6928,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="59"/>
-      <c r="F38" s="272"/>
+      <c r="F38" s="279"/>
       <c r="G38" s="32">
         <v>43986</v>
       </c>
@@ -6947,8 +6946,8 @@
       <c r="K38" s="94"/>
       <c r="L38" s="59"/>
     </row>
-    <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="272"/>
+    <row r="39" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="279"/>
       <c r="B39" s="32">
         <v>43991</v>
       </c>
@@ -6960,7 +6959,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="59"/>
-      <c r="F39" s="272"/>
+      <c r="F39" s="279"/>
       <c r="G39" s="32">
         <v>43991</v>
       </c>
@@ -6978,8 +6977,8 @@
       <c r="K39" s="94"/>
       <c r="L39" s="59"/>
     </row>
-    <row r="40" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="272"/>
+    <row r="40" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="279"/>
       <c r="B40" s="32">
         <v>44000</v>
       </c>
@@ -6991,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="59"/>
-      <c r="F40" s="272"/>
+      <c r="F40" s="279"/>
       <c r="G40" s="32">
         <v>44000</v>
       </c>
@@ -7009,8 +7008,8 @@
       <c r="K40" s="94"/>
       <c r="L40" s="59"/>
     </row>
-    <row r="41" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="272"/>
+    <row r="41" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="279"/>
       <c r="B41" s="32">
         <v>44005</v>
       </c>
@@ -7022,7 +7021,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="59"/>
-      <c r="F41" s="272"/>
+      <c r="F41" s="279"/>
       <c r="G41" s="32">
         <v>44005</v>
       </c>
@@ -7040,8 +7039,8 @@
       <c r="K41" s="94"/>
       <c r="L41" s="59"/>
     </row>
-    <row r="42" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="272"/>
+    <row r="42" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="279"/>
       <c r="B42" s="32">
         <v>44011</v>
       </c>
@@ -7053,7 +7052,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="59"/>
-      <c r="F42" s="272"/>
+      <c r="F42" s="279"/>
       <c r="G42" s="32">
         <v>44011</v>
       </c>
@@ -7071,8 +7070,8 @@
       <c r="K42" s="94"/>
       <c r="L42" s="59"/>
     </row>
-    <row r="43" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A43" s="272"/>
+    <row r="43" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="279"/>
       <c r="B43" s="32">
         <v>44019</v>
       </c>
@@ -7084,7 +7083,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="59"/>
-      <c r="F43" s="272"/>
+      <c r="F43" s="279"/>
       <c r="G43" s="32">
         <v>44019</v>
       </c>
@@ -7102,8 +7101,8 @@
       <c r="K43" s="94"/>
       <c r="L43" s="59"/>
     </row>
-    <row r="44" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A44" s="272"/>
+    <row r="44" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="279"/>
       <c r="B44" s="32">
         <v>44025</v>
       </c>
@@ -7115,7 +7114,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="59"/>
-      <c r="F44" s="272"/>
+      <c r="F44" s="279"/>
       <c r="G44" s="32">
         <v>44025</v>
       </c>
@@ -7133,8 +7132,8 @@
       <c r="K44" s="94"/>
       <c r="L44" s="59"/>
     </row>
-    <row r="45" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="272"/>
+    <row r="45" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="279"/>
       <c r="B45" s="32">
         <v>44032</v>
       </c>
@@ -7146,7 +7145,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="59"/>
-      <c r="F45" s="272"/>
+      <c r="F45" s="279"/>
       <c r="G45" s="32">
         <v>44032</v>
       </c>
@@ -7164,8 +7163,8 @@
       <c r="K45" s="94"/>
       <c r="L45" s="59"/>
     </row>
-    <row r="46" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="272"/>
+    <row r="46" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="279"/>
       <c r="B46" s="32">
         <v>44039</v>
       </c>
@@ -7177,7 +7176,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="59"/>
-      <c r="F46" s="272"/>
+      <c r="F46" s="279"/>
       <c r="G46" s="32">
         <v>44039</v>
       </c>
@@ -7195,8 +7194,8 @@
       <c r="K46" s="94"/>
       <c r="L46" s="59"/>
     </row>
-    <row r="47" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="272"/>
+    <row r="47" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="279"/>
       <c r="B47" s="32">
         <v>44048</v>
       </c>
@@ -7208,7 +7207,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="59"/>
-      <c r="F47" s="272"/>
+      <c r="F47" s="279"/>
       <c r="G47" s="32">
         <v>44048</v>
       </c>
@@ -7226,8 +7225,8 @@
       <c r="K47" s="94"/>
       <c r="L47" s="59"/>
     </row>
-    <row r="48" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="272"/>
+    <row r="48" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="279"/>
       <c r="B48" s="32">
         <v>44054</v>
       </c>
@@ -7239,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="59"/>
-      <c r="F48" s="272"/>
+      <c r="F48" s="279"/>
       <c r="G48" s="32">
         <v>44054</v>
       </c>
@@ -7257,8 +7256,8 @@
       <c r="K48" s="94"/>
       <c r="L48" s="59"/>
     </row>
-    <row r="49" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="272"/>
+    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="279"/>
       <c r="B49" s="44">
         <v>44061</v>
       </c>
@@ -7269,7 +7268,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="61"/>
-      <c r="F49" s="272"/>
+      <c r="F49" s="279"/>
       <c r="G49" s="44">
         <v>44061</v>
       </c>
@@ -7287,8 +7286,8 @@
       <c r="K49" s="95"/>
       <c r="L49" s="61"/>
     </row>
-    <row r="50" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="272" t="s">
+    <row r="50" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="279" t="s">
         <v>2</v>
       </c>
       <c r="B50" s="45">
@@ -7305,7 +7304,7 @@
         <f>(SUM(D50:D62)/COUNT(D50:D62))*100</f>
         <v>0</v>
       </c>
-      <c r="F50" s="272" t="s">
+      <c r="F50" s="279" t="s">
         <v>2</v>
       </c>
       <c r="G50" s="45">
@@ -7331,8 +7330,8 @@
         <v>61.53846153846154</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="272"/>
+    <row r="51" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="279"/>
       <c r="B51" s="32">
         <v>43986</v>
       </c>
@@ -7344,7 +7343,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="59"/>
-      <c r="F51" s="272"/>
+      <c r="F51" s="279"/>
       <c r="G51" s="32">
         <v>43986</v>
       </c>
@@ -7362,8 +7361,8 @@
       <c r="K51" s="94"/>
       <c r="L51" s="59"/>
     </row>
-    <row r="52" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="272"/>
+    <row r="52" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="279"/>
       <c r="B52" s="32">
         <v>43991</v>
       </c>
@@ -7375,7 +7374,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="59"/>
-      <c r="F52" s="272"/>
+      <c r="F52" s="279"/>
       <c r="G52" s="32">
         <v>43991</v>
       </c>
@@ -7393,8 +7392,8 @@
       <c r="K52" s="94"/>
       <c r="L52" s="59"/>
     </row>
-    <row r="53" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A53" s="272"/>
+    <row r="53" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="279"/>
       <c r="B53" s="32">
         <v>44000</v>
       </c>
@@ -7406,7 +7405,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="59"/>
-      <c r="F53" s="272"/>
+      <c r="F53" s="279"/>
       <c r="G53" s="32">
         <v>44000</v>
       </c>
@@ -7424,8 +7423,8 @@
       <c r="K53" s="94"/>
       <c r="L53" s="59"/>
     </row>
-    <row r="54" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="272"/>
+    <row r="54" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="279"/>
       <c r="B54" s="32">
         <v>44005</v>
       </c>
@@ -7437,7 +7436,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="59"/>
-      <c r="F54" s="272"/>
+      <c r="F54" s="279"/>
       <c r="G54" s="32">
         <v>44005</v>
       </c>
@@ -7455,8 +7454,8 @@
       <c r="K54" s="94"/>
       <c r="L54" s="59"/>
     </row>
-    <row r="55" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="272"/>
+    <row r="55" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="279"/>
       <c r="B55" s="32">
         <v>44011</v>
       </c>
@@ -7468,7 +7467,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="59"/>
-      <c r="F55" s="272"/>
+      <c r="F55" s="279"/>
       <c r="G55" s="32">
         <v>44011</v>
       </c>
@@ -7486,8 +7485,8 @@
       <c r="K55" s="94"/>
       <c r="L55" s="59"/>
     </row>
-    <row r="56" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A56" s="272"/>
+    <row r="56" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="279"/>
       <c r="B56" s="32">
         <v>44019</v>
       </c>
@@ -7499,7 +7498,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="59"/>
-      <c r="F56" s="272"/>
+      <c r="F56" s="279"/>
       <c r="G56" s="32">
         <v>44019</v>
       </c>
@@ -7517,8 +7516,8 @@
       <c r="K56" s="94"/>
       <c r="L56" s="59"/>
     </row>
-    <row r="57" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A57" s="272"/>
+    <row r="57" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="279"/>
       <c r="B57" s="32">
         <v>44025</v>
       </c>
@@ -7530,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="59"/>
-      <c r="F57" s="272"/>
+      <c r="F57" s="279"/>
       <c r="G57" s="32">
         <v>44025</v>
       </c>
@@ -7548,8 +7547,8 @@
       <c r="K57" s="94"/>
       <c r="L57" s="59"/>
     </row>
-    <row r="58" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="272"/>
+    <row r="58" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="279"/>
       <c r="B58" s="32">
         <v>44032</v>
       </c>
@@ -7561,7 +7560,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="59"/>
-      <c r="F58" s="272"/>
+      <c r="F58" s="279"/>
       <c r="G58" s="32">
         <v>44032</v>
       </c>
@@ -7579,8 +7578,8 @@
       <c r="K58" s="94"/>
       <c r="L58" s="59"/>
     </row>
-    <row r="59" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A59" s="272"/>
+    <row r="59" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="279"/>
       <c r="B59" s="32">
         <v>44039</v>
       </c>
@@ -7592,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="59"/>
-      <c r="F59" s="272"/>
+      <c r="F59" s="279"/>
       <c r="G59" s="32">
         <v>44039</v>
       </c>
@@ -7610,8 +7609,8 @@
       <c r="K59" s="94"/>
       <c r="L59" s="59"/>
     </row>
-    <row r="60" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A60" s="272"/>
+    <row r="60" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="279"/>
       <c r="B60" s="32">
         <v>44048</v>
       </c>
@@ -7623,7 +7622,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="59"/>
-      <c r="F60" s="272"/>
+      <c r="F60" s="279"/>
       <c r="G60" s="32">
         <v>44048</v>
       </c>
@@ -7641,8 +7640,8 @@
       <c r="K60" s="94"/>
       <c r="L60" s="59"/>
     </row>
-    <row r="61" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A61" s="272"/>
+    <row r="61" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="279"/>
       <c r="B61" s="32">
         <v>44054</v>
       </c>
@@ -7654,7 +7653,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="59"/>
-      <c r="F61" s="272"/>
+      <c r="F61" s="279"/>
       <c r="G61" s="32">
         <v>44054</v>
       </c>
@@ -7672,8 +7671,8 @@
       <c r="K61" s="94"/>
       <c r="L61" s="59"/>
     </row>
-    <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="272"/>
+    <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="279"/>
       <c r="B62" s="44">
         <v>44061</v>
       </c>
@@ -7684,7 +7683,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="61"/>
-      <c r="F62" s="272"/>
+      <c r="F62" s="279"/>
       <c r="G62" s="44">
         <v>44061</v>
       </c>
@@ -7702,8 +7701,8 @@
       <c r="K62" s="95"/>
       <c r="L62" s="61"/>
     </row>
-    <row r="63" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="272" t="s">
+    <row r="63" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="279" t="s">
         <v>3</v>
       </c>
       <c r="B63" s="45">
@@ -7720,7 +7719,7 @@
         <f>(SUM(D63:D75)/COUNT(D63:D75))*100</f>
         <v>0</v>
       </c>
-      <c r="F63" s="272" t="s">
+      <c r="F63" s="279" t="s">
         <v>3</v>
       </c>
       <c r="G63" s="45">
@@ -7746,8 +7745,8 @@
         <v>15.384615384615385</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A64" s="272"/>
+    <row r="64" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64" s="279"/>
       <c r="B64" s="32">
         <v>43986</v>
       </c>
@@ -7759,7 +7758,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="59"/>
-      <c r="F64" s="272"/>
+      <c r="F64" s="279"/>
       <c r="G64" s="32">
         <v>43986</v>
       </c>
@@ -7777,8 +7776,8 @@
       <c r="K64" s="94"/>
       <c r="L64" s="59"/>
     </row>
-    <row r="65" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A65" s="272"/>
+    <row r="65" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="279"/>
       <c r="B65" s="32">
         <v>43991</v>
       </c>
@@ -7790,7 +7789,7 @@
         <v>0</v>
       </c>
       <c r="E65" s="59"/>
-      <c r="F65" s="272"/>
+      <c r="F65" s="279"/>
       <c r="G65" s="32">
         <v>43991</v>
       </c>
@@ -7808,8 +7807,8 @@
       <c r="K65" s="94"/>
       <c r="L65" s="59"/>
     </row>
-    <row r="66" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A66" s="272"/>
+    <row r="66" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="279"/>
       <c r="B66" s="32">
         <v>44000</v>
       </c>
@@ -7821,7 +7820,7 @@
         <v>0</v>
       </c>
       <c r="E66" s="59"/>
-      <c r="F66" s="272"/>
+      <c r="F66" s="279"/>
       <c r="G66" s="32">
         <v>44000</v>
       </c>
@@ -7839,8 +7838,8 @@
       <c r="K66" s="94"/>
       <c r="L66" s="59"/>
     </row>
-    <row r="67" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A67" s="272"/>
+    <row r="67" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67" s="279"/>
       <c r="B67" s="32">
         <v>44005</v>
       </c>
@@ -7852,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="59"/>
-      <c r="F67" s="272"/>
+      <c r="F67" s="279"/>
       <c r="G67" s="32">
         <v>44005</v>
       </c>
@@ -7870,8 +7869,8 @@
       <c r="K67" s="94"/>
       <c r="L67" s="59"/>
     </row>
-    <row r="68" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A68" s="272"/>
+    <row r="68" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" s="279"/>
       <c r="B68" s="32">
         <v>44011</v>
       </c>
@@ -7883,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="59"/>
-      <c r="F68" s="272"/>
+      <c r="F68" s="279"/>
       <c r="G68" s="32">
         <v>44011</v>
       </c>
@@ -7901,8 +7900,8 @@
       <c r="K68" s="94"/>
       <c r="L68" s="59"/>
     </row>
-    <row r="69" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A69" s="272"/>
+    <row r="69" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" s="279"/>
       <c r="B69" s="32">
         <v>44019</v>
       </c>
@@ -7914,7 +7913,7 @@
         <v>0</v>
       </c>
       <c r="E69" s="59"/>
-      <c r="F69" s="272"/>
+      <c r="F69" s="279"/>
       <c r="G69" s="32">
         <v>44019</v>
       </c>
@@ -7932,8 +7931,8 @@
       <c r="K69" s="94"/>
       <c r="L69" s="59"/>
     </row>
-    <row r="70" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A70" s="272"/>
+    <row r="70" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A70" s="279"/>
       <c r="B70" s="32">
         <v>44025</v>
       </c>
@@ -7945,7 +7944,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="59"/>
-      <c r="F70" s="272"/>
+      <c r="F70" s="279"/>
       <c r="G70" s="32">
         <v>44025</v>
       </c>
@@ -7963,8 +7962,8 @@
       <c r="K70" s="94"/>
       <c r="L70" s="59"/>
     </row>
-    <row r="71" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A71" s="272"/>
+    <row r="71" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71" s="279"/>
       <c r="B71" s="32">
         <v>44032</v>
       </c>
@@ -7976,7 +7975,7 @@
         <v>0</v>
       </c>
       <c r="E71" s="59"/>
-      <c r="F71" s="272"/>
+      <c r="F71" s="279"/>
       <c r="G71" s="32">
         <v>44032</v>
       </c>
@@ -7994,8 +7993,8 @@
       <c r="K71" s="94"/>
       <c r="L71" s="59"/>
     </row>
-    <row r="72" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A72" s="272"/>
+    <row r="72" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A72" s="279"/>
       <c r="B72" s="32">
         <v>44039</v>
       </c>
@@ -8007,7 +8006,7 @@
         <v>0</v>
       </c>
       <c r="E72" s="59"/>
-      <c r="F72" s="272"/>
+      <c r="F72" s="279"/>
       <c r="G72" s="32">
         <v>44039</v>
       </c>
@@ -8025,8 +8024,8 @@
       <c r="K72" s="94"/>
       <c r="L72" s="59"/>
     </row>
-    <row r="73" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A73" s="272"/>
+    <row r="73" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A73" s="279"/>
       <c r="B73" s="32">
         <v>44048</v>
       </c>
@@ -8038,7 +8037,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="59"/>
-      <c r="F73" s="272"/>
+      <c r="F73" s="279"/>
       <c r="G73" s="32">
         <v>44048</v>
       </c>
@@ -8056,8 +8055,8 @@
       <c r="K73" s="94"/>
       <c r="L73" s="59"/>
     </row>
-    <row r="74" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A74" s="272"/>
+    <row r="74" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A74" s="279"/>
       <c r="B74" s="32">
         <v>44054</v>
       </c>
@@ -8069,7 +8068,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="59"/>
-      <c r="F74" s="272"/>
+      <c r="F74" s="279"/>
       <c r="G74" s="32">
         <v>44054</v>
       </c>
@@ -8087,8 +8086,8 @@
       <c r="K74" s="94"/>
       <c r="L74" s="59"/>
     </row>
-    <row r="75" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="272"/>
+    <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="279"/>
       <c r="B75" s="44">
         <v>44061</v>
       </c>
@@ -8099,7 +8098,7 @@
         <v>0</v>
       </c>
       <c r="E75" s="61"/>
-      <c r="F75" s="272"/>
+      <c r="F75" s="279"/>
       <c r="G75" s="44">
         <v>44061</v>
       </c>
@@ -8117,7 +8116,7 @@
       <c r="K75" s="95"/>
       <c r="L75" s="61"/>
     </row>
-    <row r="76" spans="1:12" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="I76" s="79"/>
       <c r="J76" s="79"/>
     </row>
@@ -8162,192 +8161,192 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="42"/>
-    <col min="2" max="2" width="16.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="48"/>
-    <col min="10" max="10" width="16.109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" style="1"/>
-    <col min="15" max="15" width="10.44140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="42"/>
+    <col min="2" max="2" width="16.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="48"/>
+    <col min="10" max="10" width="16.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="10.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="291" t="s">
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="298" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-      <c r="F1" s="291"/>
-      <c r="G1" s="291"/>
-      <c r="H1" s="291"/>
-      <c r="I1" s="291"/>
-      <c r="J1" s="291"/>
-      <c r="K1" s="291"/>
-      <c r="L1" s="291"/>
-      <c r="M1" s="291"/>
-      <c r="N1" s="291"/>
-      <c r="O1" s="291"/>
-      <c r="P1" s="291"/>
-    </row>
-    <row r="2" spans="1:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="273" t="s">
+      <c r="B1" s="298"/>
+      <c r="C1" s="298"/>
+      <c r="D1" s="298"/>
+      <c r="E1" s="298"/>
+      <c r="F1" s="298"/>
+      <c r="G1" s="298"/>
+      <c r="H1" s="298"/>
+      <c r="I1" s="298"/>
+      <c r="J1" s="298"/>
+      <c r="K1" s="298"/>
+      <c r="L1" s="298"/>
+      <c r="M1" s="298"/>
+      <c r="N1" s="298"/>
+      <c r="O1" s="298"/>
+      <c r="P1" s="298"/>
+    </row>
+    <row r="2" spans="1:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="280" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="273"/>
-      <c r="C2" s="273"/>
-      <c r="D2" s="273"/>
-      <c r="E2" s="273"/>
-      <c r="F2" s="273"/>
-      <c r="G2" s="273"/>
-      <c r="H2" s="273"/>
-      <c r="I2" s="273"/>
-      <c r="J2" s="273"/>
-      <c r="K2" s="273"/>
-      <c r="L2" s="273"/>
-      <c r="M2" s="273"/>
-      <c r="N2" s="273"/>
-      <c r="O2" s="273"/>
-      <c r="P2" s="273"/>
-    </row>
-    <row r="3" spans="1:16" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B3" s="292" t="s">
+      <c r="B2" s="280"/>
+      <c r="C2" s="280"/>
+      <c r="D2" s="280"/>
+      <c r="E2" s="280"/>
+      <c r="F2" s="280"/>
+      <c r="G2" s="280"/>
+      <c r="H2" s="280"/>
+      <c r="I2" s="280"/>
+      <c r="J2" s="280"/>
+      <c r="K2" s="280"/>
+      <c r="L2" s="280"/>
+      <c r="M2" s="280"/>
+      <c r="N2" s="280"/>
+      <c r="O2" s="280"/>
+      <c r="P2" s="280"/>
+    </row>
+    <row r="3" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B3" s="299" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="292"/>
-      <c r="D3" s="292"/>
-      <c r="E3" s="292"/>
-      <c r="F3" s="292"/>
-      <c r="G3" s="292"/>
-      <c r="H3" s="292"/>
-      <c r="I3" s="292"/>
-      <c r="J3" s="292"/>
-      <c r="K3" s="292"/>
-      <c r="L3" s="292"/>
-      <c r="M3" s="292"/>
-      <c r="N3" s="292"/>
-      <c r="O3" s="292"/>
-      <c r="P3" s="292"/>
-    </row>
-    <row r="4" spans="1:16" s="47" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="299"/>
+      <c r="D3" s="299"/>
+      <c r="E3" s="299"/>
+      <c r="F3" s="299"/>
+      <c r="G3" s="299"/>
+      <c r="H3" s="299"/>
+      <c r="I3" s="299"/>
+      <c r="J3" s="299"/>
+      <c r="K3" s="299"/>
+      <c r="L3" s="299"/>
+      <c r="M3" s="299"/>
+      <c r="N3" s="299"/>
+      <c r="O3" s="299"/>
+      <c r="P3" s="299"/>
+    </row>
+    <row r="4" spans="1:16" s="47" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="43"/>
-      <c r="B4" s="270" t="s">
+      <c r="B4" s="277" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="271"/>
-      <c r="D4" s="271"/>
-      <c r="E4" s="271"/>
-      <c r="F4" s="271"/>
-      <c r="G4" s="271"/>
-      <c r="H4" s="293"/>
+      <c r="C4" s="278"/>
+      <c r="D4" s="278"/>
+      <c r="E4" s="278"/>
+      <c r="F4" s="278"/>
+      <c r="G4" s="278"/>
+      <c r="H4" s="300"/>
       <c r="I4" s="48"/>
-      <c r="J4" s="270" t="s">
+      <c r="J4" s="277" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="271"/>
-      <c r="L4" s="271"/>
-      <c r="M4" s="271"/>
-      <c r="N4" s="271"/>
-      <c r="O4" s="271"/>
-      <c r="P4" s="293"/>
-    </row>
-    <row r="5" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="284" t="s">
+      <c r="K4" s="278"/>
+      <c r="L4" s="278"/>
+      <c r="M4" s="278"/>
+      <c r="N4" s="278"/>
+      <c r="O4" s="278"/>
+      <c r="P4" s="300"/>
+    </row>
+    <row r="5" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="291" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="285"/>
-      <c r="D5" s="286"/>
-      <c r="J5" s="284" t="s">
+      <c r="C5" s="292"/>
+      <c r="D5" s="293"/>
+      <c r="J5" s="291" t="s">
         <v>72</v>
       </c>
-      <c r="K5" s="285"/>
-      <c r="L5" s="286"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K5" s="292"/>
+      <c r="L5" s="293"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="49">
         <v>5</v>
       </c>
-      <c r="C6" s="267" t="s">
+      <c r="C6" s="274" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="269"/>
+      <c r="D6" s="276"/>
       <c r="J6" s="49">
         <v>5</v>
       </c>
-      <c r="K6" s="267" t="s">
+      <c r="K6" s="274" t="s">
         <v>71</v>
       </c>
-      <c r="L6" s="269"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L6" s="276"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="50">
         <v>30</v>
       </c>
-      <c r="C7" s="278" t="s">
+      <c r="C7" s="285" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="279"/>
+      <c r="D7" s="286"/>
       <c r="J7" s="50">
         <v>30</v>
       </c>
-      <c r="K7" s="278" t="s">
+      <c r="K7" s="285" t="s">
         <v>70</v>
       </c>
-      <c r="L7" s="279"/>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L7" s="286"/>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="281" t="e">
+      <c r="C8" s="288" t="e">
         <f>"Insufficient Data, .i.e, less than " &amp; CritNbr</f>
         <v>#REF!</v>
       </c>
-      <c r="D8" s="282"/>
+      <c r="D8" s="289"/>
       <c r="J8" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="K8" s="281" t="e">
+      <c r="K8" s="288" t="e">
         <f>"Insufficient Data, .i.e, less than " &amp; CritNbr</f>
         <v>#REF!</v>
       </c>
-      <c r="L8" s="282"/>
-    </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="276" t="s">
+      <c r="L8" s="289"/>
+    </row>
+    <row r="9" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="283" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="277"/>
-      <c r="E9" s="288" t="s">
+      <c r="C9" s="284"/>
+      <c r="E9" s="295" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="288"/>
-      <c r="G9" s="288"/>
-      <c r="H9" s="288"/>
-      <c r="J9" s="276" t="s">
+      <c r="F9" s="295"/>
+      <c r="G9" s="295"/>
+      <c r="H9" s="295"/>
+      <c r="J9" s="283" t="s">
         <v>68</v>
       </c>
-      <c r="K9" s="277"/>
-      <c r="M9" s="288" t="s">
+      <c r="K9" s="284"/>
+      <c r="M9" s="295" t="s">
         <v>67</v>
       </c>
-      <c r="N9" s="288"/>
-      <c r="O9" s="288"/>
-      <c r="P9" s="288"/>
-    </row>
-    <row r="10" spans="1:16" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N9" s="295"/>
+      <c r="O9" s="295"/>
+      <c r="P9" s="295"/>
+    </row>
+    <row r="10" spans="1:16" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="52" t="s">
         <v>60</v>
       </c>
@@ -8391,8 +8390,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="272" t="s">
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="279" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="45">
@@ -8417,7 +8416,7 @@
         <f>IF(F11&gt;=5,G11,"Insufficient")</f>
         <v>Insufficient</v>
       </c>
-      <c r="I11" s="272" t="s">
+      <c r="I11" s="279" t="s">
         <v>5</v>
       </c>
       <c r="J11" s="45">
@@ -8443,8 +8442,8 @@
         <v>insufficient</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="272"/>
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="279"/>
       <c r="B12" s="32">
         <v>43986</v>
       </c>
@@ -8467,7 +8466,7 @@
         <f>IF(F12&gt;=5,G12,"Insufficient")</f>
         <v>Insufficient</v>
       </c>
-      <c r="I12" s="272"/>
+      <c r="I12" s="279"/>
       <c r="J12" s="32">
         <v>43986</v>
       </c>
@@ -8491,8 +8490,8 @@
         <v>insufficient</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="272"/>
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="279"/>
       <c r="B13" s="32">
         <v>43991</v>
       </c>
@@ -8515,7 +8514,7 @@
         <f t="shared" ref="H13:H16" si="2">IF(F13&gt;=5,G13,"Insufficient")</f>
         <v>Insufficient</v>
       </c>
-      <c r="I13" s="272"/>
+      <c r="I13" s="279"/>
       <c r="J13" s="32">
         <v>43991</v>
       </c>
@@ -8539,8 +8538,8 @@
         <v>insufficient</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="272"/>
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="279"/>
       <c r="B14" s="32">
         <v>44000</v>
       </c>
@@ -8563,7 +8562,7 @@
         <f t="shared" si="2"/>
         <v>Insufficient</v>
       </c>
-      <c r="I14" s="272"/>
+      <c r="I14" s="279"/>
       <c r="J14" s="32">
         <v>44000</v>
       </c>
@@ -8587,8 +8586,8 @@
         <v>insufficient</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="272"/>
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="279"/>
       <c r="B15" s="32">
         <v>44005</v>
       </c>
@@ -8611,7 +8610,7 @@
         <f>IF(F15&gt;=5,G15,"Insufficient")</f>
         <v>14.163642982643259</v>
       </c>
-      <c r="I15" s="272"/>
+      <c r="I15" s="279"/>
       <c r="J15" s="32">
         <v>44005</v>
       </c>
@@ -8635,8 +8634,8 @@
         <v>33.08060410780066</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="272"/>
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="279"/>
       <c r="B16" s="32">
         <v>44011</v>
       </c>
@@ -8659,7 +8658,7 @@
         <f t="shared" si="2"/>
         <v>25.522645676066997</v>
       </c>
-      <c r="I16" s="272"/>
+      <c r="I16" s="279"/>
       <c r="J16" s="32">
         <v>44011</v>
       </c>
@@ -8683,8 +8682,8 @@
         <v>23.272000451163198</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="272"/>
+    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="279"/>
       <c r="B17" s="32">
         <v>44019</v>
       </c>
@@ -8707,7 +8706,7 @@
         <f t="shared" ref="H17:H23" si="5">IF(F17&gt;=5,G17,insufficient)</f>
         <v>20.321496510276965</v>
       </c>
-      <c r="I17" s="272"/>
+      <c r="I17" s="279"/>
       <c r="J17" s="32">
         <v>44019</v>
       </c>
@@ -8731,8 +8730,8 @@
         <v>16.666813240515243</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="272"/>
+    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="279"/>
       <c r="B18" s="32">
         <v>44025</v>
       </c>
@@ -8755,7 +8754,7 @@
         <f t="shared" si="5"/>
         <v>40.032198122303697</v>
       </c>
-      <c r="I18" s="272"/>
+      <c r="I18" s="279"/>
       <c r="J18" s="32">
         <v>44025</v>
       </c>
@@ -8779,8 +8778,8 @@
         <v>35.426084385151015</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="272"/>
+    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="279"/>
       <c r="B19" s="32">
         <v>44032</v>
       </c>
@@ -8803,7 +8802,7 @@
         <f t="shared" si="5"/>
         <v>49.332993514374088</v>
       </c>
-      <c r="I19" s="272"/>
+      <c r="I19" s="279"/>
       <c r="J19" s="32">
         <v>44032</v>
       </c>
@@ -8827,8 +8826,8 @@
         <v>54.332086373112325</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="272"/>
+    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="279"/>
       <c r="B20" s="32">
         <v>44039</v>
       </c>
@@ -8851,7 +8850,7 @@
         <f t="shared" si="5"/>
         <v>34.194910051894681</v>
       </c>
-      <c r="I20" s="272"/>
+      <c r="I20" s="279"/>
       <c r="J20" s="32">
         <v>44039</v>
       </c>
@@ -8875,8 +8874,8 @@
         <v>100.37724176365805</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="272"/>
+    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="279"/>
       <c r="B21" s="32">
         <v>44048</v>
       </c>
@@ -8899,7 +8898,7 @@
         <f t="shared" si="5"/>
         <v>43.108391704344136</v>
       </c>
-      <c r="I21" s="272"/>
+      <c r="I21" s="279"/>
       <c r="J21" s="32">
         <v>44048</v>
       </c>
@@ -8923,8 +8922,8 @@
         <v>116.79678786133688</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="272"/>
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="279"/>
       <c r="B22" s="32">
         <v>44054</v>
       </c>
@@ -8947,7 +8946,7 @@
         <f>IF(F22&gt;=5,G22,insufficient)</f>
         <v>38.422562505562567</v>
       </c>
-      <c r="I22" s="272"/>
+      <c r="I22" s="279"/>
       <c r="J22" s="32">
         <v>44054</v>
       </c>
@@ -8971,8 +8970,8 @@
         <v>79.439134437386485</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="272"/>
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="279"/>
       <c r="B23" s="32">
         <v>44061</v>
       </c>
@@ -8995,7 +8994,7 @@
         <f t="shared" si="5"/>
         <v>25.429614470037862</v>
       </c>
-      <c r="I23" s="272"/>
+      <c r="I23" s="279"/>
       <c r="J23" s="32">
         <v>44061</v>
       </c>
@@ -9019,8 +9018,8 @@
         <v>60.442516756167393</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="272" t="s">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="279" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="45">
@@ -9045,7 +9044,7 @@
         <f>IF(F24&gt;=5,G24,"Insufficient")</f>
         <v>Insufficient</v>
       </c>
-      <c r="I24" s="272" t="s">
+      <c r="I24" s="279" t="s">
         <v>6</v>
       </c>
       <c r="J24" s="45">
@@ -9073,8 +9072,8 @@
         <v>insufficient</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="272"/>
+    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="279"/>
       <c r="B25" s="32">
         <v>43986</v>
       </c>
@@ -9097,7 +9096,7 @@
         <f>IF(F25&gt;=5,G25,"Insufficient")</f>
         <v>Insufficient</v>
       </c>
-      <c r="I25" s="272"/>
+      <c r="I25" s="279"/>
       <c r="J25" s="32">
         <v>43986</v>
       </c>
@@ -9121,8 +9120,8 @@
         <v>insufficient</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="272"/>
+    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="279"/>
       <c r="B26" s="32">
         <v>43991</v>
       </c>
@@ -9145,7 +9144,7 @@
         <f>IF(F26&gt;=5,G26,"Insufficient")</f>
         <v>Insufficient</v>
       </c>
-      <c r="I26" s="272"/>
+      <c r="I26" s="279"/>
       <c r="J26" s="32">
         <v>43991</v>
       </c>
@@ -9169,8 +9168,8 @@
         <v>insufficient</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="272"/>
+    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="279"/>
       <c r="B27" s="32">
         <v>44000</v>
       </c>
@@ -9193,7 +9192,7 @@
         <f t="shared" ref="H27:H75" si="6">IF(F27&gt;=5,G27,"Insufficient")</f>
         <v>Insufficient</v>
       </c>
-      <c r="I27" s="272"/>
+      <c r="I27" s="279"/>
       <c r="J27" s="32">
         <v>44000</v>
       </c>
@@ -9217,8 +9216,8 @@
         <v>insufficient</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="272"/>
+    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="279"/>
       <c r="B28" s="32">
         <v>44005</v>
       </c>
@@ -9241,7 +9240,7 @@
         <f t="shared" si="6"/>
         <v>10.021665914008862</v>
       </c>
-      <c r="I28" s="272"/>
+      <c r="I28" s="279"/>
       <c r="J28" s="32">
         <v>44005</v>
       </c>
@@ -9265,8 +9264,8 @@
         <v>21.395811121327949</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="272"/>
+    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="279"/>
       <c r="B29" s="32">
         <v>44011</v>
       </c>
@@ -9289,7 +9288,7 @@
         <f t="shared" si="6"/>
         <v>10.021665914008862</v>
       </c>
-      <c r="I29" s="272"/>
+      <c r="I29" s="279"/>
       <c r="J29" s="32">
         <v>44011</v>
       </c>
@@ -9313,8 +9312,8 @@
         <v>14.346389045745395</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="272"/>
+    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="279"/>
       <c r="B30" s="32">
         <v>44019</v>
       </c>
@@ -9337,7 +9336,7 @@
         <f t="shared" si="6"/>
         <v>6.8403632691118492</v>
       </c>
-      <c r="I30" s="272"/>
+      <c r="I30" s="279"/>
       <c r="J30" s="32">
         <v>44019</v>
       </c>
@@ -9361,8 +9360,8 @@
         <v>8.8957975701987895</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="272"/>
+    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="279"/>
       <c r="B31" s="32">
         <v>44025</v>
       </c>
@@ -9385,7 +9384,7 @@
         <f t="shared" si="6"/>
         <v>6.2266602517197427</v>
       </c>
-      <c r="I31" s="272"/>
+      <c r="I31" s="279"/>
       <c r="J31" s="32">
         <v>44025</v>
       </c>
@@ -9409,8 +9408,8 @@
         <v>6.5228387904163379</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="272"/>
+    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="279"/>
       <c r="B32" s="32">
         <v>44032</v>
       </c>
@@ -9433,7 +9432,7 @@
         <f t="shared" si="6"/>
         <v>5.3345372167932004</v>
       </c>
-      <c r="I32" s="272"/>
+      <c r="I32" s="279"/>
       <c r="J32" s="32">
         <v>44032</v>
       </c>
@@ -9457,8 +9456,8 @@
         <v>9.6309229273197356</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="272"/>
+    <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="279"/>
       <c r="B33" s="32">
         <v>44039</v>
       </c>
@@ -9481,7 +9480,7 @@
         <f t="shared" si="6"/>
         <v>2.9925557394776896</v>
       </c>
-      <c r="I33" s="272"/>
+      <c r="I33" s="279"/>
       <c r="J33" s="32">
         <v>44039</v>
       </c>
@@ -9505,8 +9504,8 @@
         <v>12.159896986661952</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="272"/>
+    <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="279"/>
       <c r="B34" s="32">
         <v>44048</v>
       </c>
@@ -9529,7 +9528,7 @@
         <f t="shared" si="6"/>
         <v>5.3925349500948707</v>
       </c>
-      <c r="I34" s="272"/>
+      <c r="I34" s="279"/>
       <c r="J34" s="32">
         <v>44048</v>
       </c>
@@ -9553,8 +9552,8 @@
         <v>15.365186828730106</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="272"/>
+    <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="279"/>
       <c r="B35" s="32">
         <v>44054</v>
       </c>
@@ -9577,7 +9576,7 @@
         <f t="shared" si="6"/>
         <v>6.1943960264379951</v>
       </c>
-      <c r="I35" s="272"/>
+      <c r="I35" s="279"/>
       <c r="J35" s="32">
         <v>44054</v>
       </c>
@@ -9601,8 +9600,8 @@
         <v>18.876608443272278</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="272"/>
+    <row r="36" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="279"/>
       <c r="B36" s="32">
         <v>44061</v>
       </c>
@@ -9625,7 +9624,7 @@
         <f t="shared" si="6"/>
         <v>9.1442976680260948</v>
       </c>
-      <c r="I36" s="272"/>
+      <c r="I36" s="279"/>
       <c r="J36" s="32">
         <v>44061</v>
       </c>
@@ -9649,8 +9648,8 @@
         <v>20.327980051809416</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="272" t="s">
+    <row r="37" spans="1:16" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="279" t="s">
         <v>1</v>
       </c>
       <c r="B37" s="45">
@@ -9675,7 +9674,7 @@
         <f t="shared" si="6"/>
         <v>Insufficient</v>
       </c>
-      <c r="I37" s="272" t="s">
+      <c r="I37" s="279" t="s">
         <v>1</v>
       </c>
       <c r="J37" s="45">
@@ -9701,8 +9700,8 @@
         <v>insufficient</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="272"/>
+    <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="279"/>
       <c r="B38" s="32">
         <v>43986</v>
       </c>
@@ -9725,7 +9724,7 @@
         <f t="shared" si="6"/>
         <v>Insufficient</v>
       </c>
-      <c r="I38" s="272"/>
+      <c r="I38" s="279"/>
       <c r="J38" s="32">
         <v>43986</v>
       </c>
@@ -9749,8 +9748,8 @@
         <v>insufficient</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="272"/>
+    <row r="39" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="279"/>
       <c r="B39" s="32">
         <v>43991</v>
       </c>
@@ -9773,7 +9772,7 @@
         <f t="shared" si="6"/>
         <v>Insufficient</v>
       </c>
-      <c r="I39" s="272"/>
+      <c r="I39" s="279"/>
       <c r="J39" s="32">
         <v>43991</v>
       </c>
@@ -9797,8 +9796,8 @@
         <v>insufficient</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="272"/>
+    <row r="40" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="279"/>
       <c r="B40" s="32">
         <v>44000</v>
       </c>
@@ -9821,7 +9820,7 @@
         <f t="shared" si="6"/>
         <v>Insufficient</v>
       </c>
-      <c r="I40" s="272"/>
+      <c r="I40" s="279"/>
       <c r="J40" s="32">
         <v>44000</v>
       </c>
@@ -9845,8 +9844,8 @@
         <v>insufficient</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="272"/>
+    <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="279"/>
       <c r="B41" s="32">
         <v>44005</v>
       </c>
@@ -9869,7 +9868,7 @@
         <f t="shared" si="6"/>
         <v>1.8881750225898042</v>
       </c>
-      <c r="I41" s="272"/>
+      <c r="I41" s="279"/>
       <c r="J41" s="32">
         <v>44005</v>
       </c>
@@ -9893,8 +9892,8 @@
         <v>23.597632800122881</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="272"/>
+    <row r="42" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="279"/>
       <c r="B42" s="32">
         <v>44011</v>
       </c>
@@ -9917,7 +9916,7 @@
         <f t="shared" si="6"/>
         <v>1.8881750225898042</v>
       </c>
-      <c r="I42" s="272"/>
+      <c r="I42" s="279"/>
       <c r="J42" s="32">
         <v>44011</v>
       </c>
@@ -9941,8 +9940,8 @@
         <v>15.921997047504334</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="272"/>
+    <row r="43" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="279"/>
       <c r="B43" s="32">
         <v>44019</v>
       </c>
@@ -9965,7 +9964,7 @@
         <f t="shared" si="6"/>
         <v>1.6437518295172258</v>
       </c>
-      <c r="I43" s="272"/>
+      <c r="I43" s="279"/>
       <c r="J43" s="32">
         <v>44019</v>
       </c>
@@ -9989,8 +9988,8 @@
         <v>14.273331612887977</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="272"/>
+    <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="279"/>
       <c r="B44" s="32">
         <v>44025</v>
       </c>
@@ -10013,7 +10012,7 @@
         <f t="shared" si="6"/>
         <v>1.6437518295172258</v>
       </c>
-      <c r="I44" s="272"/>
+      <c r="I44" s="279"/>
       <c r="J44" s="32">
         <v>44025</v>
       </c>
@@ -10037,8 +10036,8 @@
         <v>10.288276478101775</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="272"/>
+    <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="279"/>
       <c r="B45" s="32">
         <v>44032</v>
       </c>
@@ -10061,7 +10060,7 @@
         <f t="shared" si="6"/>
         <v>1.6437518295172258</v>
       </c>
-      <c r="I45" s="272"/>
+      <c r="I45" s="279"/>
       <c r="J45" s="32">
         <v>44032</v>
       </c>
@@ -10085,8 +10084,8 @@
         <v>14.96051100207255</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="272"/>
+    <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="279"/>
       <c r="B46" s="32">
         <v>44039</v>
       </c>
@@ -10111,7 +10110,7 @@
         <f t="shared" si="6"/>
         <v>1.2457309396155174</v>
       </c>
-      <c r="I46" s="272"/>
+      <c r="I46" s="279"/>
       <c r="J46" s="32">
         <v>44039</v>
       </c>
@@ -10135,8 +10134,8 @@
         <v>8.8365559224036119</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="272"/>
+    <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="279"/>
       <c r="B47" s="32">
         <v>44048</v>
       </c>
@@ -10159,7 +10158,7 @@
         <f t="shared" si="6"/>
         <v>1.4309690811052556</v>
       </c>
-      <c r="I47" s="272"/>
+      <c r="I47" s="279"/>
       <c r="J47" s="32">
         <v>44048</v>
       </c>
@@ -10183,8 +10182,8 @@
         <v>8.2457653775279294</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="272"/>
+    <row r="48" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="279"/>
       <c r="B48" s="32">
         <v>44054</v>
       </c>
@@ -10209,7 +10208,7 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="I48" s="272"/>
+      <c r="I48" s="279"/>
       <c r="J48" s="32">
         <v>44054</v>
       </c>
@@ -10233,8 +10232,8 @@
         <v>6.0127696040083451</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="272"/>
+    <row r="49" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="279"/>
       <c r="B49" s="32">
         <v>44061</v>
       </c>
@@ -10257,7 +10256,7 @@
         <f t="shared" si="6"/>
         <v>1.4142135623730949</v>
       </c>
-      <c r="I49" s="272"/>
+      <c r="I49" s="279"/>
       <c r="J49" s="32">
         <v>44061</v>
       </c>
@@ -10281,8 +10280,8 @@
         <v>7.1633605575943573</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="272" t="s">
+    <row r="50" spans="1:16" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="279" t="s">
         <v>2</v>
       </c>
       <c r="B50" s="45">
@@ -10309,7 +10308,7 @@
         <f t="shared" si="6"/>
         <v>Insufficient</v>
       </c>
-      <c r="I50" s="272" t="s">
+      <c r="I50" s="279" t="s">
         <v>2</v>
       </c>
       <c r="J50" s="45">
@@ -10335,8 +10334,8 @@
         <v>insufficient</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="272"/>
+    <row r="51" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="279"/>
       <c r="B51" s="32">
         <v>43986</v>
       </c>
@@ -10359,7 +10358,7 @@
         <f t="shared" si="6"/>
         <v>Insufficient</v>
       </c>
-      <c r="I51" s="272"/>
+      <c r="I51" s="279"/>
       <c r="J51" s="32">
         <v>43986</v>
       </c>
@@ -10383,8 +10382,8 @@
         <v>insufficient</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="272"/>
+    <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="279"/>
       <c r="B52" s="32">
         <v>43991</v>
       </c>
@@ -10407,7 +10406,7 @@
         <f t="shared" si="6"/>
         <v>Insufficient</v>
       </c>
-      <c r="I52" s="272"/>
+      <c r="I52" s="279"/>
       <c r="J52" s="32">
         <v>43991</v>
       </c>
@@ -10431,8 +10430,8 @@
         <v>insufficient</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="272"/>
+    <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="279"/>
       <c r="B53" s="32">
         <v>44000</v>
       </c>
@@ -10455,7 +10454,7 @@
         <f t="shared" si="6"/>
         <v>Insufficient</v>
       </c>
-      <c r="I53" s="272"/>
+      <c r="I53" s="279"/>
       <c r="J53" s="32">
         <v>44000</v>
       </c>
@@ -10479,8 +10478,8 @@
         <v>insufficient</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="272"/>
+    <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="279"/>
       <c r="B54" s="32">
         <v>44005</v>
       </c>
@@ -10503,7 +10502,7 @@
         <f t="shared" si="6"/>
         <v>3.7880780662300646</v>
       </c>
-      <c r="I54" s="272"/>
+      <c r="I54" s="279"/>
       <c r="J54" s="32">
         <v>44005</v>
       </c>
@@ -10527,8 +10526,8 @@
         <v>22.644350588563061</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="272"/>
+    <row r="55" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="279"/>
       <c r="B55" s="32">
         <v>44011</v>
       </c>
@@ -10551,7 +10550,7 @@
         <f t="shared" si="6"/>
         <v>7.5761561324601292</v>
       </c>
-      <c r="I55" s="272"/>
+      <c r="I55" s="279"/>
       <c r="J55" s="32">
         <v>44011</v>
       </c>
@@ -10575,8 +10574,8 @@
         <v>38.215560608406783</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="272"/>
+    <row r="56" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="279"/>
       <c r="B56" s="32">
         <v>44019</v>
       </c>
@@ -10599,7 +10598,7 @@
         <f t="shared" si="6"/>
         <v>8.5212521625421758</v>
       </c>
-      <c r="I56" s="272"/>
+      <c r="I56" s="279"/>
       <c r="J56" s="32">
         <v>44019</v>
       </c>
@@ -10623,8 +10622,8 @@
         <v>56.397498701176701</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="272"/>
+    <row r="57" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="279"/>
       <c r="B57" s="32">
         <v>44025</v>
       </c>
@@ -10647,7 +10646,7 @@
         <f t="shared" si="6"/>
         <v>6.8403632691118492</v>
       </c>
-      <c r="I57" s="272"/>
+      <c r="I57" s="279"/>
       <c r="J57" s="32">
         <v>44025</v>
       </c>
@@ -10671,8 +10670,8 @@
         <v>76.213159664643086</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="272"/>
+    <row r="58" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="279"/>
       <c r="B58" s="32">
         <v>44032</v>
       </c>
@@ -10695,7 +10694,7 @@
         <f t="shared" si="6"/>
         <v>10.368051927942053</v>
       </c>
-      <c r="I58" s="272"/>
+      <c r="I58" s="279"/>
       <c r="J58" s="32">
         <v>44032</v>
       </c>
@@ -10719,8 +10718,8 @@
         <v>105.51446060687503</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="272"/>
+    <row r="59" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="279"/>
       <c r="B59" s="32">
         <v>44039</v>
       </c>
@@ -10743,7 +10742,7 @@
         <f t="shared" si="6"/>
         <v>8.8825721396916801</v>
       </c>
-      <c r="I59" s="272"/>
+      <c r="I59" s="279"/>
       <c r="J59" s="32">
         <v>44039</v>
       </c>
@@ -10767,8 +10766,8 @@
         <v>62.787052924838868</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="272"/>
+    <row r="60" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="279"/>
       <c r="B60" s="32">
         <v>44048</v>
       </c>
@@ -10791,7 +10790,7 @@
         <f t="shared" si="6"/>
         <v>8.2412537011387155</v>
       </c>
-      <c r="I60" s="272"/>
+      <c r="I60" s="279"/>
       <c r="J60" s="32">
         <v>44048</v>
       </c>
@@ -10815,8 +10814,8 @@
         <v>61.287412753200151</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="272"/>
+    <row r="61" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="279"/>
       <c r="B61" s="32">
         <v>44054</v>
       </c>
@@ -10841,7 +10840,7 @@
         <f t="shared" si="6"/>
         <v>4.0246932341711164</v>
       </c>
-      <c r="I61" s="272"/>
+      <c r="I61" s="279"/>
       <c r="J61" s="32">
         <v>44054</v>
       </c>
@@ -10865,8 +10864,8 @@
         <v>33.521333078293225</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="272"/>
+    <row r="62" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="279"/>
       <c r="B62" s="32">
         <v>44061</v>
       </c>
@@ -10889,7 +10888,7 @@
         <f t="shared" si="6"/>
         <v>5.9112444053102982</v>
       </c>
-      <c r="I62" s="272"/>
+      <c r="I62" s="279"/>
       <c r="J62" s="32">
         <v>44061</v>
       </c>
@@ -10913,8 +10912,8 @@
         <v>45.226628691318233</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="289" t="s">
+    <row r="63" spans="1:16" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="296" t="s">
         <v>3</v>
       </c>
       <c r="B63" s="45">
@@ -10941,7 +10940,7 @@
         <f t="shared" si="6"/>
         <v>Insufficient</v>
       </c>
-      <c r="I63" s="289" t="s">
+      <c r="I63" s="296" t="s">
         <v>3</v>
       </c>
       <c r="J63" s="45">
@@ -10967,8 +10966,8 @@
         <v>insufficient</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="289"/>
+    <row r="64" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="296"/>
       <c r="B64" s="32">
         <v>43986</v>
       </c>
@@ -10991,7 +10990,7 @@
         <f t="shared" si="6"/>
         <v>Insufficient</v>
       </c>
-      <c r="I64" s="289"/>
+      <c r="I64" s="296"/>
       <c r="J64" s="32">
         <v>43986</v>
       </c>
@@ -11015,8 +11014,8 @@
         <v>insufficient</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="289"/>
+    <row r="65" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="296"/>
       <c r="B65" s="32">
         <v>43991</v>
       </c>
@@ -11041,7 +11040,7 @@
         <f t="shared" si="6"/>
         <v>Insufficient</v>
       </c>
-      <c r="I65" s="289"/>
+      <c r="I65" s="296"/>
       <c r="J65" s="32">
         <v>43991</v>
       </c>
@@ -11065,8 +11064,8 @@
         <v>insufficient</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="289"/>
+    <row r="66" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="296"/>
       <c r="B66" s="32">
         <v>44000</v>
       </c>
@@ -11089,7 +11088,7 @@
         <f t="shared" si="6"/>
         <v>Insufficient</v>
       </c>
-      <c r="I66" s="289"/>
+      <c r="I66" s="296"/>
       <c r="J66" s="32">
         <v>44000</v>
       </c>
@@ -11113,8 +11112,8 @@
         <v>insufficient</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A67" s="289"/>
+    <row r="67" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67" s="296"/>
       <c r="B67" s="32">
         <v>44005</v>
       </c>
@@ -11137,7 +11136,7 @@
         <f t="shared" si="6"/>
         <v>2.8314850804230636</v>
       </c>
-      <c r="I67" s="289"/>
+      <c r="I67" s="296"/>
       <c r="J67" s="32">
         <v>44005</v>
       </c>
@@ -11161,8 +11160,8 @@
         <v>17.641925344776748</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A68" s="289"/>
+    <row r="68" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" s="296"/>
       <c r="B68" s="32">
         <v>44011</v>
       </c>
@@ -11187,7 +11186,7 @@
         <f t="shared" si="6"/>
         <v>2.8314850804230636</v>
       </c>
-      <c r="I68" s="289"/>
+      <c r="I68" s="296"/>
       <c r="J68" s="32">
         <v>44011</v>
       </c>
@@ -11211,8 +11210,8 @@
         <v>12.6165197514936</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A69" s="289"/>
+    <row r="69" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" s="296"/>
       <c r="B69" s="32">
         <v>44019</v>
       </c>
@@ -11235,7 +11234,7 @@
         <f t="shared" si="6"/>
         <v>3.9818676015813006</v>
       </c>
-      <c r="I69" s="289"/>
+      <c r="I69" s="296"/>
       <c r="J69" s="32">
         <v>44019</v>
       </c>
@@ -11259,8 +11258,8 @@
         <v>17.661882170535574</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A70" s="289"/>
+    <row r="70" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A70" s="296"/>
       <c r="B70" s="32">
         <v>44025</v>
       </c>
@@ -11283,7 +11282,7 @@
         <f t="shared" si="6"/>
         <v>4.5739647637524294</v>
       </c>
-      <c r="I70" s="289"/>
+      <c r="I70" s="296"/>
       <c r="J70" s="32">
         <v>44025</v>
       </c>
@@ -11307,8 +11306,8 @@
         <v>13.526696144976201</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A71" s="289"/>
+    <row r="71" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71" s="296"/>
       <c r="B71" s="32">
         <v>44032</v>
       </c>
@@ -11331,7 +11330,7 @@
         <f t="shared" si="6"/>
         <v>5.1706648945764728</v>
       </c>
-      <c r="I71" s="289"/>
+      <c r="I71" s="296"/>
       <c r="J71" s="32">
         <v>44032</v>
       </c>
@@ -11355,8 +11354,8 @@
         <v>17.738169422210554</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A72" s="289"/>
+    <row r="72" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A72" s="296"/>
       <c r="B72" s="32">
         <v>44039</v>
       </c>
@@ -11379,7 +11378,7 @@
         <f t="shared" si="6"/>
         <v>3.7996626191740397</v>
       </c>
-      <c r="I72" s="289"/>
+      <c r="I72" s="296"/>
       <c r="J72" s="32">
         <v>44039</v>
       </c>
@@ -11403,8 +11402,8 @@
         <v>18.171205928321395</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A73" s="289"/>
+    <row r="73" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A73" s="296"/>
       <c r="B73" s="32">
         <v>44048</v>
       </c>
@@ -11427,7 +11426,7 @@
         <f t="shared" si="6"/>
         <v>6.6155968669143732</v>
       </c>
-      <c r="I73" s="289"/>
+      <c r="I73" s="296"/>
       <c r="J73" s="32">
         <v>44048</v>
       </c>
@@ -11451,8 +11450,8 @@
         <v>20.42383588585367</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A74" s="289"/>
+    <row r="74" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A74" s="296"/>
       <c r="B74" s="32">
         <v>44054</v>
       </c>
@@ -11475,7 +11474,7 @@
         <f t="shared" si="6"/>
         <v>4.0953450221584387</v>
       </c>
-      <c r="I74" s="289"/>
+      <c r="I74" s="296"/>
       <c r="J74" s="32">
         <v>44054</v>
       </c>
@@ -11499,8 +11498,8 @@
         <v>20.130778478807645</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="290"/>
+    <row r="75" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="297"/>
       <c r="B75" s="32">
         <v>44061</v>
       </c>
@@ -11523,7 +11522,7 @@
         <f t="shared" si="6"/>
         <v>6.3086842910598087</v>
       </c>
-      <c r="I75" s="290"/>
+      <c r="I75" s="297"/>
       <c r="J75" s="44">
         <v>44061</v>
       </c>
@@ -11547,7 +11546,7 @@
         <v>22.642014848563427</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="H76" s="79"/>
       <c r="P76" s="79"/>
     </row>
@@ -11594,37 +11593,37 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
-    <col min="4" max="4" width="24.88671875" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="175" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="182" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="176" t="s">
+    <row r="3" spans="1:5" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="183" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="177"/>
-      <c r="E3" s="178"/>
-    </row>
-    <row r="4" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="184"/>
+      <c r="E3" s="185"/>
+    </row>
+    <row r="4" spans="1:5" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>48</v>
       </c>
@@ -11641,8 +11640,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="179">
+    <row r="5" spans="1:5" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="186">
         <v>44005</v>
       </c>
       <c r="B5" s="163" t="s">
@@ -11658,8 +11657,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="180"/>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="187"/>
       <c r="B6" s="83" t="s">
         <v>6</v>
       </c>
@@ -11673,8 +11672,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="180"/>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="187"/>
       <c r="B7" s="83" t="s">
         <v>1</v>
       </c>
@@ -11688,8 +11687,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="180"/>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="187"/>
       <c r="B8" s="83" t="s">
         <v>2</v>
       </c>
@@ -11703,8 +11702,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="181"/>
+    <row r="9" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="188"/>
       <c r="B9" s="164" t="s">
         <v>3</v>
       </c>
@@ -11718,8 +11717,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="182">
+    <row r="10" spans="1:5" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="189">
         <v>44032</v>
       </c>
       <c r="B10" s="165" t="s">
@@ -11735,8 +11734,8 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="180"/>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="187"/>
       <c r="B11" s="83" t="s">
         <v>6</v>
       </c>
@@ -11750,8 +11749,8 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="180"/>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="187"/>
       <c r="B12" s="83" t="s">
         <v>1</v>
       </c>
@@ -11765,8 +11764,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="180"/>
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="187"/>
       <c r="B13" s="83" t="s">
         <v>2</v>
       </c>
@@ -11780,8 +11779,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="183"/>
+    <row r="14" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="190"/>
       <c r="B14" s="164" t="s">
         <v>3</v>
       </c>
@@ -11795,25 +11794,25 @@
         <v>629</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="184" t="s">
+    <row r="15" spans="1:5" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="191" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="185"/>
-      <c r="C15" s="185"/>
-      <c r="D15" s="185"/>
-      <c r="E15" s="186"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="172" t="s">
+      <c r="B15" s="192"/>
+      <c r="C15" s="192"/>
+      <c r="D15" s="192"/>
+      <c r="E15" s="193"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="179" t="s">
         <v>98</v>
       </c>
-      <c r="B16" s="173"/>
-      <c r="C16" s="173"/>
-      <c r="D16" s="173"/>
-      <c r="E16" s="174"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="180"/>
+      <c r="C16" s="180"/>
+      <c r="D16" s="180"/>
+      <c r="E16" s="181"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="108"/>
       <c r="B17" s="108"/>
       <c r="C17" s="108"/>
@@ -11842,15 +11841,15 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="168" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="168" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="166" t="s">
         <v>60</v>
       </c>
@@ -11867,7 +11866,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="168" t="s">
         <v>160</v>
       </c>
@@ -11884,7 +11883,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="168" t="s">
         <v>161</v>
       </c>
@@ -11901,7 +11900,7 @@
         <v>4088</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="168" t="s">
         <v>162</v>
       </c>
@@ -11918,7 +11917,7 @@
         <v>4880</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="168" t="s">
         <v>163</v>
       </c>
@@ -11935,7 +11934,7 @@
         <v>8652</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="168" t="s">
         <v>164</v>
       </c>
@@ -11952,7 +11951,7 @@
         <v>8833</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="168" t="s">
         <v>165</v>
       </c>
@@ -11969,7 +11968,7 @@
         <v>5676</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="168" t="s">
         <v>166</v>
       </c>
@@ -11986,7 +11985,7 @@
         <v>9688</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="168" t="s">
         <v>167</v>
       </c>
@@ -12003,7 +12002,7 @@
         <v>12138</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="168" t="s">
         <v>168</v>
       </c>
@@ -12020,7 +12019,7 @@
         <v>17946</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="168" t="s">
         <v>169</v>
       </c>
@@ -12037,7 +12036,7 @@
         <v>19932</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="168" t="s">
         <v>170</v>
       </c>
@@ -12054,7 +12053,7 @@
         <v>9390</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="168" t="s">
         <v>171</v>
       </c>
@@ -12071,7 +12070,7 @@
         <v>11330</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="168" t="s">
         <v>172</v>
       </c>
@@ -12088,7 +12087,7 @@
         <v>8346</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="168" t="s">
         <v>173</v>
       </c>
@@ -12105,7 +12104,7 @@
         <v>6565</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="168" t="s">
         <v>174</v>
       </c>
@@ -12122,7 +12121,7 @@
         <v>9180</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="168" t="s">
         <v>175</v>
       </c>
@@ -12139,7 +12138,7 @@
         <v>10185</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="168" t="s">
         <v>176</v>
       </c>
@@ -12156,7 +12155,7 @@
         <v>30081</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="168" t="s">
         <v>177</v>
       </c>
@@ -12173,7 +12172,7 @@
         <v>30486</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="168" t="s">
         <v>178</v>
       </c>
@@ -12190,7 +12189,7 @@
         <v>24480</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="168" t="s">
         <v>179</v>
       </c>
@@ -12207,7 +12206,7 @@
         <v>29730</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="168" t="s">
         <v>180</v>
       </c>
@@ -12224,7 +12223,7 @@
         <v>27450</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="168" t="s">
         <v>181</v>
       </c>
@@ -12241,7 +12240,7 @@
         <v>14280</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="168" t="s">
         <v>182</v>
       </c>
@@ -12258,7 +12257,7 @@
         <v>27864</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="168" t="s">
         <v>183</v>
       </c>
@@ -12275,7 +12274,7 @@
         <v>48467</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="168" t="s">
         <v>184</v>
       </c>
@@ -12292,7 +12291,7 @@
         <v>59951</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="168" t="s">
         <v>185</v>
       </c>
@@ -12309,7 +12308,7 @@
         <v>71904</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="168" t="s">
         <v>186</v>
       </c>
@@ -12326,7 +12325,7 @@
         <v>66624</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="168" t="s">
         <v>187</v>
       </c>
@@ -12343,7 +12342,7 @@
         <v>53887</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="168" t="s">
         <v>188</v>
       </c>
@@ -12360,7 +12359,7 @@
         <v>56765</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="168" t="s">
         <v>189</v>
       </c>
@@ -12377,7 +12376,7 @@
         <v>25104</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="168" t="s">
         <v>190</v>
       </c>
@@ -12394,7 +12393,7 @@
         <v>30523</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="168" t="s">
         <v>191</v>
       </c>
@@ -12411,7 +12410,7 @@
         <v>30222</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="168" t="s">
         <v>192</v>
       </c>
@@ -12428,7 +12427,7 @@
         <v>13064</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="168" t="s">
         <v>193</v>
       </c>
@@ -12445,7 +12444,7 @@
         <v>23180</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="168" t="s">
         <v>194</v>
       </c>
@@ -12462,7 +12461,7 @@
         <v>20405</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="168" t="s">
         <v>195</v>
       </c>
@@ -12479,7 +12478,7 @@
         <v>17137</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="168" t="s">
         <v>196</v>
       </c>
@@ -12496,7 +12495,7 @@
         <v>32544</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="168" t="s">
         <v>197</v>
       </c>
@@ -12513,7 +12512,7 @@
         <v>56283</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="168" t="s">
         <v>198</v>
       </c>
@@ -12530,7 +12529,7 @@
         <v>30678</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="168" t="s">
         <v>199</v>
       </c>
@@ -12547,7 +12546,7 @@
         <v>13072</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="168" t="s">
         <v>200</v>
       </c>
@@ -12564,7 +12563,7 @@
         <v>8620</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="168" t="s">
         <v>201</v>
       </c>
@@ -12581,7 +12580,7 @@
         <v>13168</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="168" t="s">
         <v>202</v>
       </c>
@@ -12598,7 +12597,7 @@
         <v>18558</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="168" t="s">
         <v>203</v>
       </c>
@@ -12615,7 +12614,7 @@
         <v>30833</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="168" t="s">
         <v>204</v>
       </c>
@@ -12632,7 +12631,7 @@
         <v>35256</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="168" t="s">
         <v>205</v>
       </c>
@@ -12649,7 +12648,7 @@
         <v>21046</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="168" t="s">
         <v>206</v>
       </c>
@@ -12666,7 +12665,7 @@
         <v>16629</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="168" t="s">
         <v>207</v>
       </c>
@@ -12683,7 +12682,7 @@
         <v>30362</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="168" t="s">
         <v>208</v>
       </c>
@@ -12700,7 +12699,7 @@
         <v>33151</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="168" t="s">
         <v>209</v>
       </c>
@@ -12717,7 +12716,7 @@
         <v>32187</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="168" t="s">
         <v>210</v>
       </c>
@@ -12731,7 +12730,7 @@
         <v>23203</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="168" t="s">
         <v>211</v>
       </c>
@@ -12745,7 +12744,7 @@
         <v>20586</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="168" t="s">
         <v>212</v>
       </c>
@@ -12759,7 +12758,7 @@
         <v>12087</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="168" t="s">
         <v>213</v>
       </c>
@@ -12773,7 +12772,7 @@
         <v>12268</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="168" t="s">
         <v>214</v>
       </c>
@@ -12787,7 +12786,7 @@
         <v>16610</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="168" t="s">
         <v>215</v>
       </c>
@@ -12797,7 +12796,7 @@
         <v>19651</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="168" t="s">
         <v>216</v>
       </c>
@@ -12805,7 +12804,7 @@
         <v>7795</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="168" t="s">
         <v>217</v>
       </c>
@@ -12813,7 +12812,7 @@
         <v>9351</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="168" t="s">
         <v>218</v>
       </c>
@@ -12835,32 +12834,32 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="39" style="1" customWidth="1"/>
-    <col min="4" max="4" width="74.109375" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" customWidth="1"/>
-    <col min="6" max="6" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="74.140625" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="187" t="s">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="194" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="188" t="s">
+      <c r="B1" s="194"/>
+      <c r="C1" s="194"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="190"/>
+      <c r="B2" s="196"/>
+      <c r="C2" s="197"/>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
       <c r="B3" s="20" t="s">
         <v>24</v>
@@ -12869,7 +12868,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="84" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="90.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>88</v>
       </c>
@@ -12878,7 +12877,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="83.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="130" t="s">
         <v>89</v>
       </c>
@@ -12887,8 +12886,8 @@
       </c>
       <c r="C5" s="25"/>
     </row>
-    <row r="6" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="195" t="s">
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="202" t="s">
         <v>90</v>
       </c>
       <c r="B6" s="26" t="s">
@@ -12896,85 +12895,85 @@
       </c>
       <c r="C6" s="28"/>
     </row>
-    <row r="7" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="196"/>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="203"/>
       <c r="B7" s="27" t="s">
         <v>38</v>
       </c>
       <c r="C7" s="29"/>
     </row>
-    <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="196"/>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="203"/>
       <c r="B8" s="27" t="s">
         <v>39</v>
       </c>
       <c r="C8" s="29"/>
     </row>
-    <row r="9" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="196"/>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="203"/>
       <c r="B9" s="27" t="s">
         <v>40</v>
       </c>
       <c r="C9" s="29"/>
     </row>
-    <row r="10" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="197"/>
+    <row r="10" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="204"/>
       <c r="B10" s="112" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="30"/>
     </row>
-    <row r="11" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="198" t="s">
+    <row r="11" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="205" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="199"/>
-      <c r="C11" s="200"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="201" t="s">
+      <c r="B11" s="206"/>
+      <c r="C11" s="207"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="208" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="202"/>
-      <c r="C12" s="203"/>
-    </row>
-    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="210" t="s">
+      <c r="B12" s="209"/>
+      <c r="C12" s="210"/>
+    </row>
+    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="217" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="211"/>
-      <c r="C13" s="212"/>
-    </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="204" t="s">
+      <c r="B13" s="218"/>
+      <c r="C13" s="219"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="211" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="205"/>
-      <c r="C14" s="206"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="207" t="s">
+      <c r="B14" s="212"/>
+      <c r="C14" s="213"/>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="214" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="208"/>
-      <c r="C15" s="209"/>
-    </row>
-    <row r="16" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D22" s="191" t="s">
+      <c r="B15" s="215"/>
+      <c r="C15" s="216"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="191"/>
-      <c r="F22" s="191"/>
-    </row>
-    <row r="23" spans="4:6" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D23" s="192" t="s">
+      <c r="E22" s="198"/>
+      <c r="F22" s="198"/>
+    </row>
+    <row r="23" spans="4:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="199" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="193"/>
-      <c r="F23" s="194"/>
-    </row>
-    <row r="24" spans="4:6" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="200"/>
+      <c r="F23" s="201"/>
+    </row>
+    <row r="24" spans="4:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D24" s="9"/>
       <c r="E24" s="10" t="s">
         <v>28</v>
@@ -12983,7 +12982,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="4:6" ht="79.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:6" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D25" s="12" t="s">
         <v>30</v>
       </c>
@@ -12994,7 +12993,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="4:6" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:6" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D26" s="15" t="s">
         <v>33</v>
       </c>
@@ -13005,7 +13004,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="4:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D27" s="18" t="s">
         <v>36</v>
       </c>
@@ -13033,162 +13032,162 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.109375" style="297" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" style="175" customWidth="1"/>
     <col min="2" max="2" width="11" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="34.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="20" style="3" customWidth="1"/>
-    <col min="6" max="6" width="29.77734375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="23.88671875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="23.21875" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="111" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="297" t="s">
+    <row r="1" spans="1:8" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="175" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="297" t="s">
+      <c r="B1" s="175" t="s">
         <v>222</v>
       </c>
-      <c r="C1" s="297" t="s">
+      <c r="C1" s="175" t="s">
         <v>224</v>
       </c>
-      <c r="D1" s="297" t="s">
+      <c r="D1" s="175" t="s">
         <v>239</v>
       </c>
-      <c r="E1" s="297" t="s">
+      <c r="E1" s="175" t="s">
         <v>226</v>
       </c>
-      <c r="F1" s="297" t="s">
+      <c r="F1" s="175" t="s">
         <v>225</v>
       </c>
-      <c r="G1" s="297" t="s">
+      <c r="G1" s="175" t="s">
         <v>232</v>
       </c>
       <c r="H1" s="111" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="42" customFormat="1" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="294" t="s">
+    <row r="2" spans="1:8" s="42" customFormat="1" ht="85.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="172" t="s">
         <v>237</v>
       </c>
-      <c r="B2" s="295" t="s">
+      <c r="B2" s="173" t="s">
         <v>223</v>
       </c>
-      <c r="C2" s="295" t="s">
+      <c r="C2" s="173" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="296" t="s">
+      <c r="D2" s="174" t="s">
         <v>236</v>
       </c>
-      <c r="E2" s="295" t="s">
+      <c r="E2" s="173" t="s">
         <v>242</v>
       </c>
-      <c r="F2" s="295" t="s">
+      <c r="F2" s="173" t="s">
         <v>243</v>
       </c>
-      <c r="G2" s="295" t="s">
+      <c r="G2" s="173" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="42" customFormat="1" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="294" t="s">
+    <row r="3" spans="1:8" s="42" customFormat="1" ht="68.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="172" t="s">
         <v>238</v>
       </c>
-      <c r="B3" s="295" t="s">
+      <c r="B3" s="173" t="s">
         <v>229</v>
       </c>
       <c r="C3" s="42" t="s">
         <v>228</v>
       </c>
-      <c r="D3" s="295" t="s">
+      <c r="D3" s="173" t="s">
         <v>230</v>
       </c>
-      <c r="E3" s="295" t="s">
+      <c r="E3" s="173" t="s">
         <v>244</v>
       </c>
-      <c r="F3" s="295" t="s">
+      <c r="F3" s="173" t="s">
         <v>245</v>
       </c>
-      <c r="G3" s="295" t="s">
+      <c r="G3" s="173" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="42" customFormat="1" ht="127.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="294" t="s">
+    <row r="4" spans="1:8" s="42" customFormat="1" ht="127.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="172" t="s">
         <v>233</v>
       </c>
-      <c r="B4" s="295" t="s">
+      <c r="B4" s="173" t="s">
         <v>234</v>
       </c>
-      <c r="C4" s="295" t="s">
+      <c r="C4" s="173" t="s">
         <v>228</v>
       </c>
-      <c r="D4" s="296" t="s">
+      <c r="D4" s="174" t="s">
         <v>235</v>
       </c>
-      <c r="E4" s="295"/>
-      <c r="F4" s="295" t="s">
+      <c r="E4" s="173"/>
+      <c r="F4" s="173" t="s">
         <v>241</v>
       </c>
-      <c r="G4" s="295" t="s">
+      <c r="G4" s="173" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="298"/>
-      <c r="B5" s="295"/>
-      <c r="C5" s="295"/>
-      <c r="D5" s="295"/>
-      <c r="E5" s="295"/>
-      <c r="F5" s="295"/>
-      <c r="G5" s="295"/>
-    </row>
-    <row r="6" spans="1:8" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="300" t="s">
+    <row r="5" spans="1:8" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="176"/>
+      <c r="B5" s="173"/>
+      <c r="C5" s="173"/>
+      <c r="D5" s="173"/>
+      <c r="E5" s="173"/>
+      <c r="F5" s="173"/>
+      <c r="G5" s="173"/>
+    </row>
+    <row r="6" spans="1:8" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="178" t="s">
         <v>240</v>
       </c>
-      <c r="B6" s="295"/>
-      <c r="C6" s="295"/>
-      <c r="D6" s="295"/>
-      <c r="E6" s="295"/>
-      <c r="F6" s="295"/>
-      <c r="G6" s="295"/>
-    </row>
-    <row r="7" spans="1:8" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="298"/>
-      <c r="B7" s="295"/>
-      <c r="C7" s="295"/>
-      <c r="D7" s="295"/>
-      <c r="E7" s="295"/>
-      <c r="F7" s="295"/>
-      <c r="G7" s="295"/>
-    </row>
-    <row r="8" spans="1:8" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="298"/>
-      <c r="B8" s="295"/>
-      <c r="C8" s="295"/>
-      <c r="D8" s="295"/>
-      <c r="E8" s="295"/>
-      <c r="F8" s="295"/>
-      <c r="G8" s="295"/>
-    </row>
-    <row r="9" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="299"/>
-      <c r="B9" s="295"/>
-      <c r="C9" s="295"/>
-      <c r="D9" s="295"/>
-      <c r="E9" s="295"/>
-      <c r="F9" s="295"/>
-      <c r="G9" s="295"/>
+      <c r="B6" s="173"/>
+      <c r="C6" s="173"/>
+      <c r="D6" s="173"/>
+      <c r="E6" s="173"/>
+      <c r="F6" s="173"/>
+      <c r="G6" s="173"/>
+    </row>
+    <row r="7" spans="1:8" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="176"/>
+      <c r="B7" s="173"/>
+      <c r="C7" s="173"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="173"/>
+      <c r="F7" s="173"/>
+      <c r="G7" s="173"/>
+    </row>
+    <row r="8" spans="1:8" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="176"/>
+      <c r="B8" s="173"/>
+      <c r="C8" s="173"/>
+      <c r="D8" s="173"/>
+      <c r="E8" s="173"/>
+      <c r="F8" s="173"/>
+      <c r="G8" s="173"/>
+    </row>
+    <row r="9" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="177"/>
+      <c r="B9" s="173"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="173"/>
+      <c r="E9" s="173"/>
+      <c r="F9" s="173"/>
+      <c r="G9" s="173"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13198,32 +13197,32 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="51" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="3"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="213" t="s">
+    <row r="1" spans="1:9" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="220" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="213"/>
-      <c r="C1" s="213"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="213"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="151" t="s">
         <v>13</v>
       </c>
@@ -13240,7 +13239,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="147" t="s">
         <v>14</v>
       </c>
@@ -13257,7 +13256,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="142" t="s">
         <v>16</v>
       </c>
@@ -13273,13 +13272,16 @@
       <c r="E4" s="141" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="142" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="6">
         <v>60.5366</v>
@@ -13291,7 +13293,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="142" t="s">
         <v>17</v>
       </c>
@@ -13308,7 +13310,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="143" t="s">
         <v>18</v>
       </c>
@@ -13325,7 +13327,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
@@ -13344,88 +13346,88 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="175" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="182" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
-      <c r="I1" s="175"/>
-      <c r="J1" s="175"/>
-      <c r="K1" s="175"/>
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="182"/>
+      <c r="I1" s="182"/>
+      <c r="J1" s="182"/>
+      <c r="K1" s="182"/>
       <c r="O1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="226" t="s">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="233" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="227"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="227"/>
-      <c r="F3" s="227"/>
-      <c r="G3" s="227"/>
-      <c r="H3" s="227"/>
-      <c r="I3" s="227"/>
-      <c r="J3" s="227"/>
-      <c r="K3" s="228"/>
-    </row>
-    <row r="4" spans="1:15" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="234"/>
+      <c r="C3" s="234"/>
+      <c r="D3" s="234"/>
+      <c r="E3" s="234"/>
+      <c r="F3" s="234"/>
+      <c r="G3" s="234"/>
+      <c r="H3" s="234"/>
+      <c r="I3" s="234"/>
+      <c r="J3" s="234"/>
+      <c r="K3" s="235"/>
+    </row>
+    <row r="4" spans="1:15" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35"/>
-      <c r="B4" s="229" t="s">
+      <c r="B4" s="236" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="230"/>
-      <c r="D4" s="229" t="s">
+      <c r="C4" s="237"/>
+      <c r="D4" s="236" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="230"/>
-      <c r="F4" s="231" t="s">
+      <c r="E4" s="237"/>
+      <c r="F4" s="238" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="232"/>
-      <c r="H4" s="229" t="s">
+      <c r="G4" s="239"/>
+      <c r="H4" s="236" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="230"/>
-      <c r="J4" s="229" t="s">
+      <c r="I4" s="237"/>
+      <c r="J4" s="236" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="233"/>
-    </row>
-    <row r="5" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="K4" s="240"/>
+    </row>
+    <row r="5" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A5" s="81" t="s">
         <v>0</v>
       </c>
@@ -13460,7 +13462,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="156">
         <v>43977</v>
       </c>
@@ -13495,7 +13497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="87">
         <v>43986</v>
       </c>
@@ -13530,7 +13532,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="87">
         <v>43991</v>
       </c>
@@ -13565,7 +13567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="87">
         <v>44000</v>
       </c>
@@ -13600,7 +13602,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="87">
         <v>44005</v>
       </c>
@@ -13635,7 +13637,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="87">
         <v>44011</v>
       </c>
@@ -13670,7 +13672,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="87">
         <v>44019</v>
       </c>
@@ -13705,24 +13707,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="85">
         <v>44022</v>
       </c>
-      <c r="B13" s="216" t="s">
+      <c r="B13" s="223" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="217"/>
-      <c r="D13" s="217"/>
-      <c r="E13" s="217"/>
-      <c r="F13" s="217"/>
-      <c r="G13" s="217"/>
-      <c r="H13" s="217"/>
-      <c r="I13" s="217"/>
-      <c r="J13" s="217"/>
-      <c r="K13" s="218"/>
-    </row>
-    <row r="14" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="224"/>
+      <c r="D13" s="224"/>
+      <c r="E13" s="224"/>
+      <c r="F13" s="224"/>
+      <c r="G13" s="224"/>
+      <c r="H13" s="224"/>
+      <c r="I13" s="224"/>
+      <c r="J13" s="224"/>
+      <c r="K13" s="225"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="156">
         <v>44025</v>
       </c>
@@ -13757,7 +13759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="87">
         <v>44032</v>
       </c>
@@ -13792,7 +13794,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="87">
         <v>44039</v>
       </c>
@@ -13827,24 +13829,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="85">
         <v>44043</v>
       </c>
-      <c r="B17" s="216" t="s">
+      <c r="B17" s="223" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="217"/>
-      <c r="D17" s="217"/>
-      <c r="E17" s="217"/>
-      <c r="F17" s="217"/>
-      <c r="G17" s="217"/>
-      <c r="H17" s="217"/>
-      <c r="I17" s="217"/>
-      <c r="J17" s="217"/>
-      <c r="K17" s="218"/>
-    </row>
-    <row r="18" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="224"/>
+      <c r="D17" s="224"/>
+      <c r="E17" s="224"/>
+      <c r="F17" s="224"/>
+      <c r="G17" s="224"/>
+      <c r="H17" s="224"/>
+      <c r="I17" s="224"/>
+      <c r="J17" s="224"/>
+      <c r="K17" s="225"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="87">
         <v>44048</v>
       </c>
@@ -13879,7 +13881,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="87">
         <v>44054</v>
       </c>
@@ -13914,7 +13916,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="87">
         <v>44061</v>
       </c>
@@ -13949,73 +13951,73 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="219" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="226" t="s">
         <v>135</v>
       </c>
-      <c r="B21" s="220"/>
-      <c r="C21" s="220"/>
-      <c r="D21" s="220"/>
-      <c r="E21" s="220"/>
-      <c r="F21" s="220"/>
-      <c r="G21" s="220"/>
-      <c r="H21" s="220"/>
-      <c r="I21" s="220"/>
-      <c r="J21" s="220"/>
-      <c r="K21" s="221"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="227"/>
+      <c r="C21" s="227"/>
+      <c r="D21" s="227"/>
+      <c r="E21" s="227"/>
+      <c r="F21" s="227"/>
+      <c r="G21" s="227"/>
+      <c r="H21" s="227"/>
+      <c r="I21" s="227"/>
+      <c r="J21" s="227"/>
+      <c r="K21" s="228"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="222" t="s">
+      <c r="B22" s="229" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="222"/>
-      <c r="D22" s="222"/>
-      <c r="E22" s="222"/>
-      <c r="F22" s="222"/>
-      <c r="G22" s="222"/>
-      <c r="H22" s="222"/>
-      <c r="I22" s="222"/>
-      <c r="J22" s="222"/>
-      <c r="K22" s="223"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C22" s="229"/>
+      <c r="D22" s="229"/>
+      <c r="E22" s="229"/>
+      <c r="F22" s="229"/>
+      <c r="G22" s="229"/>
+      <c r="H22" s="229"/>
+      <c r="I22" s="229"/>
+      <c r="J22" s="229"/>
+      <c r="K22" s="230"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="224" t="s">
+      <c r="B23" s="231" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="224"/>
-      <c r="D23" s="224"/>
-      <c r="E23" s="224"/>
-      <c r="F23" s="224"/>
-      <c r="G23" s="224"/>
-      <c r="H23" s="224"/>
-      <c r="I23" s="224"/>
-      <c r="J23" s="224"/>
-      <c r="K23" s="225"/>
-    </row>
-    <row r="24" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="231"/>
+      <c r="D23" s="231"/>
+      <c r="E23" s="231"/>
+      <c r="F23" s="231"/>
+      <c r="G23" s="231"/>
+      <c r="H23" s="231"/>
+      <c r="I23" s="231"/>
+      <c r="J23" s="231"/>
+      <c r="K23" s="232"/>
+    </row>
+    <row r="24" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="214" t="s">
+      <c r="B24" s="221" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="214"/>
-      <c r="D24" s="214"/>
-      <c r="E24" s="214"/>
-      <c r="F24" s="214"/>
-      <c r="G24" s="214"/>
-      <c r="H24" s="214"/>
-      <c r="I24" s="214"/>
-      <c r="J24" s="214"/>
-      <c r="K24" s="215"/>
-    </row>
-    <row r="25" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="C24" s="221"/>
+      <c r="D24" s="221"/>
+      <c r="E24" s="221"/>
+      <c r="F24" s="221"/>
+      <c r="G24" s="221"/>
+      <c r="H24" s="221"/>
+      <c r="I24" s="221"/>
+      <c r="J24" s="221"/>
+      <c r="K24" s="222"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A1:K1"/>
@@ -14045,68 +14047,68 @@
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A1" s="175" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A1" s="182" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
-      <c r="I1" s="175"/>
-      <c r="J1" s="175"/>
-      <c r="K1" s="175"/>
-    </row>
-    <row r="2" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="182"/>
+      <c r="I1" s="182"/>
+      <c r="J1" s="182"/>
+      <c r="K1" s="182"/>
+    </row>
+    <row r="2" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="104" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="226" t="s">
+    <row r="3" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="233" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="245"/>
-      <c r="C3" s="245"/>
-      <c r="D3" s="245"/>
-      <c r="E3" s="245"/>
-      <c r="F3" s="245"/>
-      <c r="G3" s="245"/>
-      <c r="H3" s="245"/>
-      <c r="I3" s="245"/>
-      <c r="J3" s="245"/>
-      <c r="K3" s="246"/>
-    </row>
-    <row r="4" spans="1:35" s="3" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="252"/>
+      <c r="C3" s="252"/>
+      <c r="D3" s="252"/>
+      <c r="E3" s="252"/>
+      <c r="F3" s="252"/>
+      <c r="G3" s="252"/>
+      <c r="H3" s="252"/>
+      <c r="I3" s="252"/>
+      <c r="J3" s="252"/>
+      <c r="K3" s="253"/>
+    </row>
+    <row r="4" spans="1:35" s="3" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="247" t="s">
+      <c r="B4" s="254" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="248"/>
-      <c r="D4" s="247" t="s">
+      <c r="C4" s="255"/>
+      <c r="D4" s="254" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="248"/>
-      <c r="F4" s="247" t="s">
+      <c r="E4" s="255"/>
+      <c r="F4" s="254" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="248"/>
-      <c r="H4" s="247" t="s">
+      <c r="G4" s="255"/>
+      <c r="H4" s="254" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="248"/>
-      <c r="J4" s="247" t="s">
+      <c r="I4" s="255"/>
+      <c r="J4" s="254" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="249"/>
+      <c r="K4" s="256"/>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
@@ -14129,7 +14131,7 @@
       <c r="AH4"/>
       <c r="AI4"/>
     </row>
-    <row r="5" spans="1:35" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="86" t="s">
         <v>0</v>
       </c>
@@ -14185,275 +14187,275 @@
       <c r="AH5"/>
       <c r="AI5"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="99">
         <v>44005</v>
       </c>
       <c r="B6" s="120">
         <v>14.163642982643259</v>
       </c>
-      <c r="C6" s="242">
+      <c r="C6" s="249">
         <v>7.69230769230769E-2</v>
       </c>
       <c r="D6" s="120">
         <v>10.021665914008862</v>
       </c>
-      <c r="E6" s="242">
+      <c r="E6" s="249">
         <v>0</v>
       </c>
       <c r="F6" s="120">
         <v>1.8881750225898042</v>
       </c>
-      <c r="G6" s="242">
+      <c r="G6" s="249">
         <v>0</v>
       </c>
       <c r="H6" s="100">
         <v>3.7880780662300646</v>
       </c>
-      <c r="I6" s="239">
+      <c r="I6" s="246">
         <v>0</v>
       </c>
       <c r="J6" s="100">
         <v>2.8314850804230636</v>
       </c>
-      <c r="K6" s="236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="K6" s="243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="99">
         <v>44011</v>
       </c>
       <c r="B7" s="120">
         <v>25.522645676066997</v>
       </c>
-      <c r="C7" s="243"/>
+      <c r="C7" s="250"/>
       <c r="D7" s="120">
         <v>10.021665914008862</v>
       </c>
-      <c r="E7" s="243"/>
+      <c r="E7" s="250"/>
       <c r="F7" s="120">
         <v>1.8881750225898042</v>
       </c>
-      <c r="G7" s="243"/>
+      <c r="G7" s="250"/>
       <c r="H7" s="100">
         <v>7.5761561324601292</v>
       </c>
-      <c r="I7" s="240"/>
+      <c r="I7" s="247"/>
       <c r="J7" s="100">
         <v>2.8314850804230636</v>
       </c>
-      <c r="K7" s="237"/>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="K7" s="244"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="99">
         <v>44019</v>
       </c>
       <c r="B8" s="120">
         <v>20.321496510276965</v>
       </c>
-      <c r="C8" s="243"/>
+      <c r="C8" s="250"/>
       <c r="D8" s="120">
         <v>6.8403632691118492</v>
       </c>
-      <c r="E8" s="243"/>
+      <c r="E8" s="250"/>
       <c r="F8" s="120">
         <v>1.6437518295172258</v>
       </c>
-      <c r="G8" s="243"/>
+      <c r="G8" s="250"/>
       <c r="H8" s="120">
         <v>8.5212521625421758</v>
       </c>
-      <c r="I8" s="240"/>
+      <c r="I8" s="247"/>
       <c r="J8" s="120">
         <v>3.9818676015813006</v>
       </c>
-      <c r="K8" s="237"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="K8" s="244"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="156">
         <v>44025</v>
       </c>
       <c r="B9" s="125">
         <v>40.032198122303697</v>
       </c>
-      <c r="C9" s="243"/>
+      <c r="C9" s="250"/>
       <c r="D9" s="120">
         <v>6.2266602517197427</v>
       </c>
-      <c r="E9" s="243"/>
+      <c r="E9" s="250"/>
       <c r="F9" s="120">
         <v>1.6437518295172258</v>
       </c>
-      <c r="G9" s="243"/>
+      <c r="G9" s="250"/>
       <c r="H9" s="120">
         <v>6.8403632691118492</v>
       </c>
-      <c r="I9" s="240"/>
+      <c r="I9" s="247"/>
       <c r="J9" s="120">
         <v>4.5739647637524294</v>
       </c>
-      <c r="K9" s="237"/>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="K9" s="244"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="87">
         <v>44032</v>
       </c>
       <c r="B10" s="125">
         <v>49.332993514374088</v>
       </c>
-      <c r="C10" s="243"/>
+      <c r="C10" s="250"/>
       <c r="D10" s="120">
         <v>5.3345372167932004</v>
       </c>
-      <c r="E10" s="243"/>
+      <c r="E10" s="250"/>
       <c r="F10" s="120">
         <v>1.6437518295172258</v>
       </c>
-      <c r="G10" s="243"/>
+      <c r="G10" s="250"/>
       <c r="H10" s="120">
         <v>10.368051927942053</v>
       </c>
-      <c r="I10" s="240"/>
+      <c r="I10" s="247"/>
       <c r="J10" s="120">
         <v>5.1706648945764728</v>
       </c>
-      <c r="K10" s="237"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="K10" s="244"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="87">
         <v>44039</v>
       </c>
       <c r="B11" s="120">
         <v>34.194910051894681</v>
       </c>
-      <c r="C11" s="243"/>
+      <c r="C11" s="250"/>
       <c r="D11" s="120">
         <v>2.9925557394776896</v>
       </c>
-      <c r="E11" s="243"/>
+      <c r="E11" s="250"/>
       <c r="F11" s="120">
         <v>1.2457309396155174</v>
       </c>
-      <c r="G11" s="243"/>
+      <c r="G11" s="250"/>
       <c r="H11" s="120">
         <v>8.8825721396916801</v>
       </c>
-      <c r="I11" s="240"/>
+      <c r="I11" s="247"/>
       <c r="J11" s="120">
         <v>3.7996626191740397</v>
       </c>
-      <c r="K11" s="237"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="K11" s="244"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="87">
         <v>44048</v>
       </c>
       <c r="B12" s="125">
         <v>43.108391704344136</v>
       </c>
-      <c r="C12" s="243"/>
+      <c r="C12" s="250"/>
       <c r="D12" s="120">
         <v>5.3925349500948707</v>
       </c>
-      <c r="E12" s="243"/>
+      <c r="E12" s="250"/>
       <c r="F12" s="120">
         <v>1.4309690811052556</v>
       </c>
-      <c r="G12" s="243"/>
+      <c r="G12" s="250"/>
       <c r="H12" s="120">
         <v>8.2412537011387155</v>
       </c>
-      <c r="I12" s="240"/>
+      <c r="I12" s="247"/>
       <c r="J12" s="120">
         <v>6.6155968669143732</v>
       </c>
-      <c r="K12" s="237"/>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="K12" s="244"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="87">
         <v>44054</v>
       </c>
       <c r="B13" s="125">
         <v>38.422562505562567</v>
       </c>
-      <c r="C13" s="243"/>
+      <c r="C13" s="250"/>
       <c r="D13" s="120">
         <v>6.1943960264379951</v>
       </c>
-      <c r="E13" s="243"/>
+      <c r="E13" s="250"/>
       <c r="F13" s="120">
         <v>1</v>
       </c>
-      <c r="G13" s="243"/>
+      <c r="G13" s="250"/>
       <c r="H13" s="120">
         <v>4.0246932341711164</v>
       </c>
-      <c r="I13" s="240"/>
+      <c r="I13" s="247"/>
       <c r="J13" s="120">
         <v>4.0953450221584387</v>
       </c>
-      <c r="K13" s="237"/>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="K13" s="244"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="87">
         <v>44061</v>
       </c>
       <c r="B14" s="101">
         <v>25.429614470037862</v>
       </c>
-      <c r="C14" s="244"/>
+      <c r="C14" s="251"/>
       <c r="D14" s="101">
         <v>9.1442976680260948</v>
       </c>
-      <c r="E14" s="244"/>
+      <c r="E14" s="251"/>
       <c r="F14" s="101">
         <v>1.4142135623730949</v>
       </c>
-      <c r="G14" s="244"/>
+      <c r="G14" s="251"/>
       <c r="H14" s="101">
         <v>5.9112444053102982</v>
       </c>
-      <c r="I14" s="241"/>
+      <c r="I14" s="248"/>
       <c r="J14" s="101">
         <v>6.3086842910598087</v>
       </c>
-      <c r="K14" s="238"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A15" s="219" t="s">
+      <c r="K14" s="245"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" s="226" t="s">
         <v>135</v>
       </c>
-      <c r="B15" s="220"/>
-      <c r="C15" s="220"/>
-      <c r="D15" s="220"/>
-      <c r="E15" s="220"/>
-      <c r="F15" s="220"/>
-      <c r="G15" s="220"/>
-      <c r="H15" s="220"/>
-      <c r="I15" s="220"/>
-      <c r="J15" s="220"/>
-      <c r="K15" s="221"/>
-    </row>
-    <row r="16" spans="1:35" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="227"/>
+      <c r="C15" s="227"/>
+      <c r="D15" s="227"/>
+      <c r="E15" s="227"/>
+      <c r="F15" s="227"/>
+      <c r="G15" s="227"/>
+      <c r="H15" s="227"/>
+      <c r="I15" s="227"/>
+      <c r="J15" s="227"/>
+      <c r="K15" s="228"/>
+    </row>
+    <row r="16" spans="1:35" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="234" t="s">
+      <c r="B16" s="241" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="234"/>
-      <c r="D16" s="234"/>
-      <c r="E16" s="234"/>
-      <c r="F16" s="234"/>
-      <c r="G16" s="234"/>
-      <c r="H16" s="234"/>
-      <c r="I16" s="234"/>
-      <c r="J16" s="234"/>
-      <c r="K16" s="235"/>
-    </row>
-    <row r="17" spans="5:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="C16" s="241"/>
+      <c r="D16" s="241"/>
+      <c r="E16" s="241"/>
+      <c r="F16" s="241"/>
+      <c r="G16" s="241"/>
+      <c r="H16" s="241"/>
+      <c r="I16" s="241"/>
+      <c r="J16" s="241"/>
+      <c r="K16" s="242"/>
+    </row>
+    <row r="17" spans="5:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>219</v>
       </c>
@@ -14488,47 +14490,47 @@
       <selection activeCell="B17" sqref="B17:P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="175" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="182" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
-      <c r="I1" s="175"/>
-      <c r="J1" s="175"/>
-      <c r="K1" s="175"/>
-      <c r="L1" s="175"/>
-      <c r="M1" s="175"/>
-      <c r="N1" s="175"/>
-      <c r="O1" s="175"/>
-      <c r="P1" s="175"/>
-    </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="182"/>
+      <c r="I1" s="182"/>
+      <c r="J1" s="182"/>
+      <c r="K1" s="182"/>
+      <c r="L1" s="182"/>
+      <c r="M1" s="182"/>
+      <c r="N1" s="182"/>
+      <c r="O1" s="182"/>
+      <c r="P1" s="182"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="107"/>
       <c r="B2" s="97"/>
       <c r="C2" s="97"/>
@@ -14549,55 +14551,55 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="226" t="s">
+    <row r="3" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="233" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="245"/>
-      <c r="C3" s="245"/>
-      <c r="D3" s="245"/>
-      <c r="E3" s="245"/>
-      <c r="F3" s="245"/>
-      <c r="G3" s="245"/>
-      <c r="H3" s="245"/>
-      <c r="I3" s="245"/>
-      <c r="J3" s="245"/>
-      <c r="K3" s="245"/>
-      <c r="L3" s="245"/>
-      <c r="M3" s="245"/>
-      <c r="N3" s="245"/>
-      <c r="O3" s="245"/>
-      <c r="P3" s="246"/>
-    </row>
-    <row r="4" spans="1:18" ht="31.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="252"/>
+      <c r="C3" s="252"/>
+      <c r="D3" s="252"/>
+      <c r="E3" s="252"/>
+      <c r="F3" s="252"/>
+      <c r="G3" s="252"/>
+      <c r="H3" s="252"/>
+      <c r="I3" s="252"/>
+      <c r="J3" s="252"/>
+      <c r="K3" s="252"/>
+      <c r="L3" s="252"/>
+      <c r="M3" s="252"/>
+      <c r="N3" s="252"/>
+      <c r="O3" s="252"/>
+      <c r="P3" s="253"/>
+    </row>
+    <row r="4" spans="1:18" ht="31.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="247" t="s">
+      <c r="B4" s="254" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="266"/>
-      <c r="D4" s="248"/>
-      <c r="E4" s="247" t="s">
+      <c r="C4" s="273"/>
+      <c r="D4" s="255"/>
+      <c r="E4" s="254" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="266"/>
-      <c r="G4" s="248"/>
-      <c r="H4" s="247" t="s">
+      <c r="F4" s="273"/>
+      <c r="G4" s="255"/>
+      <c r="H4" s="254" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="266"/>
-      <c r="J4" s="248"/>
-      <c r="K4" s="247" t="s">
+      <c r="I4" s="273"/>
+      <c r="J4" s="255"/>
+      <c r="K4" s="254" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="266"/>
-      <c r="M4" s="248"/>
-      <c r="N4" s="247" t="s">
+      <c r="L4" s="273"/>
+      <c r="M4" s="255"/>
+      <c r="N4" s="254" t="s">
         <v>54</v>
       </c>
-      <c r="O4" s="266"/>
-      <c r="P4" s="249"/>
-    </row>
-    <row r="5" spans="1:18" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O4" s="273"/>
+      <c r="P4" s="256"/>
+    </row>
+    <row r="5" spans="1:18" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="86" t="s">
         <v>0</v>
       </c>
@@ -14647,366 +14649,366 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="87">
         <v>44005</v>
       </c>
       <c r="B6" s="126">
         <v>33.08060410780066</v>
       </c>
-      <c r="C6" s="256">
+      <c r="C6" s="263">
         <v>0.53849999999999998</v>
       </c>
-      <c r="D6" s="253">
+      <c r="D6" s="260">
         <v>7.6899999999999996E-2</v>
       </c>
       <c r="E6" s="128">
         <v>21.395811121327949</v>
       </c>
-      <c r="F6" s="250">
+      <c r="F6" s="257">
         <v>0.30769999999999997</v>
       </c>
-      <c r="G6" s="253">
+      <c r="G6" s="260">
         <v>0</v>
       </c>
       <c r="H6" s="128">
         <v>23.597632800122881</v>
       </c>
-      <c r="I6" s="250">
+      <c r="I6" s="257">
         <v>0.30769999999999997</v>
       </c>
-      <c r="J6" s="253">
+      <c r="J6" s="260">
         <v>0</v>
       </c>
       <c r="K6" s="128">
         <v>22.644350588563061</v>
       </c>
-      <c r="L6" s="256">
+      <c r="L6" s="263">
         <v>0.61539999999999995</v>
       </c>
-      <c r="M6" s="253">
+      <c r="M6" s="260">
         <v>0</v>
       </c>
       <c r="N6" s="162">
         <v>17.641925344776748</v>
       </c>
-      <c r="O6" s="250">
+      <c r="O6" s="257">
         <v>0.15379999999999999</v>
       </c>
-      <c r="P6" s="263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P6" s="270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="87">
         <v>44011</v>
       </c>
       <c r="B7" s="126">
         <v>23.272000451163198</v>
       </c>
-      <c r="C7" s="257"/>
-      <c r="D7" s="254"/>
+      <c r="C7" s="264"/>
+      <c r="D7" s="261"/>
       <c r="E7" s="128">
         <v>14.346389045745395</v>
       </c>
-      <c r="F7" s="251"/>
-      <c r="G7" s="254"/>
+      <c r="F7" s="258"/>
+      <c r="G7" s="261"/>
       <c r="H7" s="128">
         <v>15.921997047504334</v>
       </c>
-      <c r="I7" s="251"/>
-      <c r="J7" s="254"/>
+      <c r="I7" s="258"/>
+      <c r="J7" s="261"/>
       <c r="K7" s="128">
         <v>38.215560608406783</v>
       </c>
-      <c r="L7" s="257"/>
-      <c r="M7" s="254"/>
+      <c r="L7" s="264"/>
+      <c r="M7" s="261"/>
       <c r="N7" s="103">
         <v>12.6165197514936</v>
       </c>
-      <c r="O7" s="251"/>
-      <c r="P7" s="264"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O7" s="258"/>
+      <c r="P7" s="271"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="87">
         <v>44019</v>
       </c>
       <c r="B8" s="126">
         <v>16.666813240515243</v>
       </c>
-      <c r="C8" s="257"/>
-      <c r="D8" s="254"/>
+      <c r="C8" s="264"/>
+      <c r="D8" s="261"/>
       <c r="E8" s="103">
         <v>8.8957975701987895</v>
       </c>
-      <c r="F8" s="251"/>
-      <c r="G8" s="254"/>
+      <c r="F8" s="258"/>
+      <c r="G8" s="261"/>
       <c r="H8" s="128">
         <v>14.273331612887977</v>
       </c>
-      <c r="I8" s="251"/>
-      <c r="J8" s="254"/>
+      <c r="I8" s="258"/>
+      <c r="J8" s="261"/>
       <c r="K8" s="128">
         <v>56.397498701176701</v>
       </c>
-      <c r="L8" s="257"/>
-      <c r="M8" s="254"/>
+      <c r="L8" s="264"/>
+      <c r="M8" s="261"/>
       <c r="N8" s="128">
         <v>17.661882170535574</v>
       </c>
-      <c r="O8" s="251"/>
-      <c r="P8" s="264"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O8" s="258"/>
+      <c r="P8" s="271"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="87">
         <v>44025</v>
       </c>
       <c r="B9" s="126">
         <v>35.426084385151015</v>
       </c>
-      <c r="C9" s="257"/>
-      <c r="D9" s="254"/>
+      <c r="C9" s="264"/>
+      <c r="D9" s="261"/>
       <c r="E9" s="103">
         <v>6.5228387904163379</v>
       </c>
-      <c r="F9" s="251"/>
-      <c r="G9" s="254"/>
+      <c r="F9" s="258"/>
+      <c r="G9" s="261"/>
       <c r="H9" s="103">
         <v>10.288276478101775</v>
       </c>
-      <c r="I9" s="251"/>
-      <c r="J9" s="254"/>
+      <c r="I9" s="258"/>
+      <c r="J9" s="261"/>
       <c r="K9" s="128">
         <v>76.213159664643086</v>
       </c>
-      <c r="L9" s="257"/>
-      <c r="M9" s="254"/>
+      <c r="L9" s="264"/>
+      <c r="M9" s="261"/>
       <c r="N9" s="103">
         <v>13.526696144976201</v>
       </c>
-      <c r="O9" s="251"/>
-      <c r="P9" s="264"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O9" s="258"/>
+      <c r="P9" s="271"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="87">
         <v>44032</v>
       </c>
       <c r="B10" s="126">
         <v>54.332086373112325</v>
       </c>
-      <c r="C10" s="257"/>
-      <c r="D10" s="254"/>
+      <c r="C10" s="264"/>
+      <c r="D10" s="261"/>
       <c r="E10" s="103">
         <v>9.6309229273197356</v>
       </c>
-      <c r="F10" s="251"/>
-      <c r="G10" s="254"/>
+      <c r="F10" s="258"/>
+      <c r="G10" s="261"/>
       <c r="H10" s="128">
         <v>14.96051100207255</v>
       </c>
-      <c r="I10" s="251"/>
-      <c r="J10" s="254"/>
+      <c r="I10" s="258"/>
+      <c r="J10" s="261"/>
       <c r="K10" s="128">
         <v>105.51446060687503</v>
       </c>
-      <c r="L10" s="257"/>
-      <c r="M10" s="254"/>
+      <c r="L10" s="264"/>
+      <c r="M10" s="261"/>
       <c r="N10" s="128">
         <v>17.738169422210554</v>
       </c>
-      <c r="O10" s="251"/>
-      <c r="P10" s="264"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O10" s="258"/>
+      <c r="P10" s="271"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="87">
         <v>44039</v>
       </c>
       <c r="B11" s="126">
         <v>100.37724176365805</v>
       </c>
-      <c r="C11" s="257"/>
-      <c r="D11" s="254"/>
+      <c r="C11" s="264"/>
+      <c r="D11" s="261"/>
       <c r="E11" s="103">
         <v>12.159896986661952</v>
       </c>
-      <c r="F11" s="251"/>
-      <c r="G11" s="254"/>
+      <c r="F11" s="258"/>
+      <c r="G11" s="261"/>
       <c r="H11" s="103">
         <v>8.8365559224036119</v>
       </c>
-      <c r="I11" s="251"/>
-      <c r="J11" s="254"/>
+      <c r="I11" s="258"/>
+      <c r="J11" s="261"/>
       <c r="K11" s="128">
         <v>62.787052924838868</v>
       </c>
-      <c r="L11" s="257"/>
-      <c r="M11" s="254"/>
+      <c r="L11" s="264"/>
+      <c r="M11" s="261"/>
       <c r="N11" s="128">
         <v>18.171205928321395</v>
       </c>
-      <c r="O11" s="251"/>
-      <c r="P11" s="264"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O11" s="258"/>
+      <c r="P11" s="271"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="87">
         <v>44048</v>
       </c>
       <c r="B12" s="126">
         <v>116.79678786133688</v>
       </c>
-      <c r="C12" s="257"/>
-      <c r="D12" s="254"/>
+      <c r="C12" s="264"/>
+      <c r="D12" s="261"/>
       <c r="E12" s="128">
         <v>15.365186828730106</v>
       </c>
-      <c r="F12" s="251"/>
-      <c r="G12" s="254"/>
+      <c r="F12" s="258"/>
+      <c r="G12" s="261"/>
       <c r="H12" s="103">
         <v>8.2457653775279294</v>
       </c>
-      <c r="I12" s="251"/>
-      <c r="J12" s="254"/>
+      <c r="I12" s="258"/>
+      <c r="J12" s="261"/>
       <c r="K12" s="128">
         <v>61.287412753200151</v>
       </c>
-      <c r="L12" s="257"/>
-      <c r="M12" s="254"/>
+      <c r="L12" s="264"/>
+      <c r="M12" s="261"/>
       <c r="N12" s="128">
         <v>20.42383588585367</v>
       </c>
-      <c r="O12" s="251"/>
-      <c r="P12" s="264"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O12" s="258"/>
+      <c r="P12" s="271"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="87">
         <v>44054</v>
       </c>
       <c r="B13" s="126">
         <v>79.439134437386485</v>
       </c>
-      <c r="C13" s="257"/>
-      <c r="D13" s="254"/>
+      <c r="C13" s="264"/>
+      <c r="D13" s="261"/>
       <c r="E13" s="128">
         <v>18.876608443272278</v>
       </c>
-      <c r="F13" s="251"/>
-      <c r="G13" s="254"/>
+      <c r="F13" s="258"/>
+      <c r="G13" s="261"/>
       <c r="H13" s="103">
         <v>6.0127696040083451</v>
       </c>
-      <c r="I13" s="251"/>
-      <c r="J13" s="254"/>
+      <c r="I13" s="258"/>
+      <c r="J13" s="261"/>
       <c r="K13" s="128">
         <v>33.521333078293225</v>
       </c>
-      <c r="L13" s="257"/>
-      <c r="M13" s="254"/>
+      <c r="L13" s="264"/>
+      <c r="M13" s="261"/>
       <c r="N13" s="128">
         <v>20.130778478807645</v>
       </c>
-      <c r="O13" s="251"/>
-      <c r="P13" s="264"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O13" s="258"/>
+      <c r="P13" s="271"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="87">
         <v>44061</v>
       </c>
       <c r="B14" s="127">
         <v>60.442516756167393</v>
       </c>
-      <c r="C14" s="258"/>
-      <c r="D14" s="255"/>
+      <c r="C14" s="265"/>
+      <c r="D14" s="262"/>
       <c r="E14" s="128">
         <v>20.327980051809416</v>
       </c>
-      <c r="F14" s="252"/>
-      <c r="G14" s="255"/>
+      <c r="F14" s="259"/>
+      <c r="G14" s="262"/>
       <c r="H14" s="103">
         <v>7.1633605575943573</v>
       </c>
-      <c r="I14" s="252"/>
-      <c r="J14" s="255"/>
+      <c r="I14" s="259"/>
+      <c r="J14" s="262"/>
       <c r="K14" s="128">
         <v>45.226628691318233</v>
       </c>
-      <c r="L14" s="258"/>
-      <c r="M14" s="255"/>
+      <c r="L14" s="265"/>
+      <c r="M14" s="262"/>
       <c r="N14" s="128">
         <v>22.642014848563427</v>
       </c>
-      <c r="O14" s="252"/>
-      <c r="P14" s="265"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="219" t="s">
+      <c r="O14" s="259"/>
+      <c r="P14" s="272"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="226" t="s">
         <v>135</v>
       </c>
-      <c r="B15" s="220"/>
-      <c r="C15" s="220"/>
-      <c r="D15" s="220"/>
-      <c r="E15" s="220"/>
-      <c r="F15" s="220"/>
-      <c r="G15" s="220"/>
-      <c r="H15" s="220"/>
-      <c r="I15" s="220"/>
-      <c r="J15" s="220"/>
-      <c r="K15" s="220"/>
-      <c r="L15" s="220"/>
-      <c r="M15" s="220"/>
-      <c r="N15" s="220"/>
-      <c r="O15" s="220"/>
-      <c r="P15" s="221"/>
-    </row>
-    <row r="16" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="227"/>
+      <c r="C15" s="227"/>
+      <c r="D15" s="227"/>
+      <c r="E15" s="227"/>
+      <c r="F15" s="227"/>
+      <c r="G15" s="227"/>
+      <c r="H15" s="227"/>
+      <c r="I15" s="227"/>
+      <c r="J15" s="227"/>
+      <c r="K15" s="227"/>
+      <c r="L15" s="227"/>
+      <c r="M15" s="227"/>
+      <c r="N15" s="227"/>
+      <c r="O15" s="227"/>
+      <c r="P15" s="228"/>
+    </row>
+    <row r="16" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="261" t="s">
+      <c r="B16" s="268" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="261"/>
-      <c r="D16" s="261"/>
-      <c r="E16" s="261"/>
-      <c r="F16" s="261"/>
-      <c r="G16" s="261"/>
-      <c r="H16" s="261"/>
-      <c r="I16" s="261"/>
-      <c r="J16" s="261"/>
-      <c r="K16" s="261"/>
-      <c r="L16" s="261"/>
-      <c r="M16" s="261"/>
-      <c r="N16" s="261"/>
-      <c r="O16" s="261"/>
-      <c r="P16" s="262"/>
-    </row>
-    <row r="17" spans="1:16" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="268"/>
+      <c r="D16" s="268"/>
+      <c r="E16" s="268"/>
+      <c r="F16" s="268"/>
+      <c r="G16" s="268"/>
+      <c r="H16" s="268"/>
+      <c r="I16" s="268"/>
+      <c r="J16" s="268"/>
+      <c r="K16" s="268"/>
+      <c r="L16" s="268"/>
+      <c r="M16" s="268"/>
+      <c r="N16" s="268"/>
+      <c r="O16" s="268"/>
+      <c r="P16" s="269"/>
+    </row>
+    <row r="17" spans="1:16" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="259" t="s">
+      <c r="B17" s="266" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="259"/>
-      <c r="D17" s="259"/>
-      <c r="E17" s="259"/>
-      <c r="F17" s="259"/>
-      <c r="G17" s="259"/>
-      <c r="H17" s="259"/>
-      <c r="I17" s="259"/>
-      <c r="J17" s="259"/>
-      <c r="K17" s="259"/>
-      <c r="L17" s="259"/>
-      <c r="M17" s="259"/>
-      <c r="N17" s="259"/>
-      <c r="O17" s="259"/>
-      <c r="P17" s="260"/>
-    </row>
-    <row r="18" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C17" s="266"/>
+      <c r="D17" s="266"/>
+      <c r="E17" s="266"/>
+      <c r="F17" s="266"/>
+      <c r="G17" s="266"/>
+      <c r="H17" s="266"/>
+      <c r="I17" s="266"/>
+      <c r="J17" s="266"/>
+      <c r="K17" s="266"/>
+      <c r="L17" s="266"/>
+      <c r="M17" s="266"/>
+      <c r="N17" s="266"/>
+      <c r="O17" s="266"/>
+      <c r="P17" s="267"/>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I29" s="121"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
     <mergeCell ref="A1:P1"/>
